--- a/Comsol/Task/Table for SOR.xlsx
+++ b/Comsol/Task/Table for SOR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\PolimerSolve\Comsol\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E4820-D521-4FB5-AB49-F20C35BC6114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC392D31-3FB8-4A24-9D2C-0891F09F73F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
   </bookViews>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Hin</t>
   </si>
@@ -91,9 +85,6 @@
     <t>-HinDt + k33*Hin*HinHD - k14*HinD + k24*Hin*D</t>
   </si>
   <si>
-    <t>-WTFt + k15*HinHD</t>
-  </si>
-  <si>
     <t>-Hin_mt + light*k11*Hin*DH - k21*Hin_m*DH_p</t>
   </si>
   <si>
@@ -110,6 +101,12 @@
   </si>
   <si>
     <t>-HinHDt + k31*HinH*D - k33*Hin*HinHD - k15*HinHD</t>
+  </si>
+  <si>
+    <t>-WTFt + k15*HinHD+k16*D^2</t>
+  </si>
+  <si>
+    <t>-Dt + k21*Hin_m*DH_p - k31*HinH*D + k14*HinD - k24*Hin*D-2*k16*D^2</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -542,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -556,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -570,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -612,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -672,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -700,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -728,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -742,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>

--- a/Comsol/Task/Table for SOR.xlsx
+++ b/Comsol/Task/Table for SOR.xlsx
@@ -1,32 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\PolimerSolve\Comsol\Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\PolimerSolve\Comsol\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC392D31-3FB8-4A24-9D2C-0891F09F73F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166AF85D-9B83-49A4-94F9-73774458B2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="2" r:id="rId1"/>
-    <sheet name="2" sheetId="6" r:id="rId2"/>
+    <sheet name="R_input" sheetId="11" r:id="rId1"/>
+    <sheet name="M_input" sheetId="9" r:id="rId2"/>
+    <sheet name="R" sheetId="7" r:id="rId3"/>
+    <sheet name="M" sheetId="10" r:id="rId4"/>
+    <sheet name="C" sheetId="14" r:id="rId5"/>
+    <sheet name="C0" sheetId="15" r:id="rId6"/>
+    <sheet name="R_convert" sheetId="12" r:id="rId7"/>
+    <sheet name="M_convert" sheetId="8" r:id="rId8"/>
+    <sheet name="C0 (test)" sheetId="17" r:id="rId9"/>
+    <sheet name="1" sheetId="2" r:id="rId10"/>
+    <sheet name="2" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Hin</t>
   </si>
@@ -107,13 +122,151 @@
   </si>
   <si>
     <t>-Dt + k21*Hin_m*DH_p - k31*HinH*D + k14*HinD - k24*Hin*D-2*k16*D^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k1*[Hin]*[DH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k2*[Hin_m]*[DH_p]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k3*[HinH]*[D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k4*[HinH]*[HinH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k5*[Hin]*[Pyr]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k6*[Hin]*[HinHD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k7*[HinD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k8*[Hin]*[D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k9*[HinHD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k10*[D]*[D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k11*[Hin]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[Hin]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -R1 + R4 - R5 - R6 + R7 - R8 - R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[DH]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[Hin_m]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R1 - R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[DH_p]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[HinH]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R2 - R3 - 2*R4 + 2*R5 + R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[D]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R2 - R3 + R7 - R8 - 2*R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[HinHD]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R3 - R6 - R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[Pyr]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R4 - R5 + R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[HinD]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R6 - R7 + R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[WTF]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R9 + R10 + R11</t>
+  </si>
+  <si>
+    <t>-Hint - light*k11*Hin*DH- + k12*HinH^2 - k22*Hin*Pyr - k33*Hin*HinHD - k24*Hin*D + k14*HinD</t>
+  </si>
+  <si>
+    <t>K2*k5</t>
+  </si>
+  <si>
+    <t>K4*k8</t>
+  </si>
+  <si>
+    <t>K2*</t>
+  </si>
+  <si>
+    <t>K4*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +275,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +293,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,10 +333,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,11 +660,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC004EF-9749-40F7-95FF-52C1C3E3A09E}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DDBF04-27AC-48A0-A024-B243676F2928}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,12 +975,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EE7D9B-D33F-4112-A003-64986E8D4D52}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -774,6 +1126,5471 @@
       </c>
       <c r="D10">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4527E22-E585-4C3E-AD6E-6078FFF9F406}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A297F0C-5177-4B2E-95BE-D520EB006807}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="str">
+        <f>TRIM(IF(R_input!$A1="","",R_input!$A1))</f>
+        <v>R1</v>
+      </c>
+      <c r="B1" s="8" t="str">
+        <f>IFERROR(R_convert!$B1,"")</f>
+        <v xml:space="preserve"> k1*Hin*DH</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="str">
+        <f>TRIM(IF(R_input!$A2="","",R_input!$A2))</f>
+        <v>R2</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>IFERROR(R_convert!$B2,"")</f>
+        <v xml:space="preserve"> k2*Hin_m*DH_p</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="str">
+        <f>TRIM(IF(R_input!$A3="","",R_input!$A3))</f>
+        <v>R3</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>IFERROR(R_convert!$B3,"")</f>
+        <v xml:space="preserve"> k3*HinH*D</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="str">
+        <f>TRIM(IF(R_input!$A4="","",R_input!$A4))</f>
+        <v>R4</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>IFERROR(R_convert!$B4,"")</f>
+        <v xml:space="preserve"> k4*HinH*HinH</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="str">
+        <f>TRIM(IF(R_input!$A5="","",R_input!$A5))</f>
+        <v>R5</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>IFERROR(R_convert!$B5,"")</f>
+        <v xml:space="preserve"> k5*Hin*Pyr</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="str">
+        <f>TRIM(IF(R_input!$A6="","",R_input!$A6))</f>
+        <v>R6</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>IFERROR(R_convert!$B6,"")</f>
+        <v xml:space="preserve"> k6*Hin*HinHD</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="str">
+        <f>TRIM(IF(R_input!$A7="","",R_input!$A7))</f>
+        <v>R7</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>IFERROR(R_convert!$B7,"")</f>
+        <v xml:space="preserve"> k7*HinD</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="str">
+        <f>TRIM(IF(R_input!$A8="","",R_input!$A8))</f>
+        <v>R8</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f>IFERROR(R_convert!$B8,"")</f>
+        <v xml:space="preserve"> k8*Hin*D</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="str">
+        <f>TRIM(IF(R_input!$A9="","",R_input!$A9))</f>
+        <v>R9</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>IFERROR(R_convert!$B9,"")</f>
+        <v xml:space="preserve"> k9*HinHD</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="str">
+        <f>TRIM(IF(R_input!$A10="","",R_input!$A10))</f>
+        <v>R10</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>IFERROR(R_convert!$B10,"")</f>
+        <v xml:space="preserve"> k10*D*D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="str">
+        <f>TRIM(IF(R_input!$A11="","",R_input!$A11))</f>
+        <v>R11</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>IFERROR(R_convert!$B11,"")</f>
+        <v xml:space="preserve"> k11*Hin</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="str">
+        <f>TRIM(IF(R_input!$A12="","",R_input!$A12))</f>
+        <v/>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>IFERROR(R_convert!$B12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="str">
+        <f>TRIM(IF(R_input!$A13="","",R_input!$A13))</f>
+        <v/>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>IFERROR(R_convert!$B13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="str">
+        <f>TRIM(IF(R_input!$A14="","",R_input!$A14))</f>
+        <v/>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f>IFERROR(R_convert!$B14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="str">
+        <f>TRIM(IF(R_input!$A15="","",R_input!$A15))</f>
+        <v/>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f>IFERROR(R_convert!$B15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="str">
+        <f>TRIM(IF(R_input!$A16="","",R_input!$A16))</f>
+        <v/>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>IFERROR(R_convert!$B16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="str">
+        <f>TRIM(IF(R_input!$A17="","",R_input!$A17))</f>
+        <v/>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f>IFERROR(R_convert!$B17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="str">
+        <f>TRIM(IF(R_input!$A18="","",R_input!$A18))</f>
+        <v/>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f>IFERROR(R_convert!$B18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="str">
+        <f>TRIM(IF(R_input!$A19="","",R_input!$A19))</f>
+        <v/>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f>IFERROR(R_convert!$B19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="str">
+        <f>TRIM(IF(R_input!$A20="","",R_input!$A20))</f>
+        <v/>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f>IFERROR(R_convert!$B20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="str">
+        <f>TRIM(IF(R_input!$A21="","",R_input!$A21))</f>
+        <v/>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f>IFERROR(R_convert!$B21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="str">
+        <f>TRIM(IF(R_input!$A22="","",R_input!$A22))</f>
+        <v/>
+      </c>
+      <c r="B22" s="8" t="str">
+        <f>IFERROR(R_convert!$B22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="str">
+        <f>TRIM(IF(R_input!$A23="","",R_input!$A23))</f>
+        <v/>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f>IFERROR(R_convert!$B23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="str">
+        <f>TRIM(IF(R_input!$A24="","",R_input!$A24))</f>
+        <v/>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f>IFERROR(R_convert!$B24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="str">
+        <f>TRIM(IF(R_input!$A25="","",R_input!$A25))</f>
+        <v/>
+      </c>
+      <c r="B25" s="8" t="str">
+        <f>IFERROR(R_convert!$B25,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="str">
+        <f>TRIM(IF(R_input!$A26="","",R_input!$A26))</f>
+        <v/>
+      </c>
+      <c r="B26" s="8" t="str">
+        <f>IFERROR(R_convert!$B26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="str">
+        <f>TRIM(IF(R_input!$A27="","",R_input!$A27))</f>
+        <v/>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f>IFERROR(R_convert!$B27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="str">
+        <f>TRIM(IF(R_input!$A28="","",R_input!$A28))</f>
+        <v/>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f>IFERROR(R_convert!$B28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="str">
+        <f>TRIM(IF(R_input!$A29="","",R_input!$A29))</f>
+        <v/>
+      </c>
+      <c r="B29" s="8" t="str">
+        <f>IFERROR(R_convert!$B29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="str">
+        <f>TRIM(IF(R_input!$A30="","",R_input!$A30))</f>
+        <v/>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f>IFERROR(R_convert!$B30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="str">
+        <f>TRIM(IF(R_input!$A31="","",R_input!$A31))</f>
+        <v/>
+      </c>
+      <c r="B31" s="8" t="str">
+        <f>IFERROR(R_convert!$B31,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="str">
+        <f>TRIM(IF(R_input!$A32="","",R_input!$A32))</f>
+        <v/>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f>IFERROR(R_convert!$B32,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="str">
+        <f>TRIM(IF(R_input!$A33="","",R_input!$A33))</f>
+        <v/>
+      </c>
+      <c r="B33" s="8" t="str">
+        <f>IFERROR(R_convert!$B33,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="str">
+        <f>TRIM(IF(R_input!$A34="","",R_input!$A34))</f>
+        <v/>
+      </c>
+      <c r="B34" s="8" t="str">
+        <f>IFERROR(R_convert!$B34,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="str">
+        <f>TRIM(IF(R_input!$A35="","",R_input!$A35))</f>
+        <v/>
+      </c>
+      <c r="B35" s="8" t="str">
+        <f>IFERROR(R_convert!$B35,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="str">
+        <f>TRIM(IF(R_input!$A36="","",R_input!$A36))</f>
+        <v/>
+      </c>
+      <c r="B36" s="8" t="str">
+        <f>IFERROR(R_convert!$B36,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="str">
+        <f>TRIM(IF(R_input!$A37="","",R_input!$A37))</f>
+        <v/>
+      </c>
+      <c r="B37" s="8" t="str">
+        <f>IFERROR(R_convert!$B37,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="str">
+        <f>TRIM(IF(R_input!$A38="","",R_input!$A38))</f>
+        <v/>
+      </c>
+      <c r="B38" s="8" t="str">
+        <f>IFERROR(R_convert!$B38,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="str">
+        <f>TRIM(IF(R_input!$A39="","",R_input!$A39))</f>
+        <v/>
+      </c>
+      <c r="B39" s="8" t="str">
+        <f>IFERROR(R_convert!$B39,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="str">
+        <f>TRIM(IF(R_input!$A40="","",R_input!$A40))</f>
+        <v/>
+      </c>
+      <c r="B40" s="8" t="str">
+        <f>IFERROR(R_convert!$B40,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="str">
+        <f>TRIM(IF(R_input!$A41="","",R_input!$A41))</f>
+        <v/>
+      </c>
+      <c r="B41" s="8" t="str">
+        <f>IFERROR(R_convert!$B41,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="str">
+        <f>TRIM(IF(R_input!$A42="","",R_input!$A42))</f>
+        <v/>
+      </c>
+      <c r="B42" s="8" t="str">
+        <f>IFERROR(R_convert!$B42,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="str">
+        <f>TRIM(IF(R_input!$A43="","",R_input!$A43))</f>
+        <v/>
+      </c>
+      <c r="B43" s="8" t="str">
+        <f>IFERROR(R_convert!$B43,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="str">
+        <f>TRIM(IF(R_input!$A44="","",R_input!$A44))</f>
+        <v/>
+      </c>
+      <c r="B44" s="8" t="str">
+        <f>IFERROR(R_convert!$B44,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="str">
+        <f>TRIM(IF(R_input!$A45="","",R_input!$A45))</f>
+        <v/>
+      </c>
+      <c r="B45" s="8" t="str">
+        <f>IFERROR(R_convert!$B45,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="str">
+        <f>TRIM(IF(R_input!$A46="","",R_input!$A46))</f>
+        <v/>
+      </c>
+      <c r="B46" s="8" t="str">
+        <f>IFERROR(R_convert!$B46,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="str">
+        <f>TRIM(IF(R_input!$A47="","",R_input!$A47))</f>
+        <v/>
+      </c>
+      <c r="B47" s="8" t="str">
+        <f>IFERROR(R_convert!$B47,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="str">
+        <f>TRIM(IF(R_input!$A48="","",R_input!$A48))</f>
+        <v/>
+      </c>
+      <c r="B48" s="8" t="str">
+        <f>IFERROR(R_convert!$B48,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="str">
+        <f>TRIM(IF(R_input!$A49="","",R_input!$A49))</f>
+        <v/>
+      </c>
+      <c r="B49" s="8" t="str">
+        <f>IFERROR(R_convert!$B49,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="str">
+        <f>TRIM(IF(R_input!$A50="","",R_input!$A50))</f>
+        <v/>
+      </c>
+      <c r="B50" s="8" t="str">
+        <f>IFERROR(R_convert!$B50,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="str">
+        <f>TRIM(IF(R_input!$A51="","",R_input!$A51))</f>
+        <v/>
+      </c>
+      <c r="B51" s="8" t="str">
+        <f>IFERROR(R_convert!$B51,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="str">
+        <f>TRIM(IF(R_input!$A52="","",R_input!$A52))</f>
+        <v/>
+      </c>
+      <c r="B52" s="8" t="str">
+        <f>IFERROR(R_convert!$B52,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="str">
+        <f>TRIM(IF(R_input!$A53="","",R_input!$A53))</f>
+        <v/>
+      </c>
+      <c r="B53" s="8" t="str">
+        <f>IFERROR(R_convert!$B53,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="str">
+        <f>TRIM(IF(R_input!$A54="","",R_input!$A54))</f>
+        <v/>
+      </c>
+      <c r="B54" s="8" t="str">
+        <f>IFERROR(R_convert!$B54,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="str">
+        <f>TRIM(IF(R_input!$A55="","",R_input!$A55))</f>
+        <v/>
+      </c>
+      <c r="B55" s="8" t="str">
+        <f>IFERROR(R_convert!$B55,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="str">
+        <f>TRIM(IF(R_input!$A56="","",R_input!$A56))</f>
+        <v/>
+      </c>
+      <c r="B56" s="8" t="str">
+        <f>IFERROR(R_convert!$B56,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="str">
+        <f>TRIM(IF(R_input!$A57="","",R_input!$A57))</f>
+        <v/>
+      </c>
+      <c r="B57" s="8" t="str">
+        <f>IFERROR(R_convert!$B57,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="str">
+        <f>TRIM(IF(R_input!$A58="","",R_input!$A58))</f>
+        <v/>
+      </c>
+      <c r="B58" s="8" t="str">
+        <f>IFERROR(R_convert!$B58,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="str">
+        <f>TRIM(IF(R_input!$A59="","",R_input!$A59))</f>
+        <v/>
+      </c>
+      <c r="B59" s="8" t="str">
+        <f>IFERROR(R_convert!$B59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="str">
+        <f>TRIM(IF(R_input!$A60="","",R_input!$A60))</f>
+        <v/>
+      </c>
+      <c r="B60" s="8" t="str">
+        <f>IFERROR(R_convert!$B60,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5012839-9705-49AC-A3CF-9134995D8542}">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="str">
+        <f>IFERROR(M_convert!$B1,"")</f>
+        <v>Hin</v>
+      </c>
+      <c r="B1" s="8" t="str">
+        <f>IFERROR(M_convert!$D1,"")</f>
+        <v>-Hint + -R1 + R4 - R5 - R6 + R7 - R8 - R11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="str">
+        <f>IFERROR(M_convert!$B2,"")</f>
+        <v>DH</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>IFERROR(M_convert!$D2,"")</f>
+        <v>-DHt + -R1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="str">
+        <f>IFERROR(M_convert!$B3,"")</f>
+        <v>Hin_m</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>IFERROR(M_convert!$D3,"")</f>
+        <v>-Hin_mt + R1 - R2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="str">
+        <f>IFERROR(M_convert!$B4,"")</f>
+        <v>DH_p</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>IFERROR(M_convert!$D4,"")</f>
+        <v>-DH_pt + R1 - R2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="str">
+        <f>IFERROR(M_convert!$B5,"")</f>
+        <v>HinH</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>IFERROR(M_convert!$D5,"")</f>
+        <v>-HinHt + R2 - R3 - 2*R4 + 2*R5 + R6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="str">
+        <f>IFERROR(M_convert!$B6,"")</f>
+        <v>D</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>IFERROR(M_convert!$D6,"")</f>
+        <v>-Dt + R2 - R3 + R7 - R8 - 2*R10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="str">
+        <f>IFERROR(M_convert!$B7,"")</f>
+        <v>HinHD</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>IFERROR(M_convert!$D7,"")</f>
+        <v>-HinHDt + R3 - R6 - R9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="str">
+        <f>IFERROR(M_convert!$B8,"")</f>
+        <v>Pyr</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f>IFERROR(M_convert!$D8,"")</f>
+        <v>-Pyrt + R4 - R5 + R9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>IFERROR(M_convert!$B9,"")</f>
+        <v>HinD</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>IFERROR(M_convert!$D9,"")</f>
+        <v>-HinDt + R6 - R7 + R8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="str">
+        <f>IFERROR(M_convert!$B10,"")</f>
+        <v>WTF</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>IFERROR(M_convert!$D10,"")</f>
+        <v>-WTFt + R9 + R10 + R11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="str">
+        <f>IFERROR(M_convert!$B11,"")</f>
+        <v/>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>IFERROR(M_convert!$D11,"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="str">
+        <f>IFERROR(M_convert!$B12,"")</f>
+        <v/>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>IFERROR(M_convert!$D12,"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="str">
+        <f>IFERROR(M_convert!$B13,"")</f>
+        <v/>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>IFERROR(M_convert!$D13,"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="str">
+        <f>IFERROR(M_convert!$B14,"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f>IFERROR(M_convert!$D14,"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="str">
+        <f>IFERROR(M_convert!$B15,"")</f>
+        <v/>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f>IFERROR(M_convert!$D15,"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="str">
+        <f>IFERROR(M_convert!$B16,"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>IFERROR(M_convert!$D16,"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="str">
+        <f>IFERROR(M_convert!$B17,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f>IFERROR(M_convert!$D17,"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="str">
+        <f>IFERROR(M_convert!$B18,"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f>IFERROR(M_convert!$D18,"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="str">
+        <f>IFERROR(M_convert!$B19,"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f>IFERROR(M_convert!$D19,"")</f>
+        <v/>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="str">
+        <f>IFERROR(M_convert!$B20,"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f>IFERROR(M_convert!$D20,"")</f>
+        <v/>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="str">
+        <f>IFERROR(M_convert!$B21,"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f>IFERROR(M_convert!$D21,"")</f>
+        <v/>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="str">
+        <f>IFERROR(M_convert!$B22,"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="8" t="str">
+        <f>IFERROR(M_convert!$D22,"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="str">
+        <f>IFERROR(M_convert!$B23,"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f>IFERROR(M_convert!$D23,"")</f>
+        <v/>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="str">
+        <f>IFERROR(M_convert!$B24,"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f>IFERROR(M_convert!$D24,"")</f>
+        <v/>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="str">
+        <f>IFERROR(M_convert!$B25,"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="8" t="str">
+        <f>IFERROR(M_convert!$D25,"")</f>
+        <v/>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="str">
+        <f>IFERROR(M_convert!$B26,"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="8" t="str">
+        <f>IFERROR(M_convert!$D26,"")</f>
+        <v/>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="str">
+        <f>IFERROR(M_convert!$B27,"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f>IFERROR(M_convert!$D27,"")</f>
+        <v/>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="str">
+        <f>IFERROR(M_convert!$B28,"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f>IFERROR(M_convert!$D28,"")</f>
+        <v/>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="str">
+        <f>IFERROR(M_convert!$B29,"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="8" t="str">
+        <f>IFERROR(M_convert!$D29,"")</f>
+        <v/>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="str">
+        <f>IFERROR(M_convert!$B30,"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f>IFERROR(M_convert!$D30,"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="str">
+        <f>IFERROR(M_convert!$B31,"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="8" t="str">
+        <f>IFERROR(M_convert!$D31,"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="str">
+        <f>IFERROR(M_convert!$B32,"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f>IFERROR(M_convert!$D32,"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="str">
+        <f>IFERROR(M_convert!$B33,"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="8" t="str">
+        <f>IFERROR(M_convert!$D33,"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="str">
+        <f>IFERROR(M_convert!$B34,"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="8" t="str">
+        <f>IFERROR(M_convert!$D34,"")</f>
+        <v/>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="str">
+        <f>IFERROR(M_convert!$B35,"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="8" t="str">
+        <f>IFERROR(M_convert!$D35,"")</f>
+        <v/>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="str">
+        <f>IFERROR(M_convert!$B36,"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="8" t="str">
+        <f>IFERROR(M_convert!$D36,"")</f>
+        <v/>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="str">
+        <f>IFERROR(M_convert!$B37,"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="8" t="str">
+        <f>IFERROR(M_convert!$D37,"")</f>
+        <v/>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="str">
+        <f>IFERROR(M_convert!$B38,"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="8" t="str">
+        <f>IFERROR(M_convert!$D38,"")</f>
+        <v/>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="str">
+        <f>IFERROR(M_convert!$B39,"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="8" t="str">
+        <f>IFERROR(M_convert!$D39,"")</f>
+        <v/>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="str">
+        <f>IFERROR(M_convert!$B40,"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="8" t="str">
+        <f>IFERROR(M_convert!$D40,"")</f>
+        <v/>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="str">
+        <f>IFERROR(M_convert!$B41,"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="8" t="str">
+        <f>IFERROR(M_convert!$D41,"")</f>
+        <v/>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="str">
+        <f>IFERROR(M_convert!$B42,"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="8" t="str">
+        <f>IFERROR(M_convert!$D42,"")</f>
+        <v/>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="str">
+        <f>IFERROR(M_convert!$B43,"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="8" t="str">
+        <f>IFERROR(M_convert!$D43,"")</f>
+        <v/>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="str">
+        <f>IFERROR(M_convert!$B44,"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="8" t="str">
+        <f>IFERROR(M_convert!$D44,"")</f>
+        <v/>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="str">
+        <f>IFERROR(M_convert!$B45,"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="8" t="str">
+        <f>IFERROR(M_convert!$D45,"")</f>
+        <v/>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="str">
+        <f>IFERROR(M_convert!$B46,"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="8" t="str">
+        <f>IFERROR(M_convert!$D46,"")</f>
+        <v/>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="str">
+        <f>IFERROR(M_convert!$B47,"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="8" t="str">
+        <f>IFERROR(M_convert!$D47,"")</f>
+        <v/>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="str">
+        <f>IFERROR(M_convert!$B48,"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="8" t="str">
+        <f>IFERROR(M_convert!$D48,"")</f>
+        <v/>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="str">
+        <f>IFERROR(M_convert!$B49,"")</f>
+        <v/>
+      </c>
+      <c r="B49" s="8" t="str">
+        <f>IFERROR(M_convert!$D49,"")</f>
+        <v/>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="str">
+        <f>IFERROR(M_convert!$B50,"")</f>
+        <v/>
+      </c>
+      <c r="B50" s="8" t="str">
+        <f>IFERROR(M_convert!$D50,"")</f>
+        <v/>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="str">
+        <f>IFERROR(M_convert!$B51,"")</f>
+        <v/>
+      </c>
+      <c r="B51" s="8" t="str">
+        <f>IFERROR(M_convert!$D51,"")</f>
+        <v/>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="str">
+        <f>IFERROR(M_convert!$B52,"")</f>
+        <v/>
+      </c>
+      <c r="B52" s="8" t="str">
+        <f>IFERROR(M_convert!$D52,"")</f>
+        <v/>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="str">
+        <f>IFERROR(M_convert!$B53,"")</f>
+        <v/>
+      </c>
+      <c r="B53" s="8" t="str">
+        <f>IFERROR(M_convert!$D53,"")</f>
+        <v/>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="str">
+        <f>IFERROR(M_convert!$B54,"")</f>
+        <v/>
+      </c>
+      <c r="B54" s="8" t="str">
+        <f>IFERROR(M_convert!$D54,"")</f>
+        <v/>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="str">
+        <f>IFERROR(M_convert!$B55,"")</f>
+        <v/>
+      </c>
+      <c r="B55" s="8" t="str">
+        <f>IFERROR(M_convert!$D55,"")</f>
+        <v/>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="str">
+        <f>IFERROR(M_convert!$B56,"")</f>
+        <v/>
+      </c>
+      <c r="B56" s="8" t="str">
+        <f>IFERROR(M_convert!$D56,"")</f>
+        <v/>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="str">
+        <f>IFERROR(M_convert!$B57,"")</f>
+        <v/>
+      </c>
+      <c r="B57" s="8" t="str">
+        <f>IFERROR(M_convert!$D57,"")</f>
+        <v/>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="str">
+        <f>IFERROR(M_convert!$B58,"")</f>
+        <v/>
+      </c>
+      <c r="B58" s="8" t="str">
+        <f>IFERROR(M_convert!$D58,"")</f>
+        <v/>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="str">
+        <f>IFERROR(M_convert!$B59,"")</f>
+        <v/>
+      </c>
+      <c r="B59" s="8" t="str">
+        <f>IFERROR(M_convert!$D59,"")</f>
+        <v/>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="str">
+        <f>IFERROR(M_convert!$B60,"")</f>
+        <v/>
+      </c>
+      <c r="B60" s="8" t="str">
+        <f>IFERROR(M_convert!$D60,"")</f>
+        <v/>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E076F6-D976-4C65-9E25-20E6AF24FFD6}">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B1,FIND("*",R_input!$B1)-1),"")</f>
+        <v xml:space="preserve"> k1</v>
+      </c>
+      <c r="B1" s="4">
+        <f>IF(R_input!$C1=0,"",R_input!$C1)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B2,FIND("*",R_input!$B2)-1),"")</f>
+        <v xml:space="preserve"> k2</v>
+      </c>
+      <c r="B2" s="4">
+        <f>IF(R_input!$C2=0,"",R_input!$C2)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B3,FIND("*",R_input!$B3)-1),"")</f>
+        <v xml:space="preserve"> k3</v>
+      </c>
+      <c r="B3" s="4">
+        <f>IF(R_input!$C3=0,"",R_input!$C3)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B4,FIND("*",R_input!$B4)-1),"")</f>
+        <v xml:space="preserve"> k4</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>IF(R_input!$C4=0,"",R_input!$C4)</f>
+        <v>K2*k5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B5,FIND("*",R_input!$B5)-1),"")</f>
+        <v xml:space="preserve"> k5</v>
+      </c>
+      <c r="B5" s="4">
+        <f>IF(R_input!$C5=0,"",R_input!$C5)</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B6,FIND("*",R_input!$B6)-1),"")</f>
+        <v xml:space="preserve"> k6</v>
+      </c>
+      <c r="B6" s="4">
+        <f>IF(R_input!$C6=0,"",R_input!$C6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B7,FIND("*",R_input!$B7)-1),"")</f>
+        <v xml:space="preserve"> k7</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>IF(R_input!$C7=0,"",R_input!$C7)</f>
+        <v>K4*k8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B8,FIND("*",R_input!$B8)-1),"")</f>
+        <v xml:space="preserve"> k8</v>
+      </c>
+      <c r="B8" s="4">
+        <f>IF(R_input!$C8=0,"",R_input!$C8)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B9,FIND("*",R_input!$B9)-1),"")</f>
+        <v xml:space="preserve"> k9</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(R_input!$C9=0,"",R_input!$C9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B10,FIND("*",R_input!$B10)-1),"")</f>
+        <v xml:space="preserve"> k10</v>
+      </c>
+      <c r="B10" s="4">
+        <f>IF(R_input!$C10=0,"",R_input!$C10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B11,FIND("*",R_input!$B11)-1),"")</f>
+        <v xml:space="preserve"> k11</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(R_input!$C11=0,"",R_input!$C11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B12,FIND("*",R_input!$B12)-1),"")</f>
+        <v>K2</v>
+      </c>
+      <c r="B12" s="4">
+        <f>IF(R_input!$C12=0,"",R_input!$C12)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B13,FIND("*",R_input!$B13)-1),"")</f>
+        <v>K4</v>
+      </c>
+      <c r="B13" s="4">
+        <f>IF(R_input!$C13=0,"",R_input!$C13)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B14,FIND("*",R_input!$B14)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>IF(R_input!$C14=0,"",R_input!$C14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B15,FIND("*",R_input!$B15)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>IF(R_input!$C15=0,"",R_input!$C15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B16,FIND("*",R_input!$B16)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>IF(R_input!$C16=0,"",R_input!$C16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B17,FIND("*",R_input!$B17)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>IF(R_input!$C17=0,"",R_input!$C17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B18,FIND("*",R_input!$B18)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>IF(R_input!$C18=0,"",R_input!$C18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B19,FIND("*",R_input!$B19)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>IF(R_input!$C19=0,"",R_input!$C19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B20,FIND("*",R_input!$B20)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>IF(R_input!$C20=0,"",R_input!$C20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B21,FIND("*",R_input!$B21)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>IF(R_input!$C21=0,"",R_input!$C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B22,FIND("*",R_input!$B22)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>IF(R_input!$C22=0,"",R_input!$C22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B23,FIND("*",R_input!$B23)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>IF(R_input!$C23=0,"",R_input!$C23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B24,FIND("*",R_input!$B24)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>IF(R_input!$C24=0,"",R_input!$C24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B25,FIND("*",R_input!$B25)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>IF(R_input!$C25=0,"",R_input!$C25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B26,FIND("*",R_input!$B26)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>IF(R_input!$C26=0,"",R_input!$C26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B27,FIND("*",R_input!$B27)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>IF(R_input!$C27=0,"",R_input!$C27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B28,FIND("*",R_input!$B28)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>IF(R_input!$C28=0,"",R_input!$C28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B29,FIND("*",R_input!$B29)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>IF(R_input!$C29=0,"",R_input!$C29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B30,FIND("*",R_input!$B30)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>IF(R_input!$C30=0,"",R_input!$C30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B31,FIND("*",R_input!$B31)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>IF(R_input!$C31=0,"",R_input!$C31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B32,FIND("*",R_input!$B32)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f>IF(R_input!$C32=0,"",R_input!$C32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B33,FIND("*",R_input!$B33)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>IF(R_input!$C33=0,"",R_input!$C33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B34,FIND("*",R_input!$B34)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>IF(R_input!$C34=0,"",R_input!$C34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B35,FIND("*",R_input!$B35)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f>IF(R_input!$C35=0,"",R_input!$C35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B36,FIND("*",R_input!$B36)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>IF(R_input!$C36=0,"",R_input!$C36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B37,FIND("*",R_input!$B37)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f>IF(R_input!$C37=0,"",R_input!$C37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B38,FIND("*",R_input!$B38)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f>IF(R_input!$C38=0,"",R_input!$C38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B39,FIND("*",R_input!$B39)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f>IF(R_input!$C39=0,"",R_input!$C39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B40,FIND("*",R_input!$B40)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f>IF(R_input!$C40=0,"",R_input!$C40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B41,FIND("*",R_input!$B41)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>IF(R_input!$C41=0,"",R_input!$C41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B42,FIND("*",R_input!$B42)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>IF(R_input!$C42=0,"",R_input!$C42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B43,FIND("*",R_input!$B43)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f>IF(R_input!$C43=0,"",R_input!$C43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B44,FIND("*",R_input!$B44)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>IF(R_input!$C44=0,"",R_input!$C44)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B45,FIND("*",R_input!$B45)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>IF(R_input!$C45=0,"",R_input!$C45)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B46,FIND("*",R_input!$B46)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>IF(R_input!$C46=0,"",R_input!$C46)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B47,FIND("*",R_input!$B47)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>IF(R_input!$C47=0,"",R_input!$C47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B48,FIND("*",R_input!$B48)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f>IF(R_input!$C48=0,"",R_input!$C48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B49,FIND("*",R_input!$B49)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f>IF(R_input!$C49=0,"",R_input!$C49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B50,FIND("*",R_input!$B50)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f>IF(R_input!$C50=0,"",R_input!$C50)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B51,FIND("*",R_input!$B51)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f>IF(R_input!$C51=0,"",R_input!$C51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B52,FIND("*",R_input!$B52)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f>IF(R_input!$C52=0,"",R_input!$C52)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B53,FIND("*",R_input!$B53)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f>IF(R_input!$C53=0,"",R_input!$C53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B54,FIND("*",R_input!$B54)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f>IF(R_input!$C54=0,"",R_input!$C54)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B55,FIND("*",R_input!$B55)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f>IF(R_input!$C55=0,"",R_input!$C55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B56,FIND("*",R_input!$B56)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f>IF(R_input!$C56=0,"",R_input!$C56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B57,FIND("*",R_input!$B57)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f>IF(R_input!$C57=0,"",R_input!$C57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B58,FIND("*",R_input!$B58)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f>IF(R_input!$C58=0,"",R_input!$C58)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B59,FIND("*",R_input!$B59)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f>IF(R_input!$C59=0,"",R_input!$C59)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="str">
+        <f>IFERROR(LEFT(R_input!$B60,FIND("*",R_input!$B60)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f>IF(R_input!$C60=0,"",R_input!$C60)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C28030F-4A04-41DD-98F7-FEB81E926FE7}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="str">
+        <f>IF('C'!$A1="","",'C'!$A1&amp;"init")</f>
+        <v xml:space="preserve"> k1init</v>
+      </c>
+      <c r="B1" s="4">
+        <f>'C'!$B1</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="str">
+        <f>IF('C'!$A2="","",'C'!$A2&amp;"init")</f>
+        <v xml:space="preserve"> k2init</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'C'!$B2</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str">
+        <f>IF('C'!$A3="","",'C'!$A3&amp;"init")</f>
+        <v xml:space="preserve"> k3init</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'C'!$B3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
+        <f>IF('C'!$A4="","",'C'!$A4&amp;"init")</f>
+        <v xml:space="preserve"> k4init</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>'C'!$B4</f>
+        <v>K2*k5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <f>IF('C'!$A5="","",'C'!$A5&amp;"init")</f>
+        <v xml:space="preserve"> k5init</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'C'!$B5</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="str">
+        <f>IF('C'!$A6="","",'C'!$A6&amp;"init")</f>
+        <v xml:space="preserve"> k6init</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'C'!$B6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="str">
+        <f>IF('C'!$A7="","",'C'!$A7&amp;"init")</f>
+        <v xml:space="preserve"> k7init</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>'C'!$B7</f>
+        <v>K4*k8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="str">
+        <f>IF('C'!$A8="","",'C'!$A8&amp;"init")</f>
+        <v xml:space="preserve"> k8init</v>
+      </c>
+      <c r="B8" s="4">
+        <f>'C'!$B8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="str">
+        <f>IF('C'!$A9="","",'C'!$A9&amp;"init")</f>
+        <v xml:space="preserve"> k9init</v>
+      </c>
+      <c r="B9" s="4">
+        <f>'C'!$B9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="str">
+        <f>IF('C'!$A10="","",'C'!$A10&amp;"init")</f>
+        <v xml:space="preserve"> k10init</v>
+      </c>
+      <c r="B10" s="4">
+        <f>'C'!$B10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="str">
+        <f>IF('C'!$A11="","",'C'!$A11&amp;"init")</f>
+        <v xml:space="preserve"> k11init</v>
+      </c>
+      <c r="B11" s="4">
+        <f>'C'!$B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="str">
+        <f>IF('C'!$A12="","",'C'!$A12&amp;"init")</f>
+        <v>K2init</v>
+      </c>
+      <c r="B12" s="4">
+        <f>'C'!$B12</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="str">
+        <f>IF('C'!$A13="","",'C'!$A13&amp;"init")</f>
+        <v>K4init</v>
+      </c>
+      <c r="B13" s="4">
+        <f>'C'!$B13</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="str">
+        <f>IF('C'!$A14="","",'C'!$A14&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>'C'!$B14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="str">
+        <f>IF('C'!$A15="","",'C'!$A15&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>'C'!$B15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="str">
+        <f>IF('C'!$A16="","",'C'!$A16&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>'C'!$B16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="str">
+        <f>IF('C'!$A17="","",'C'!$A17&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>'C'!$B17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="str">
+        <f>IF('C'!$A18="","",'C'!$A18&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>'C'!$B18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="str">
+        <f>IF('C'!$A19="","",'C'!$A19&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>'C'!$B19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="str">
+        <f>IF('C'!$A20="","",'C'!$A20&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>'C'!$B20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="str">
+        <f>IF('C'!$A21="","",'C'!$A21&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>'C'!$B21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="str">
+        <f>IF('C'!$A22="","",'C'!$A22&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>'C'!$B22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="str">
+        <f>IF('C'!$A23="","",'C'!$A23&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>'C'!$B23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="str">
+        <f>IF('C'!$A24="","",'C'!$A24&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>'C'!$B24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="str">
+        <f>IF('C'!$A25="","",'C'!$A25&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>'C'!$B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="str">
+        <f>IF('C'!$A26="","",'C'!$A26&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>'C'!$B26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="str">
+        <f>IF('C'!$A27="","",'C'!$A27&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>'C'!$B27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="str">
+        <f>IF('C'!$A28="","",'C'!$A28&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>'C'!$B28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="str">
+        <f>IF('C'!$A29="","",'C'!$A29&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>'C'!$B29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="str">
+        <f>IF('C'!$A30="","",'C'!$A30&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>'C'!$B30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="str">
+        <f>IF('C'!$A31="","",'C'!$A31&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>'C'!$B31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="str">
+        <f>IF('C'!$A32="","",'C'!$A32&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f>'C'!$B32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="str">
+        <f>IF('C'!$A33="","",'C'!$A33&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>'C'!$B33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="str">
+        <f>IF('C'!$A34="","",'C'!$A34&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>'C'!$B34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="str">
+        <f>IF('C'!$A35="","",'C'!$A35&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f>'C'!$B35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="str">
+        <f>IF('C'!$A36="","",'C'!$A36&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>'C'!$B36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="str">
+        <f>IF('C'!$A37="","",'C'!$A37&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f>'C'!$B37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="str">
+        <f>IF('C'!$A38="","",'C'!$A38&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f>'C'!$B38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="str">
+        <f>IF('C'!$A39="","",'C'!$A39&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f>'C'!$B39</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="str">
+        <f>IF('C'!$A40="","",'C'!$A40&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f>'C'!$B40</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="str">
+        <f>IF('C'!$A41="","",'C'!$A41&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>'C'!$B41</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="str">
+        <f>IF('C'!$A42="","",'C'!$A42&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>'C'!$B42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="str">
+        <f>IF('C'!$A43="","",'C'!$A43&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f>'C'!$B43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="str">
+        <f>IF('C'!$A44="","",'C'!$A44&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>'C'!$B44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="str">
+        <f>IF('C'!$A45="","",'C'!$A45&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>'C'!$B45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="str">
+        <f>IF('C'!$A46="","",'C'!$A46&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>'C'!$B46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="str">
+        <f>IF('C'!$A47="","",'C'!$A47&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>'C'!$B47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="str">
+        <f>IF('C'!$A48="","",'C'!$A48&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f>'C'!$B48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="str">
+        <f>IF('C'!$A49="","",'C'!$A49&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f>'C'!$B49</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="str">
+        <f>IF('C'!$A50="","",'C'!$A50&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f>'C'!$B50</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="str">
+        <f>IF('C'!$A51="","",'C'!$A51&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f>'C'!$B51</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="str">
+        <f>IF('C'!$A52="","",'C'!$A52&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f>'C'!$B52</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="str">
+        <f>IF('C'!$A53="","",'C'!$A53&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f>'C'!$B53</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="str">
+        <f>IF('C'!$A54="","",'C'!$A54&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f>'C'!$B54</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="str">
+        <f>IF('C'!$A55="","",'C'!$A55&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f>'C'!$B55</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="str">
+        <f>IF('C'!$A56="","",'C'!$A56&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f>'C'!$B56</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="str">
+        <f>IF('C'!$A57="","",'C'!$A57&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f>'C'!$B57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="str">
+        <f>IF('C'!$A58="","",'C'!$A58&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f>'C'!$B58</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="str">
+        <f>IF('C'!$A59="","",'C'!$A59&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f>'C'!$B59</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="str">
+        <f>IF('C'!$A60="","",'C'!$A60&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f>'C'!$B60</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8A9E18-15DC-4C51-BCEA-84BF6897BCE2}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="str">
+        <f>IF(R_input!$A1="","",SUBSTITUTE(R_input!$B1,"[",""))</f>
+        <v xml:space="preserve"> k1*Hin]*DH]</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>SUBSTITUTE($A1,"]","")</f>
+        <v xml:space="preserve"> k1*Hin*DH</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="str">
+        <f>IF(R_input!$A2="","",SUBSTITUTE(R_input!$B2,"[",""))</f>
+        <v xml:space="preserve"> k2*Hin_m]*DH_p]</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f t="shared" ref="B2:B60" si="0">SUBSTITUTE($A2,"]","")</f>
+        <v xml:space="preserve"> k2*Hin_m*DH_p</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str">
+        <f>IF(R_input!$A3="","",SUBSTITUTE(R_input!$B3,"[",""))</f>
+        <v xml:space="preserve"> k3*HinH]*D]</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k3*HinH*D</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
+        <f>IF(R_input!$A4="","",SUBSTITUTE(R_input!$B4,"[",""))</f>
+        <v xml:space="preserve"> k4*HinH]*HinH]</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k4*HinH*HinH</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <f>IF(R_input!$A5="","",SUBSTITUTE(R_input!$B5,"[",""))</f>
+        <v xml:space="preserve"> k5*Hin]*Pyr]</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k5*Hin*Pyr</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="str">
+        <f>IF(R_input!$A6="","",SUBSTITUTE(R_input!$B6,"[",""))</f>
+        <v xml:space="preserve"> k6*Hin]*HinHD]</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k6*Hin*HinHD</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="str">
+        <f>IF(R_input!$A7="","",SUBSTITUTE(R_input!$B7,"[",""))</f>
+        <v xml:space="preserve"> k7*HinD]</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k7*HinD</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="str">
+        <f>IF(R_input!$A8="","",SUBSTITUTE(R_input!$B8,"[",""))</f>
+        <v xml:space="preserve"> k8*Hin]*D]</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k8*Hin*D</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="str">
+        <f>IF(R_input!$A9="","",SUBSTITUTE(R_input!$B9,"[",""))</f>
+        <v xml:space="preserve"> k9*HinHD]</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k9*HinHD</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="str">
+        <f>IF(R_input!$A10="","",SUBSTITUTE(R_input!$B10,"[",""))</f>
+        <v xml:space="preserve"> k10*D]*D]</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k10*D*D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="str">
+        <f>IF(R_input!$A11="","",SUBSTITUTE(R_input!$B11,"[",""))</f>
+        <v xml:space="preserve"> k11*Hin]</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k11*Hin</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="str">
+        <f>IF(R_input!$A12="","",SUBSTITUTE(R_input!$B12,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="str">
+        <f>IF(R_input!$A13="","",SUBSTITUTE(R_input!$B13,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="str">
+        <f>IF(R_input!$A14="","",SUBSTITUTE(R_input!$B14,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="str">
+        <f>IF(R_input!$A15="","",SUBSTITUTE(R_input!$B15,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="str">
+        <f>IF(R_input!$A16="","",SUBSTITUTE(R_input!$B16,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="str">
+        <f>IF(R_input!$A17="","",SUBSTITUTE(R_input!$B17,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="str">
+        <f>IF(R_input!$A18="","",SUBSTITUTE(R_input!$B18,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="str">
+        <f>IF(R_input!$A19="","",SUBSTITUTE(R_input!$B19,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="str">
+        <f>IF(R_input!$A20="","",SUBSTITUTE(R_input!$B20,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="str">
+        <f>IF(R_input!$A21="","",SUBSTITUTE(R_input!$B21,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="str">
+        <f>IF(R_input!$A22="","",SUBSTITUTE(R_input!$B22,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="str">
+        <f>IF(R_input!$A23="","",SUBSTITUTE(R_input!$B23,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="str">
+        <f>IF(R_input!$A24="","",SUBSTITUTE(R_input!$B24,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="str">
+        <f>IF(R_input!$A25="","",SUBSTITUTE(R_input!$B25,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="str">
+        <f>IF(R_input!$A26="","",SUBSTITUTE(R_input!$B26,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="str">
+        <f>IF(R_input!$A27="","",SUBSTITUTE(R_input!$B27,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="str">
+        <f>IF(R_input!$A28="","",SUBSTITUTE(R_input!$B28,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="str">
+        <f>IF(R_input!$A29="","",SUBSTITUTE(R_input!$B29,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="str">
+        <f>IF(R_input!$A30="","",SUBSTITUTE(R_input!$B30,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="str">
+        <f>IF(R_input!$A31="","",SUBSTITUTE(R_input!$B31,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="str">
+        <f>IF(R_input!$A32="","",SUBSTITUTE(R_input!$B32,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="str">
+        <f>IF(R_input!$A33="","",SUBSTITUTE(R_input!$B33,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="str">
+        <f>IF(R_input!$A34="","",SUBSTITUTE(R_input!$B34,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="str">
+        <f>IF(R_input!$A35="","",SUBSTITUTE(R_input!$B35,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="str">
+        <f>IF(R_input!$A36="","",SUBSTITUTE(R_input!$B36,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="str">
+        <f>IF(R_input!$A37="","",SUBSTITUTE(R_input!$B37,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="str">
+        <f>IF(R_input!$A38="","",SUBSTITUTE(R_input!$B38,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="str">
+        <f>IF(R_input!$A39="","",SUBSTITUTE(R_input!$B39,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="str">
+        <f>IF(R_input!$A40="","",SUBSTITUTE(R_input!$B40,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="str">
+        <f>IF(R_input!$A41="","",SUBSTITUTE(R_input!$B41,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="str">
+        <f>IF(R_input!$A42="","",SUBSTITUTE(R_input!$B42,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="str">
+        <f>IF(R_input!$A43="","",SUBSTITUTE(R_input!$B43,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="str">
+        <f>IF(R_input!$A44="","",SUBSTITUTE(R_input!$B44,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="str">
+        <f>IF(R_input!$A45="","",SUBSTITUTE(R_input!$B45,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="str">
+        <f>IF(R_input!$A46="","",SUBSTITUTE(R_input!$B46,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="str">
+        <f>IF(R_input!$A47="","",SUBSTITUTE(R_input!$B47,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="str">
+        <f>IF(R_input!$A48="","",SUBSTITUTE(R_input!$B48,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="str">
+        <f>IF(R_input!$A49="","",SUBSTITUTE(R_input!$B49,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="str">
+        <f>IF(R_input!$A50="","",SUBSTITUTE(R_input!$B50,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="str">
+        <f>IF(R_input!$A51="","",SUBSTITUTE(R_input!$B51,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="str">
+        <f>IF(R_input!$A52="","",SUBSTITUTE(R_input!$B52,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="str">
+        <f>IF(R_input!$A53="","",SUBSTITUTE(R_input!$B53,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="str">
+        <f>IF(R_input!$A54="","",SUBSTITUTE(R_input!$B54,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="str">
+        <f>IF(R_input!$A55="","",SUBSTITUTE(R_input!$B55,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="str">
+        <f>IF(R_input!$A56="","",SUBSTITUTE(R_input!$B56,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="str">
+        <f>IF(R_input!$A57="","",SUBSTITUTE(R_input!$B57,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="str">
+        <f>IF(R_input!$A58="","",SUBSTITUTE(R_input!$B58,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="str">
+        <f>IF(R_input!$A59="","",SUBSTITUTE(R_input!$B59,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="str">
+        <f>IF(R_input!$A60="","",SUBSTITUTE(R_input!$B60,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF9E153-38FC-438C-92F0-9BD726862A0D}">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>REPLACE(M_input!$A1,FIND("d[",M_input!$A1),2,"")</f>
+        <v xml:space="preserve">Hin]/dt </v>
+      </c>
+      <c r="B1" t="str">
+        <f>TRIM(REPLACE($A1,FIND("]/dt",$A1),4,""))</f>
+        <v>Hin</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"-"&amp;REPLACE($A1,FIND("]/dt",$A1),4,"t")&amp;"+"</f>
+        <v>-Hint +</v>
+      </c>
+      <c r="D1" t="str">
+        <f>$C1&amp;M_input!$B1</f>
+        <v>-Hint + -R1 + R4 - R5 - R6 + R7 - R8 - R11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>REPLACE(M_input!$A2,FIND("d[",M_input!$A2),2,"")</f>
+        <v xml:space="preserve">DH]/dt </v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B60" si="0">TRIM(REPLACE($A2,FIND("]/dt",$A2),4,""))</f>
+        <v>DH</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C60" si="1">"-"&amp;REPLACE($A2,FIND("]/dt",$A2),4,"t")&amp;"+"</f>
+        <v>-DHt +</v>
+      </c>
+      <c r="D2" t="str">
+        <f>$C2&amp;M_input!$B2</f>
+        <v>-DHt + -R1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>REPLACE(M_input!$A3,FIND("d[",M_input!$A3),2,"")</f>
+        <v xml:space="preserve">Hin_m]/dt </v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Hin_m</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>-Hin_mt +</v>
+      </c>
+      <c r="D3" t="str">
+        <f>$C3&amp;M_input!$B3</f>
+        <v>-Hin_mt + R1 - R2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>REPLACE(M_input!$A4,FIND("d[",M_input!$A4),2,"")</f>
+        <v xml:space="preserve">DH_p]/dt </v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>DH_p</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>-DH_pt +</v>
+      </c>
+      <c r="D4" t="str">
+        <f>$C4&amp;M_input!$B4</f>
+        <v>-DH_pt + R1 - R2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>REPLACE(M_input!$A5,FIND("d[",M_input!$A5),2,"")</f>
+        <v xml:space="preserve">HinH]/dt </v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>HinH</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>-HinHt +</v>
+      </c>
+      <c r="D5" t="str">
+        <f>$C5&amp;M_input!$B5</f>
+        <v>-HinHt + R2 - R3 - 2*R4 + 2*R5 + R6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>REPLACE(M_input!$A6,FIND("d[",M_input!$A6),2,"")</f>
+        <v xml:space="preserve">D]/dt </v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>-Dt +</v>
+      </c>
+      <c r="D6" t="str">
+        <f>$C6&amp;M_input!$B6</f>
+        <v>-Dt + R2 - R3 + R7 - R8 - 2*R10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>REPLACE(M_input!$A7,FIND("d[",M_input!$A7),2,"")</f>
+        <v xml:space="preserve">HinHD]/dt </v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>HinHD</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>-HinHDt +</v>
+      </c>
+      <c r="D7" t="str">
+        <f>$C7&amp;M_input!$B7</f>
+        <v>-HinHDt + R3 - R6 - R9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>REPLACE(M_input!$A8,FIND("d[",M_input!$A8),2,"")</f>
+        <v xml:space="preserve">Pyr]/dt </v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Pyr</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>-Pyrt +</v>
+      </c>
+      <c r="D8" t="str">
+        <f>$C8&amp;M_input!$B8</f>
+        <v>-Pyrt + R4 - R5 + R9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>REPLACE(M_input!$A9,FIND("d[",M_input!$A9),2,"")</f>
+        <v xml:space="preserve">HinD]/dt </v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>HinD</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>-HinDt +</v>
+      </c>
+      <c r="D9" t="str">
+        <f>$C9&amp;M_input!$B9</f>
+        <v>-HinDt + R6 - R7 + R8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>REPLACE(M_input!$A10,FIND("d[",M_input!$A10),2,"")</f>
+        <v xml:space="preserve">WTF]/dt </v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>WTF</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>-WTFt +</v>
+      </c>
+      <c r="D10" t="str">
+        <f>$C10&amp;M_input!$B10</f>
+        <v>-WTFt + R9 + R10 + R11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="e">
+        <f>REPLACE(M_input!$A11,FIND("d[",M_input!$A11),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" t="e">
+        <f>$C11&amp;M_input!$B11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="e">
+        <f>REPLACE(M_input!$A12,FIND("d[",M_input!$A12),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" t="e">
+        <f>$C12&amp;M_input!$B12</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="e">
+        <f>REPLACE(M_input!$A13,FIND("d[",M_input!$A13),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" t="e">
+        <f>$C13&amp;M_input!$B13</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="e">
+        <f>REPLACE(M_input!$A14,FIND("d[",M_input!$A14),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" t="e">
+        <f>$C14&amp;M_input!$B14</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="e">
+        <f>REPLACE(M_input!$A15,FIND("d[",M_input!$A15),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" t="e">
+        <f>$C15&amp;M_input!$B15</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="e">
+        <f>REPLACE(M_input!$A16,FIND("d[",M_input!$A16),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" t="e">
+        <f>$C16&amp;M_input!$B16</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="e">
+        <f>REPLACE(M_input!$A17,FIND("d[",M_input!$A17),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" t="e">
+        <f>$C17&amp;M_input!$B17</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="e">
+        <f>REPLACE(M_input!$A18,FIND("d[",M_input!$A18),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" t="e">
+        <f>$C18&amp;M_input!$B18</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="e">
+        <f>REPLACE(M_input!$A19,FIND("d[",M_input!$A19),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" t="e">
+        <f>$C19&amp;M_input!$B19</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="e">
+        <f>REPLACE(M_input!$A20,FIND("d[",M_input!$A20),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B20" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" t="e">
+        <f>$C20&amp;M_input!$B20</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="e">
+        <f>REPLACE(M_input!$A21,FIND("d[",M_input!$A21),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B21" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" t="e">
+        <f>$C21&amp;M_input!$B21</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="e">
+        <f>REPLACE(M_input!$A22,FIND("d[",M_input!$A22),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" t="e">
+        <f>$C22&amp;M_input!$B22</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="e">
+        <f>REPLACE(M_input!$A23,FIND("d[",M_input!$A23),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" t="e">
+        <f>$C23&amp;M_input!$B23</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="e">
+        <f>REPLACE(M_input!$A24,FIND("d[",M_input!$A24),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B24" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" t="e">
+        <f>$C24&amp;M_input!$B24</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="e">
+        <f>REPLACE(M_input!$A25,FIND("d[",M_input!$A25),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B25" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" t="e">
+        <f>$C25&amp;M_input!$B25</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="e">
+        <f>REPLACE(M_input!$A26,FIND("d[",M_input!$A26),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" t="e">
+        <f>$C26&amp;M_input!$B26</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="e">
+        <f>REPLACE(M_input!$A27,FIND("d[",M_input!$A27),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B27" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" t="e">
+        <f>$C27&amp;M_input!$B27</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="e">
+        <f>REPLACE(M_input!$A28,FIND("d[",M_input!$A28),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" t="e">
+        <f>$C28&amp;M_input!$B28</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="e">
+        <f>REPLACE(M_input!$A29,FIND("d[",M_input!$A29),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" t="e">
+        <f>$C29&amp;M_input!$B29</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="e">
+        <f>REPLACE(M_input!$A30,FIND("d[",M_input!$A30),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B30" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" t="e">
+        <f>$C30&amp;M_input!$B30</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="e">
+        <f>REPLACE(M_input!$A31,FIND("d[",M_input!$A31),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B31" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" t="e">
+        <f>$C31&amp;M_input!$B31</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="e">
+        <f>REPLACE(M_input!$A32,FIND("d[",M_input!$A32),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B32" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" t="e">
+        <f>$C32&amp;M_input!$B32</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="e">
+        <f>REPLACE(M_input!$A33,FIND("d[",M_input!$A33),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B33" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" t="e">
+        <f>$C33&amp;M_input!$B33</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="e">
+        <f>REPLACE(M_input!$A34,FIND("d[",M_input!$A34),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B34" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D34" t="e">
+        <f>$C34&amp;M_input!$B34</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="e">
+        <f>REPLACE(M_input!$A35,FIND("d[",M_input!$A35),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" t="e">
+        <f>$C35&amp;M_input!$B35</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="e">
+        <f>REPLACE(M_input!$A36,FIND("d[",M_input!$A36),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" t="e">
+        <f>$C36&amp;M_input!$B36</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="e">
+        <f>REPLACE(M_input!$A37,FIND("d[",M_input!$A37),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B37" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" t="e">
+        <f>$C37&amp;M_input!$B37</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="e">
+        <f>REPLACE(M_input!$A38,FIND("d[",M_input!$A38),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D38" t="e">
+        <f>$C38&amp;M_input!$B38</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="e">
+        <f>REPLACE(M_input!$A39,FIND("d[",M_input!$A39),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B39" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" t="e">
+        <f>$C39&amp;M_input!$B39</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="e">
+        <f>REPLACE(M_input!$A40,FIND("d[",M_input!$A40),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" t="e">
+        <f>$C40&amp;M_input!$B40</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="e">
+        <f>REPLACE(M_input!$A41,FIND("d[",M_input!$A41),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41" t="e">
+        <f>$C41&amp;M_input!$B41</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="e">
+        <f>REPLACE(M_input!$A42,FIND("d[",M_input!$A42),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B42" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" t="e">
+        <f>$C42&amp;M_input!$B42</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="e">
+        <f>REPLACE(M_input!$A43,FIND("d[",M_input!$A43),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" t="e">
+        <f>$C43&amp;M_input!$B43</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="e">
+        <f>REPLACE(M_input!$A44,FIND("d[",M_input!$A44),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B44" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C44" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44" t="e">
+        <f>$C44&amp;M_input!$B44</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="e">
+        <f>REPLACE(M_input!$A45,FIND("d[",M_input!$A45),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B45" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C45" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45" t="e">
+        <f>$C45&amp;M_input!$B45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="e">
+        <f>REPLACE(M_input!$A46,FIND("d[",M_input!$A46),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B46" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C46" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46" t="e">
+        <f>$C46&amp;M_input!$B46</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="e">
+        <f>REPLACE(M_input!$A47,FIND("d[",M_input!$A47),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B47" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C47" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47" t="e">
+        <f>$C47&amp;M_input!$B47</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="e">
+        <f>REPLACE(M_input!$A48,FIND("d[",M_input!$A48),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B48" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C48" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48" t="e">
+        <f>$C48&amp;M_input!$B48</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="e">
+        <f>REPLACE(M_input!$A49,FIND("d[",M_input!$A49),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B49" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" t="e">
+        <f>$C49&amp;M_input!$B49</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="e">
+        <f>REPLACE(M_input!$A50,FIND("d[",M_input!$A50),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B50" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50" t="e">
+        <f>$C50&amp;M_input!$B50</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="e">
+        <f>REPLACE(M_input!$A51,FIND("d[",M_input!$A51),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B51" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C51" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" t="e">
+        <f>$C51&amp;M_input!$B51</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="e">
+        <f>REPLACE(M_input!$A52,FIND("d[",M_input!$A52),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B52" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C52" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" t="e">
+        <f>$C52&amp;M_input!$B52</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="e">
+        <f>REPLACE(M_input!$A53,FIND("d[",M_input!$A53),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B53" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D53" t="e">
+        <f>$C53&amp;M_input!$B53</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="e">
+        <f>REPLACE(M_input!$A54,FIND("d[",M_input!$A54),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B54" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D54" t="e">
+        <f>$C54&amp;M_input!$B54</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="e">
+        <f>REPLACE(M_input!$A55,FIND("d[",M_input!$A55),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B55" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D55" t="e">
+        <f>$C55&amp;M_input!$B55</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="e">
+        <f>REPLACE(M_input!$A56,FIND("d[",M_input!$A56),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B56" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C56" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D56" t="e">
+        <f>$C56&amp;M_input!$B56</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="e">
+        <f>REPLACE(M_input!$A57,FIND("d[",M_input!$A57),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B57" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C57" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D57" t="e">
+        <f>$C57&amp;M_input!$B57</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="e">
+        <f>REPLACE(M_input!$A58,FIND("d[",M_input!$A58),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B58" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C58" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D58" t="e">
+        <f>$C58&amp;M_input!$B58</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="e">
+        <f>REPLACE(M_input!$A59,FIND("d[",M_input!$A59),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B59" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C59" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D59" t="e">
+        <f>$C59&amp;M_input!$B59</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="e">
+        <f>REPLACE(M_input!$A60,FIND("d[",M_input!$A60),2,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B60" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C60" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D60" t="e">
+        <f>$C60&amp;M_input!$B60</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1063FD72-14C4-4459-A3B9-407C9F72C5B3}">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="str">
+        <f>IF('C'!$A1="","",'C'!$A1&amp;"init")</f>
+        <v xml:space="preserve"> k1init</v>
+      </c>
+      <c r="B1" s="4">
+        <f>'C'!$B1</f>
+        <v>10000</v>
+      </c>
+      <c r="D1" t="str">
+        <f>IF(NOT(AND(F1,E1)),"",'C'!$A1&amp;"init")</f>
+        <v xml:space="preserve"> k1init</v>
+      </c>
+      <c r="E1">
+        <f>IFERROR(VALUE('C'!$B1),FALSE())</f>
+        <v>10000</v>
+      </c>
+      <c r="F1" s="12" t="b">
+        <f>NOT('C'!$A1="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="str">
+        <f>IF('C'!$A2="","",'C'!$A2&amp;"init")</f>
+        <v xml:space="preserve"> k2init</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'C'!$B2</f>
+        <v>10000</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(NOT(AND(F2,E2)),"",'C'!$A2&amp;"init")</f>
+        <v xml:space="preserve"> k2init</v>
+      </c>
+      <c r="E2">
+        <f>IFERROR(VALUE('C'!$B2),FALSE())</f>
+        <v>10000</v>
+      </c>
+      <c r="F2" s="12" t="b">
+        <f>NOT('C'!$A2="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str">
+        <f>IF('C'!$A3="","",'C'!$A3&amp;"init")</f>
+        <v xml:space="preserve"> k3init</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'C'!$B3</f>
+        <v>100</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(NOT(AND(F3,E3)),"",'C'!$A3&amp;"init")</f>
+        <v xml:space="preserve"> k3init</v>
+      </c>
+      <c r="E3">
+        <f>IFERROR(VALUE('C'!$B3),FALSE())</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="12" t="b">
+        <f>NOT('C'!$A3="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
+        <f>IF('C'!$A4="","",'C'!$A4&amp;"init")</f>
+        <v xml:space="preserve"> k4init</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>'C'!$B4</f>
+        <v>K2*k5</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(NOT(AND(F4,E4)),"",'C'!$A4&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="E4" t="b">
+        <f>IFERROR(VALUE('C'!$B4),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="12" t="b">
+        <f>NOT('C'!$A4="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <f>IF('C'!$A5="","",'C'!$A5&amp;"init")</f>
+        <v xml:space="preserve"> k5init</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'C'!$B5</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(NOT(AND(F5,E5)),"",'C'!$A5&amp;"init")</f>
+        <v xml:space="preserve"> k5init</v>
+      </c>
+      <c r="E5">
+        <f>IFERROR(VALUE('C'!$B5),FALSE())</f>
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="12" t="b">
+        <f>NOT('C'!$A5="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="str">
+        <f>IF('C'!$A6="","",'C'!$A6&amp;"init")</f>
+        <v xml:space="preserve"> k6init</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'C'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(NOT(AND(F6,E6)),"",'C'!$A6&amp;"init")</f>
+        <v xml:space="preserve"> k6init</v>
+      </c>
+      <c r="E6">
+        <f>IFERROR(VALUE('C'!$B6),FALSE())</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="12" t="b">
+        <f>NOT('C'!$A6="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="str">
+        <f>IF('C'!$A7="","",'C'!$A7&amp;"init")</f>
+        <v xml:space="preserve"> k7init</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>'C'!$B7</f>
+        <v>K4*k8</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(NOT(AND(F7,E7)),"",'C'!$A7&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="E7" t="b">
+        <f>IFERROR(VALUE('C'!$B7),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="b">
+        <f>NOT('C'!$A7="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="str">
+        <f>IF('C'!$A8="","",'C'!$A8&amp;"init")</f>
+        <v xml:space="preserve"> k8init</v>
+      </c>
+      <c r="B8" s="4">
+        <f>'C'!$B8</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(NOT(AND(F8,E8)),"",'C'!$A8&amp;"init")</f>
+        <v xml:space="preserve"> k8init</v>
+      </c>
+      <c r="E8">
+        <f>IFERROR(VALUE('C'!$B8),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="b">
+        <f>NOT('C'!$A8="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="str">
+        <f>IF('C'!$A9="","",'C'!$A9&amp;"init")</f>
+        <v xml:space="preserve"> k9init</v>
+      </c>
+      <c r="B9" s="4">
+        <f>'C'!$B9</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(NOT(AND(F9,E9)),"",'C'!$A9&amp;"init")</f>
+        <v xml:space="preserve"> k9init</v>
+      </c>
+      <c r="E9">
+        <f>IFERROR(VALUE('C'!$B9),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="b">
+        <f>NOT('C'!$A9="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="str">
+        <f>IF('C'!$A10="","",'C'!$A10&amp;"init")</f>
+        <v xml:space="preserve"> k10init</v>
+      </c>
+      <c r="B10" s="4">
+        <f>'C'!$B10</f>
+        <v>10</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(NOT(AND(F10,E10)),"",'C'!$A10&amp;"init")</f>
+        <v xml:space="preserve"> k10init</v>
+      </c>
+      <c r="E10">
+        <f>IFERROR(VALUE('C'!$B10),FALSE())</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="12" t="b">
+        <f>NOT('C'!$A10="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="str">
+        <f>IF('C'!$A11="","",'C'!$A11&amp;"init")</f>
+        <v xml:space="preserve"> k11init</v>
+      </c>
+      <c r="B11" s="4">
+        <f>'C'!$B11</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(NOT(AND(F11,E11)),"",'C'!$A11&amp;"init")</f>
+        <v xml:space="preserve"> k11init</v>
+      </c>
+      <c r="E11">
+        <f>IFERROR(VALUE('C'!$B11),FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="b">
+        <f>NOT('C'!$A11="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="str">
+        <f>IF('C'!$A12="","",'C'!$A12&amp;"init")</f>
+        <v>K2init</v>
+      </c>
+      <c r="B12" s="4">
+        <f>'C'!$B12</f>
+        <v>100000</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(NOT(AND(F12,E12)),"",'C'!$A12&amp;"init")</f>
+        <v>K2init</v>
+      </c>
+      <c r="E12">
+        <f>IFERROR(VALUE('C'!$B12),FALSE())</f>
+        <v>100000</v>
+      </c>
+      <c r="F12" s="12" t="b">
+        <f>NOT('C'!$A12="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="str">
+        <f>IF('C'!$A13="","",'C'!$A13&amp;"init")</f>
+        <v>K4init</v>
+      </c>
+      <c r="B13" s="4">
+        <f>'C'!$B13</f>
+        <v>0.05</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(NOT(AND(F13,E13)),"",'C'!$A13&amp;"init")</f>
+        <v>K4init</v>
+      </c>
+      <c r="E13">
+        <f>IFERROR(VALUE('C'!$B13),FALSE())</f>
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="12" t="b">
+        <f>NOT('C'!$A13="")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="str">
+        <f>IF('C'!$A14="","",'C'!$A14&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>'C'!$B14</f>
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(NOT(AND(F14,E14)),"",'C'!$A14&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="E14" t="b">
+        <f>IFERROR(VALUE('C'!$B14),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="b">
+        <f>NOT('C'!$A14="")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="str">
+        <f>IF('C'!$A15="","",'C'!$A15&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>'C'!$B15</f>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(NOT(AND(F15,E15)),"",'C'!$A15&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="E15" t="b">
+        <f>IFERROR(VALUE('C'!$B15),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="b">
+        <f>NOT('C'!$A15="")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="str">
+        <f>IF('C'!$A16="","",'C'!$A16&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>'C'!$B16</f>
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(NOT(AND(F16,E16)),"",'C'!$A16&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="E16" t="b">
+        <f>IFERROR(VALUE('C'!$B16),FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="12" t="b">
+        <f>NOT('C'!$A16="")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="str">
+        <f>IF('C'!$A17="","",'C'!$A17&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>'C'!$B17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="str">
+        <f>IF('C'!$A18="","",'C'!$A18&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>'C'!$B18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="str">
+        <f>IF('C'!$A19="","",'C'!$A19&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>'C'!$B19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="str">
+        <f>IF('C'!$A20="","",'C'!$A20&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>'C'!$B20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="str">
+        <f>IF('C'!$A21="","",'C'!$A21&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>'C'!$B21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="str">
+        <f>IF('C'!$A22="","",'C'!$A22&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>'C'!$B22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="str">
+        <f>IF('C'!$A23="","",'C'!$A23&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>'C'!$B23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="str">
+        <f>IF('C'!$A24="","",'C'!$A24&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>'C'!$B24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="str">
+        <f>IF('C'!$A25="","",'C'!$A25&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>'C'!$B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="str">
+        <f>IF('C'!$A26="","",'C'!$A26&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>'C'!$B26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="str">
+        <f>IF('C'!$A27="","",'C'!$A27&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>'C'!$B27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="str">
+        <f>IF('C'!$A28="","",'C'!$A28&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>'C'!$B28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="str">
+        <f>IF('C'!$A29="","",'C'!$A29&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>'C'!$B29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="str">
+        <f>IF('C'!$A30="","",'C'!$A30&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>'C'!$B30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="str">
+        <f>IF('C'!$A31="","",'C'!$A31&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>'C'!$B31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="str">
+        <f>IF('C'!$A32="","",'C'!$A32&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f>'C'!$B32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="str">
+        <f>IF('C'!$A33="","",'C'!$A33&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>'C'!$B33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="str">
+        <f>IF('C'!$A34="","",'C'!$A34&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>'C'!$B34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="str">
+        <f>IF('C'!$A35="","",'C'!$A35&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f>'C'!$B35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="str">
+        <f>IF('C'!$A36="","",'C'!$A36&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>'C'!$B36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="str">
+        <f>IF('C'!$A37="","",'C'!$A37&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f>'C'!$B37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="str">
+        <f>IF('C'!$A38="","",'C'!$A38&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f>'C'!$B38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="str">
+        <f>IF('C'!$A39="","",'C'!$A39&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f>'C'!$B39</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="str">
+        <f>IF('C'!$A40="","",'C'!$A40&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f>'C'!$B40</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="str">
+        <f>IF('C'!$A41="","",'C'!$A41&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>'C'!$B41</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="str">
+        <f>IF('C'!$A42="","",'C'!$A42&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>'C'!$B42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="str">
+        <f>IF('C'!$A43="","",'C'!$A43&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f>'C'!$B43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="str">
+        <f>IF('C'!$A44="","",'C'!$A44&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>'C'!$B44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="str">
+        <f>IF('C'!$A45="","",'C'!$A45&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>'C'!$B45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="str">
+        <f>IF('C'!$A46="","",'C'!$A46&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>'C'!$B46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="str">
+        <f>IF('C'!$A47="","",'C'!$A47&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>'C'!$B47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="str">
+        <f>IF('C'!$A48="","",'C'!$A48&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f>'C'!$B48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="str">
+        <f>IF('C'!$A49="","",'C'!$A49&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f>'C'!$B49</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="str">
+        <f>IF('C'!$A50="","",'C'!$A50&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f>'C'!$B50</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="str">
+        <f>IF('C'!$A51="","",'C'!$A51&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f>'C'!$B51</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="str">
+        <f>IF('C'!$A52="","",'C'!$A52&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f>'C'!$B52</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="str">
+        <f>IF('C'!$A53="","",'C'!$A53&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f>'C'!$B53</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="str">
+        <f>IF('C'!$A54="","",'C'!$A54&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f>'C'!$B54</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="str">
+        <f>IF('C'!$A55="","",'C'!$A55&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f>'C'!$B55</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="str">
+        <f>IF('C'!$A56="","",'C'!$A56&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f>'C'!$B56</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="str">
+        <f>IF('C'!$A57="","",'C'!$A57&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f>'C'!$B57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="str">
+        <f>IF('C'!$A58="","",'C'!$A58&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f>'C'!$B58</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="str">
+        <f>IF('C'!$A59="","",'C'!$A59&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f>'C'!$B59</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="str">
+        <f>IF('C'!$A60="","",'C'!$A60&amp;"init")</f>
+        <v/>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f>'C'!$B60</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Comsol/Task/Table for SOR.xlsx
+++ b/Comsol/Task/Table for SOR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\PolimerSolve\Comsol\Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\PolimerSolve\Comsol\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166AF85D-9B83-49A4-94F9-73774458B2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E344FF47-A705-4D21-B5AE-DA78B9C3313B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
   </bookViews>
@@ -29,12 +29,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2839,7 +2833,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2852,9 +2846,9 @@
         <f>IFERROR(LEFT(R_input!$B1,FIND("*",R_input!$B1)-1),"")</f>
         <v xml:space="preserve"> k1</v>
       </c>
-      <c r="B1" s="4">
-        <f>IF(R_input!$C1=0,"",R_input!$C1)</f>
-        <v>10000</v>
+      <c r="B1" s="4" t="str">
+        <f>IF('C'!$A1="","",'C'!$A1&amp;"init")</f>
+        <v xml:space="preserve"> k1init</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2862,9 +2856,9 @@
         <f>IFERROR(LEFT(R_input!$B2,FIND("*",R_input!$B2)-1),"")</f>
         <v xml:space="preserve"> k2</v>
       </c>
-      <c r="B2" s="4">
-        <f>IF(R_input!$C2=0,"",R_input!$C2)</f>
-        <v>10000</v>
+      <c r="B2" s="4" t="str">
+        <f>IF('C'!$A2="","",'C'!$A2&amp;"init")</f>
+        <v xml:space="preserve"> k2init</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2872,9 +2866,9 @@
         <f>IFERROR(LEFT(R_input!$B3,FIND("*",R_input!$B3)-1),"")</f>
         <v xml:space="preserve"> k3</v>
       </c>
-      <c r="B3" s="4">
-        <f>IF(R_input!$C3=0,"",R_input!$C3)</f>
-        <v>100</v>
+      <c r="B3" s="4" t="str">
+        <f>IF('C'!$A3="","",'C'!$A3&amp;"init")</f>
+        <v xml:space="preserve"> k3init</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2883,8 +2877,8 @@
         <v xml:space="preserve"> k4</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>IF(R_input!$C4=0,"",R_input!$C4)</f>
-        <v>K2*k5</v>
+        <f>IF('C'!$A4="","",'C'!$A4&amp;"init")</f>
+        <v xml:space="preserve"> k4init</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2892,9 +2886,9 @@
         <f>IFERROR(LEFT(R_input!$B5,FIND("*",R_input!$B5)-1),"")</f>
         <v xml:space="preserve"> k5</v>
       </c>
-      <c r="B5" s="4">
-        <f>IF(R_input!$C5=0,"",R_input!$C5)</f>
-        <v>1E-4</v>
+      <c r="B5" s="4" t="str">
+        <f>IF('C'!$A5="","",'C'!$A5&amp;"init")</f>
+        <v xml:space="preserve"> k5init</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2902,9 +2896,9 @@
         <f>IFERROR(LEFT(R_input!$B6,FIND("*",R_input!$B6)-1),"")</f>
         <v xml:space="preserve"> k6</v>
       </c>
-      <c r="B6" s="4">
-        <f>IF(R_input!$C6=0,"",R_input!$C6)</f>
-        <v>2</v>
+      <c r="B6" s="4" t="str">
+        <f>IF('C'!$A6="","",'C'!$A6&amp;"init")</f>
+        <v xml:space="preserve"> k6init</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2913,8 +2907,8 @@
         <v xml:space="preserve"> k7</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>IF(R_input!$C7=0,"",R_input!$C7)</f>
-        <v>K4*k8</v>
+        <f>IF('C'!$A7="","",'C'!$A7&amp;"init")</f>
+        <v xml:space="preserve"> k7init</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2922,9 +2916,9 @@
         <f>IFERROR(LEFT(R_input!$B8,FIND("*",R_input!$B8)-1),"")</f>
         <v xml:space="preserve"> k8</v>
       </c>
-      <c r="B8" s="4">
-        <f>IF(R_input!$C8=0,"",R_input!$C8)</f>
-        <v>1</v>
+      <c r="B8" s="4" t="str">
+        <f>IF('C'!$A8="","",'C'!$A8&amp;"init")</f>
+        <v xml:space="preserve"> k8init</v>
       </c>
       <c r="C8" s="10"/>
     </row>
@@ -2933,9 +2927,9 @@
         <f>IFERROR(LEFT(R_input!$B9,FIND("*",R_input!$B9)-1),"")</f>
         <v xml:space="preserve"> k9</v>
       </c>
-      <c r="B9" s="4">
-        <f>IF(R_input!$C9=0,"",R_input!$C9)</f>
-        <v>1</v>
+      <c r="B9" s="4" t="str">
+        <f>IF('C'!$A9="","",'C'!$A9&amp;"init")</f>
+        <v xml:space="preserve"> k9init</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2943,9 +2937,9 @@
         <f>IFERROR(LEFT(R_input!$B10,FIND("*",R_input!$B10)-1),"")</f>
         <v xml:space="preserve"> k10</v>
       </c>
-      <c r="B10" s="4">
-        <f>IF(R_input!$C10=0,"",R_input!$C10)</f>
-        <v>10</v>
+      <c r="B10" s="4" t="str">
+        <f>IF('C'!$A10="","",'C'!$A10&amp;"init")</f>
+        <v xml:space="preserve"> k10init</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2953,9 +2947,9 @@
         <f>IFERROR(LEFT(R_input!$B11,FIND("*",R_input!$B11)-1),"")</f>
         <v xml:space="preserve"> k11</v>
       </c>
-      <c r="B11" s="4">
-        <f>IF(R_input!$C11=0,"",R_input!$C11)</f>
-        <v>1</v>
+      <c r="B11" s="4" t="str">
+        <f>IF('C'!$A11="","",'C'!$A11&amp;"init")</f>
+        <v xml:space="preserve"> k11init</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2963,9 +2957,9 @@
         <f>IFERROR(LEFT(R_input!$B12,FIND("*",R_input!$B12)-1),"")</f>
         <v>K2</v>
       </c>
-      <c r="B12" s="4">
-        <f>IF(R_input!$C12=0,"",R_input!$C12)</f>
-        <v>100000</v>
+      <c r="B12" s="4" t="str">
+        <f>IF('C'!$A12="","",'C'!$A12&amp;"init")</f>
+        <v>K2init</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2973,9 +2967,9 @@
         <f>IFERROR(LEFT(R_input!$B13,FIND("*",R_input!$B13)-1),"")</f>
         <v>K4</v>
       </c>
-      <c r="B13" s="4">
-        <f>IF(R_input!$C13=0,"",R_input!$C13)</f>
-        <v>0.05</v>
+      <c r="B13" s="4" t="str">
+        <f>IF('C'!$A13="","",'C'!$A13&amp;"init")</f>
+        <v>K4init</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2984,7 +2978,7 @@
         <v/>
       </c>
       <c r="B14" s="4" t="str">
-        <f>IF(R_input!$C14=0,"",R_input!$C14)</f>
+        <f>IF('C'!$A14="","",'C'!$A14&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -2994,7 +2988,7 @@
         <v/>
       </c>
       <c r="B15" s="4" t="str">
-        <f>IF(R_input!$C15=0,"",R_input!$C15)</f>
+        <f>IF('C'!$A15="","",'C'!$A15&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3004,7 +2998,7 @@
         <v/>
       </c>
       <c r="B16" s="4" t="str">
-        <f>IF(R_input!$C16=0,"",R_input!$C16)</f>
+        <f>IF('C'!$A16="","",'C'!$A16&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3014,7 +3008,7 @@
         <v/>
       </c>
       <c r="B17" s="4" t="str">
-        <f>IF(R_input!$C17=0,"",R_input!$C17)</f>
+        <f>IF('C'!$A17="","",'C'!$A17&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3024,7 +3018,7 @@
         <v/>
       </c>
       <c r="B18" s="4" t="str">
-        <f>IF(R_input!$C18=0,"",R_input!$C18)</f>
+        <f>IF('C'!$A18="","",'C'!$A18&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3034,7 +3028,7 @@
         <v/>
       </c>
       <c r="B19" s="4" t="str">
-        <f>IF(R_input!$C19=0,"",R_input!$C19)</f>
+        <f>IF('C'!$A19="","",'C'!$A19&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3044,7 +3038,7 @@
         <v/>
       </c>
       <c r="B20" s="4" t="str">
-        <f>IF(R_input!$C20=0,"",R_input!$C20)</f>
+        <f>IF('C'!$A20="","",'C'!$A20&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3054,7 +3048,7 @@
         <v/>
       </c>
       <c r="B21" s="4" t="str">
-        <f>IF(R_input!$C21=0,"",R_input!$C21)</f>
+        <f>IF('C'!$A21="","",'C'!$A21&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3064,7 +3058,7 @@
         <v/>
       </c>
       <c r="B22" s="4" t="str">
-        <f>IF(R_input!$C22=0,"",R_input!$C22)</f>
+        <f>IF('C'!$A22="","",'C'!$A22&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3074,7 +3068,7 @@
         <v/>
       </c>
       <c r="B23" s="4" t="str">
-        <f>IF(R_input!$C23=0,"",R_input!$C23)</f>
+        <f>IF('C'!$A23="","",'C'!$A23&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3084,7 +3078,7 @@
         <v/>
       </c>
       <c r="B24" s="4" t="str">
-        <f>IF(R_input!$C24=0,"",R_input!$C24)</f>
+        <f>IF('C'!$A24="","",'C'!$A24&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3094,7 +3088,7 @@
         <v/>
       </c>
       <c r="B25" s="4" t="str">
-        <f>IF(R_input!$C25=0,"",R_input!$C25)</f>
+        <f>IF('C'!$A25="","",'C'!$A25&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3104,7 +3098,7 @@
         <v/>
       </c>
       <c r="B26" s="4" t="str">
-        <f>IF(R_input!$C26=0,"",R_input!$C26)</f>
+        <f>IF('C'!$A26="","",'C'!$A26&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3114,7 +3108,7 @@
         <v/>
       </c>
       <c r="B27" s="4" t="str">
-        <f>IF(R_input!$C27=0,"",R_input!$C27)</f>
+        <f>IF('C'!$A27="","",'C'!$A27&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3124,7 +3118,7 @@
         <v/>
       </c>
       <c r="B28" s="4" t="str">
-        <f>IF(R_input!$C28=0,"",R_input!$C28)</f>
+        <f>IF('C'!$A28="","",'C'!$A28&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3134,7 +3128,7 @@
         <v/>
       </c>
       <c r="B29" s="4" t="str">
-        <f>IF(R_input!$C29=0,"",R_input!$C29)</f>
+        <f>IF('C'!$A29="","",'C'!$A29&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3144,7 +3138,7 @@
         <v/>
       </c>
       <c r="B30" s="4" t="str">
-        <f>IF(R_input!$C30=0,"",R_input!$C30)</f>
+        <f>IF('C'!$A30="","",'C'!$A30&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3154,7 +3148,7 @@
         <v/>
       </c>
       <c r="B31" s="4" t="str">
-        <f>IF(R_input!$C31=0,"",R_input!$C31)</f>
+        <f>IF('C'!$A31="","",'C'!$A31&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3164,7 +3158,7 @@
         <v/>
       </c>
       <c r="B32" s="4" t="str">
-        <f>IF(R_input!$C32=0,"",R_input!$C32)</f>
+        <f>IF('C'!$A32="","",'C'!$A32&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3174,7 +3168,7 @@
         <v/>
       </c>
       <c r="B33" s="4" t="str">
-        <f>IF(R_input!$C33=0,"",R_input!$C33)</f>
+        <f>IF('C'!$A33="","",'C'!$A33&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3184,7 +3178,7 @@
         <v/>
       </c>
       <c r="B34" s="4" t="str">
-        <f>IF(R_input!$C34=0,"",R_input!$C34)</f>
+        <f>IF('C'!$A34="","",'C'!$A34&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3194,7 +3188,7 @@
         <v/>
       </c>
       <c r="B35" s="4" t="str">
-        <f>IF(R_input!$C35=0,"",R_input!$C35)</f>
+        <f>IF('C'!$A35="","",'C'!$A35&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3204,7 +3198,7 @@
         <v/>
       </c>
       <c r="B36" s="4" t="str">
-        <f>IF(R_input!$C36=0,"",R_input!$C36)</f>
+        <f>IF('C'!$A36="","",'C'!$A36&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3214,7 +3208,7 @@
         <v/>
       </c>
       <c r="B37" s="4" t="str">
-        <f>IF(R_input!$C37=0,"",R_input!$C37)</f>
+        <f>IF('C'!$A37="","",'C'!$A37&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3224,7 +3218,7 @@
         <v/>
       </c>
       <c r="B38" s="4" t="str">
-        <f>IF(R_input!$C38=0,"",R_input!$C38)</f>
+        <f>IF('C'!$A38="","",'C'!$A38&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3234,7 +3228,7 @@
         <v/>
       </c>
       <c r="B39" s="4" t="str">
-        <f>IF(R_input!$C39=0,"",R_input!$C39)</f>
+        <f>IF('C'!$A39="","",'C'!$A39&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3244,7 +3238,7 @@
         <v/>
       </c>
       <c r="B40" s="4" t="str">
-        <f>IF(R_input!$C40=0,"",R_input!$C40)</f>
+        <f>IF('C'!$A40="","",'C'!$A40&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3254,7 +3248,7 @@
         <v/>
       </c>
       <c r="B41" s="4" t="str">
-        <f>IF(R_input!$C41=0,"",R_input!$C41)</f>
+        <f>IF('C'!$A41="","",'C'!$A41&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3264,7 +3258,7 @@
         <v/>
       </c>
       <c r="B42" s="4" t="str">
-        <f>IF(R_input!$C42=0,"",R_input!$C42)</f>
+        <f>IF('C'!$A42="","",'C'!$A42&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3274,7 +3268,7 @@
         <v/>
       </c>
       <c r="B43" s="4" t="str">
-        <f>IF(R_input!$C43=0,"",R_input!$C43)</f>
+        <f>IF('C'!$A43="","",'C'!$A43&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3284,7 +3278,7 @@
         <v/>
       </c>
       <c r="B44" s="4" t="str">
-        <f>IF(R_input!$C44=0,"",R_input!$C44)</f>
+        <f>IF('C'!$A44="","",'C'!$A44&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3294,7 +3288,7 @@
         <v/>
       </c>
       <c r="B45" s="4" t="str">
-        <f>IF(R_input!$C45=0,"",R_input!$C45)</f>
+        <f>IF('C'!$A45="","",'C'!$A45&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3304,7 +3298,7 @@
         <v/>
       </c>
       <c r="B46" s="4" t="str">
-        <f>IF(R_input!$C46=0,"",R_input!$C46)</f>
+        <f>IF('C'!$A46="","",'C'!$A46&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3314,7 +3308,7 @@
         <v/>
       </c>
       <c r="B47" s="4" t="str">
-        <f>IF(R_input!$C47=0,"",R_input!$C47)</f>
+        <f>IF('C'!$A47="","",'C'!$A47&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3324,7 +3318,7 @@
         <v/>
       </c>
       <c r="B48" s="4" t="str">
-        <f>IF(R_input!$C48=0,"",R_input!$C48)</f>
+        <f>IF('C'!$A48="","",'C'!$A48&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3334,7 +3328,7 @@
         <v/>
       </c>
       <c r="B49" s="4" t="str">
-        <f>IF(R_input!$C49=0,"",R_input!$C49)</f>
+        <f>IF('C'!$A49="","",'C'!$A49&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3344,7 +3338,7 @@
         <v/>
       </c>
       <c r="B50" s="4" t="str">
-        <f>IF(R_input!$C50=0,"",R_input!$C50)</f>
+        <f>IF('C'!$A50="","",'C'!$A50&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3354,7 +3348,7 @@
         <v/>
       </c>
       <c r="B51" s="4" t="str">
-        <f>IF(R_input!$C51=0,"",R_input!$C51)</f>
+        <f>IF('C'!$A51="","",'C'!$A51&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3364,7 +3358,7 @@
         <v/>
       </c>
       <c r="B52" s="4" t="str">
-        <f>IF(R_input!$C52=0,"",R_input!$C52)</f>
+        <f>IF('C'!$A52="","",'C'!$A52&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3374,7 +3368,7 @@
         <v/>
       </c>
       <c r="B53" s="4" t="str">
-        <f>IF(R_input!$C53=0,"",R_input!$C53)</f>
+        <f>IF('C'!$A53="","",'C'!$A53&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3384,7 +3378,7 @@
         <v/>
       </c>
       <c r="B54" s="4" t="str">
-        <f>IF(R_input!$C54=0,"",R_input!$C54)</f>
+        <f>IF('C'!$A54="","",'C'!$A54&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3394,7 +3388,7 @@
         <v/>
       </c>
       <c r="B55" s="4" t="str">
-        <f>IF(R_input!$C55=0,"",R_input!$C55)</f>
+        <f>IF('C'!$A55="","",'C'!$A55&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3404,7 +3398,7 @@
         <v/>
       </c>
       <c r="B56" s="4" t="str">
-        <f>IF(R_input!$C56=0,"",R_input!$C56)</f>
+        <f>IF('C'!$A56="","",'C'!$A56&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3414,7 +3408,7 @@
         <v/>
       </c>
       <c r="B57" s="4" t="str">
-        <f>IF(R_input!$C57=0,"",R_input!$C57)</f>
+        <f>IF('C'!$A57="","",'C'!$A57&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3424,7 +3418,7 @@
         <v/>
       </c>
       <c r="B58" s="4" t="str">
-        <f>IF(R_input!$C58=0,"",R_input!$C58)</f>
+        <f>IF('C'!$A58="","",'C'!$A58&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3434,7 +3428,7 @@
         <v/>
       </c>
       <c r="B59" s="4" t="str">
-        <f>IF(R_input!$C59=0,"",R_input!$C59)</f>
+        <f>IF('C'!$A59="","",'C'!$A59&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3444,7 +3438,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="str">
-        <f>IF(R_input!$C60=0,"",R_input!$C60)</f>
+        <f>IF('C'!$A60="","",'C'!$A60&amp;"init")</f>
         <v/>
       </c>
     </row>
@@ -3458,7 +3452,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3469,7 +3463,7 @@
         <v xml:space="preserve"> k1init</v>
       </c>
       <c r="B1" s="4">
-        <f>'C'!$B1</f>
+        <f>IF(R_input!$C1=0,"",R_input!$C1)</f>
         <v>10000</v>
       </c>
     </row>
@@ -3479,7 +3473,7 @@
         <v xml:space="preserve"> k2init</v>
       </c>
       <c r="B2" s="4">
-        <f>'C'!$B2</f>
+        <f>IF(R_input!$C2=0,"",R_input!$C2)</f>
         <v>10000</v>
       </c>
     </row>
@@ -3489,7 +3483,7 @@
         <v xml:space="preserve"> k3init</v>
       </c>
       <c r="B3" s="4">
-        <f>'C'!$B3</f>
+        <f>IF(R_input!$C3=0,"",R_input!$C3)</f>
         <v>100</v>
       </c>
     </row>
@@ -3499,7 +3493,7 @@
         <v xml:space="preserve"> k4init</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>'C'!$B4</f>
+        <f>IF(R_input!$C4=0,"",R_input!$C4)</f>
         <v>K2*k5</v>
       </c>
     </row>
@@ -3509,7 +3503,7 @@
         <v xml:space="preserve"> k5init</v>
       </c>
       <c r="B5" s="4">
-        <f>'C'!$B5</f>
+        <f>IF(R_input!$C5=0,"",R_input!$C5)</f>
         <v>1E-4</v>
       </c>
     </row>
@@ -3519,7 +3513,7 @@
         <v xml:space="preserve"> k6init</v>
       </c>
       <c r="B6" s="4">
-        <f>'C'!$B6</f>
+        <f>IF(R_input!$C6=0,"",R_input!$C6)</f>
         <v>2</v>
       </c>
     </row>
@@ -3529,7 +3523,7 @@
         <v xml:space="preserve"> k7init</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>'C'!$B7</f>
+        <f>IF(R_input!$C7=0,"",R_input!$C7)</f>
         <v>K4*k8</v>
       </c>
     </row>
@@ -3539,7 +3533,7 @@
         <v xml:space="preserve"> k8init</v>
       </c>
       <c r="B8" s="4">
-        <f>'C'!$B8</f>
+        <f>IF(R_input!$C8=0,"",R_input!$C8)</f>
         <v>1</v>
       </c>
     </row>
@@ -3549,7 +3543,7 @@
         <v xml:space="preserve"> k9init</v>
       </c>
       <c r="B9" s="4">
-        <f>'C'!$B9</f>
+        <f>IF(R_input!$C9=0,"",R_input!$C9)</f>
         <v>1</v>
       </c>
     </row>
@@ -3559,7 +3553,7 @@
         <v xml:space="preserve"> k10init</v>
       </c>
       <c r="B10" s="4">
-        <f>'C'!$B10</f>
+        <f>IF(R_input!$C10=0,"",R_input!$C10)</f>
         <v>10</v>
       </c>
     </row>
@@ -3569,7 +3563,7 @@
         <v xml:space="preserve"> k11init</v>
       </c>
       <c r="B11" s="4">
-        <f>'C'!$B11</f>
+        <f>IF(R_input!$C11=0,"",R_input!$C11)</f>
         <v>1</v>
       </c>
     </row>
@@ -3579,7 +3573,7 @@
         <v>K2init</v>
       </c>
       <c r="B12" s="4">
-        <f>'C'!$B12</f>
+        <f>IF(R_input!$C12=0,"",R_input!$C12)</f>
         <v>100000</v>
       </c>
     </row>
@@ -3589,7 +3583,7 @@
         <v>K4init</v>
       </c>
       <c r="B13" s="4">
-        <f>'C'!$B13</f>
+        <f>IF(R_input!$C13=0,"",R_input!$C13)</f>
         <v>0.05</v>
       </c>
     </row>
@@ -3599,7 +3593,7 @@
         <v/>
       </c>
       <c r="B14" s="4" t="str">
-        <f>'C'!$B14</f>
+        <f>IF(R_input!$C14=0,"",R_input!$C14)</f>
         <v/>
       </c>
     </row>
@@ -3609,7 +3603,7 @@
         <v/>
       </c>
       <c r="B15" s="4" t="str">
-        <f>'C'!$B15</f>
+        <f>IF(R_input!$C15=0,"",R_input!$C15)</f>
         <v/>
       </c>
     </row>
@@ -3619,7 +3613,7 @@
         <v/>
       </c>
       <c r="B16" s="4" t="str">
-        <f>'C'!$B16</f>
+        <f>IF(R_input!$C16=0,"",R_input!$C16)</f>
         <v/>
       </c>
     </row>
@@ -3629,7 +3623,7 @@
         <v/>
       </c>
       <c r="B17" s="4" t="str">
-        <f>'C'!$B17</f>
+        <f>IF(R_input!$C17=0,"",R_input!$C17)</f>
         <v/>
       </c>
     </row>
@@ -3639,7 +3633,7 @@
         <v/>
       </c>
       <c r="B18" s="4" t="str">
-        <f>'C'!$B18</f>
+        <f>IF(R_input!$C18=0,"",R_input!$C18)</f>
         <v/>
       </c>
     </row>
@@ -3649,7 +3643,7 @@
         <v/>
       </c>
       <c r="B19" s="4" t="str">
-        <f>'C'!$B19</f>
+        <f>IF(R_input!$C19=0,"",R_input!$C19)</f>
         <v/>
       </c>
     </row>
@@ -3659,7 +3653,7 @@
         <v/>
       </c>
       <c r="B20" s="4" t="str">
-        <f>'C'!$B20</f>
+        <f>IF(R_input!$C20=0,"",R_input!$C20)</f>
         <v/>
       </c>
     </row>
@@ -3669,7 +3663,7 @@
         <v/>
       </c>
       <c r="B21" s="4" t="str">
-        <f>'C'!$B21</f>
+        <f>IF(R_input!$C21=0,"",R_input!$C21)</f>
         <v/>
       </c>
     </row>
@@ -3679,7 +3673,7 @@
         <v/>
       </c>
       <c r="B22" s="4" t="str">
-        <f>'C'!$B22</f>
+        <f>IF(R_input!$C22=0,"",R_input!$C22)</f>
         <v/>
       </c>
     </row>
@@ -3689,7 +3683,7 @@
         <v/>
       </c>
       <c r="B23" s="4" t="str">
-        <f>'C'!$B23</f>
+        <f>IF(R_input!$C23=0,"",R_input!$C23)</f>
         <v/>
       </c>
     </row>
@@ -3699,7 +3693,7 @@
         <v/>
       </c>
       <c r="B24" s="4" t="str">
-        <f>'C'!$B24</f>
+        <f>IF(R_input!$C24=0,"",R_input!$C24)</f>
         <v/>
       </c>
     </row>
@@ -3709,7 +3703,7 @@
         <v/>
       </c>
       <c r="B25" s="4" t="str">
-        <f>'C'!$B25</f>
+        <f>IF(R_input!$C25=0,"",R_input!$C25)</f>
         <v/>
       </c>
     </row>
@@ -3719,7 +3713,7 @@
         <v/>
       </c>
       <c r="B26" s="4" t="str">
-        <f>'C'!$B26</f>
+        <f>IF(R_input!$C26=0,"",R_input!$C26)</f>
         <v/>
       </c>
     </row>
@@ -3729,7 +3723,7 @@
         <v/>
       </c>
       <c r="B27" s="4" t="str">
-        <f>'C'!$B27</f>
+        <f>IF(R_input!$C27=0,"",R_input!$C27)</f>
         <v/>
       </c>
     </row>
@@ -3739,7 +3733,7 @@
         <v/>
       </c>
       <c r="B28" s="4" t="str">
-        <f>'C'!$B28</f>
+        <f>IF(R_input!$C28=0,"",R_input!$C28)</f>
         <v/>
       </c>
     </row>
@@ -3749,7 +3743,7 @@
         <v/>
       </c>
       <c r="B29" s="4" t="str">
-        <f>'C'!$B29</f>
+        <f>IF(R_input!$C29=0,"",R_input!$C29)</f>
         <v/>
       </c>
     </row>
@@ -3759,7 +3753,7 @@
         <v/>
       </c>
       <c r="B30" s="4" t="str">
-        <f>'C'!$B30</f>
+        <f>IF(R_input!$C30=0,"",R_input!$C30)</f>
         <v/>
       </c>
     </row>
@@ -3769,7 +3763,7 @@
         <v/>
       </c>
       <c r="B31" s="4" t="str">
-        <f>'C'!$B31</f>
+        <f>IF(R_input!$C31=0,"",R_input!$C31)</f>
         <v/>
       </c>
     </row>
@@ -3779,7 +3773,7 @@
         <v/>
       </c>
       <c r="B32" s="4" t="str">
-        <f>'C'!$B32</f>
+        <f>IF(R_input!$C32=0,"",R_input!$C32)</f>
         <v/>
       </c>
     </row>
@@ -3789,7 +3783,7 @@
         <v/>
       </c>
       <c r="B33" s="4" t="str">
-        <f>'C'!$B33</f>
+        <f>IF(R_input!$C33=0,"",R_input!$C33)</f>
         <v/>
       </c>
     </row>
@@ -3799,7 +3793,7 @@
         <v/>
       </c>
       <c r="B34" s="4" t="str">
-        <f>'C'!$B34</f>
+        <f>IF(R_input!$C34=0,"",R_input!$C34)</f>
         <v/>
       </c>
     </row>
@@ -3809,7 +3803,7 @@
         <v/>
       </c>
       <c r="B35" s="4" t="str">
-        <f>'C'!$B35</f>
+        <f>IF(R_input!$C35=0,"",R_input!$C35)</f>
         <v/>
       </c>
     </row>
@@ -3819,7 +3813,7 @@
         <v/>
       </c>
       <c r="B36" s="4" t="str">
-        <f>'C'!$B36</f>
+        <f>IF(R_input!$C36=0,"",R_input!$C36)</f>
         <v/>
       </c>
     </row>
@@ -3829,7 +3823,7 @@
         <v/>
       </c>
       <c r="B37" s="4" t="str">
-        <f>'C'!$B37</f>
+        <f>IF(R_input!$C37=0,"",R_input!$C37)</f>
         <v/>
       </c>
     </row>
@@ -3839,7 +3833,7 @@
         <v/>
       </c>
       <c r="B38" s="4" t="str">
-        <f>'C'!$B38</f>
+        <f>IF(R_input!$C38=0,"",R_input!$C38)</f>
         <v/>
       </c>
     </row>
@@ -3849,7 +3843,7 @@
         <v/>
       </c>
       <c r="B39" s="4" t="str">
-        <f>'C'!$B39</f>
+        <f>IF(R_input!$C39=0,"",R_input!$C39)</f>
         <v/>
       </c>
     </row>
@@ -3859,7 +3853,7 @@
         <v/>
       </c>
       <c r="B40" s="4" t="str">
-        <f>'C'!$B40</f>
+        <f>IF(R_input!$C40=0,"",R_input!$C40)</f>
         <v/>
       </c>
     </row>
@@ -3869,7 +3863,7 @@
         <v/>
       </c>
       <c r="B41" s="4" t="str">
-        <f>'C'!$B41</f>
+        <f>IF(R_input!$C41=0,"",R_input!$C41)</f>
         <v/>
       </c>
     </row>
@@ -3879,7 +3873,7 @@
         <v/>
       </c>
       <c r="B42" s="4" t="str">
-        <f>'C'!$B42</f>
+        <f>IF(R_input!$C42=0,"",R_input!$C42)</f>
         <v/>
       </c>
     </row>
@@ -3889,7 +3883,7 @@
         <v/>
       </c>
       <c r="B43" s="4" t="str">
-        <f>'C'!$B43</f>
+        <f>IF(R_input!$C43=0,"",R_input!$C43)</f>
         <v/>
       </c>
     </row>
@@ -3899,7 +3893,7 @@
         <v/>
       </c>
       <c r="B44" s="4" t="str">
-        <f>'C'!$B44</f>
+        <f>IF(R_input!$C44=0,"",R_input!$C44)</f>
         <v/>
       </c>
     </row>
@@ -3909,7 +3903,7 @@
         <v/>
       </c>
       <c r="B45" s="4" t="str">
-        <f>'C'!$B45</f>
+        <f>IF(R_input!$C45=0,"",R_input!$C45)</f>
         <v/>
       </c>
     </row>
@@ -3919,7 +3913,7 @@
         <v/>
       </c>
       <c r="B46" s="4" t="str">
-        <f>'C'!$B46</f>
+        <f>IF(R_input!$C46=0,"",R_input!$C46)</f>
         <v/>
       </c>
     </row>
@@ -3929,7 +3923,7 @@
         <v/>
       </c>
       <c r="B47" s="4" t="str">
-        <f>'C'!$B47</f>
+        <f>IF(R_input!$C47=0,"",R_input!$C47)</f>
         <v/>
       </c>
     </row>
@@ -3939,7 +3933,7 @@
         <v/>
       </c>
       <c r="B48" s="4" t="str">
-        <f>'C'!$B48</f>
+        <f>IF(R_input!$C48=0,"",R_input!$C48)</f>
         <v/>
       </c>
     </row>
@@ -3949,7 +3943,7 @@
         <v/>
       </c>
       <c r="B49" s="4" t="str">
-        <f>'C'!$B49</f>
+        <f>IF(R_input!$C49=0,"",R_input!$C49)</f>
         <v/>
       </c>
     </row>
@@ -3959,7 +3953,7 @@
         <v/>
       </c>
       <c r="B50" s="4" t="str">
-        <f>'C'!$B50</f>
+        <f>IF(R_input!$C50=0,"",R_input!$C50)</f>
         <v/>
       </c>
     </row>
@@ -3969,7 +3963,7 @@
         <v/>
       </c>
       <c r="B51" s="4" t="str">
-        <f>'C'!$B51</f>
+        <f>IF(R_input!$C51=0,"",R_input!$C51)</f>
         <v/>
       </c>
     </row>
@@ -3979,7 +3973,7 @@
         <v/>
       </c>
       <c r="B52" s="4" t="str">
-        <f>'C'!$B52</f>
+        <f>IF(R_input!$C52=0,"",R_input!$C52)</f>
         <v/>
       </c>
     </row>
@@ -3989,7 +3983,7 @@
         <v/>
       </c>
       <c r="B53" s="4" t="str">
-        <f>'C'!$B53</f>
+        <f>IF(R_input!$C53=0,"",R_input!$C53)</f>
         <v/>
       </c>
     </row>
@@ -3999,7 +3993,7 @@
         <v/>
       </c>
       <c r="B54" s="4" t="str">
-        <f>'C'!$B54</f>
+        <f>IF(R_input!$C54=0,"",R_input!$C54)</f>
         <v/>
       </c>
     </row>
@@ -4009,7 +4003,7 @@
         <v/>
       </c>
       <c r="B55" s="4" t="str">
-        <f>'C'!$B55</f>
+        <f>IF(R_input!$C55=0,"",R_input!$C55)</f>
         <v/>
       </c>
     </row>
@@ -4019,7 +4013,7 @@
         <v/>
       </c>
       <c r="B56" s="4" t="str">
-        <f>'C'!$B56</f>
+        <f>IF(R_input!$C56=0,"",R_input!$C56)</f>
         <v/>
       </c>
     </row>
@@ -4029,7 +4023,7 @@
         <v/>
       </c>
       <c r="B57" s="4" t="str">
-        <f>'C'!$B57</f>
+        <f>IF(R_input!$C57=0,"",R_input!$C57)</f>
         <v/>
       </c>
     </row>
@@ -4039,7 +4033,7 @@
         <v/>
       </c>
       <c r="B58" s="4" t="str">
-        <f>'C'!$B58</f>
+        <f>IF(R_input!$C58=0,"",R_input!$C58)</f>
         <v/>
       </c>
     </row>
@@ -4049,7 +4043,7 @@
         <v/>
       </c>
       <c r="B59" s="4" t="str">
-        <f>'C'!$B59</f>
+        <f>IF(R_input!$C59=0,"",R_input!$C59)</f>
         <v/>
       </c>
     </row>
@@ -4059,7 +4053,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="str">
-        <f>'C'!$B60</f>
+        <f>IF(R_input!$C60=0,"",R_input!$C60)</f>
         <v/>
       </c>
     </row>
@@ -5806,17 +5800,17 @@
         <f>IF('C'!$A1="","",'C'!$A1&amp;"init")</f>
         <v xml:space="preserve"> k1init</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="4" t="str">
         <f>'C'!$B1</f>
-        <v>10000</v>
+        <v xml:space="preserve"> k1init</v>
       </c>
       <c r="D1" t="str">
         <f>IF(NOT(AND(F1,E1)),"",'C'!$A1&amp;"init")</f>
-        <v xml:space="preserve"> k1init</v>
-      </c>
-      <c r="E1">
+        <v/>
+      </c>
+      <c r="E1" t="b">
         <f>IFERROR(VALUE('C'!$B1),FALSE())</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F1" s="12" t="b">
         <f>NOT('C'!$A1="")</f>
@@ -5828,17 +5822,17 @@
         <f>IF('C'!$A2="","",'C'!$A2&amp;"init")</f>
         <v xml:space="preserve"> k2init</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="4" t="str">
         <f>'C'!$B2</f>
-        <v>10000</v>
+        <v xml:space="preserve"> k2init</v>
       </c>
       <c r="D2" t="str">
         <f>IF(NOT(AND(F2,E2)),"",'C'!$A2&amp;"init")</f>
-        <v xml:space="preserve"> k2init</v>
-      </c>
-      <c r="E2">
+        <v/>
+      </c>
+      <c r="E2" t="b">
         <f>IFERROR(VALUE('C'!$B2),FALSE())</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="12" t="b">
         <f>NOT('C'!$A2="")</f>
@@ -5850,17 +5844,17 @@
         <f>IF('C'!$A3="","",'C'!$A3&amp;"init")</f>
         <v xml:space="preserve"> k3init</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="4" t="str">
         <f>'C'!$B3</f>
-        <v>100</v>
+        <v xml:space="preserve"> k3init</v>
       </c>
       <c r="D3" t="str">
         <f>IF(NOT(AND(F3,E3)),"",'C'!$A3&amp;"init")</f>
-        <v xml:space="preserve"> k3init</v>
-      </c>
-      <c r="E3">
+        <v/>
+      </c>
+      <c r="E3" t="b">
         <f>IFERROR(VALUE('C'!$B3),FALSE())</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" s="12" t="b">
         <f>NOT('C'!$A3="")</f>
@@ -5874,7 +5868,7 @@
       </c>
       <c r="B4" s="4" t="str">
         <f>'C'!$B4</f>
-        <v>K2*k5</v>
+        <v xml:space="preserve"> k4init</v>
       </c>
       <c r="D4" t="str">
         <f>IF(NOT(AND(F4,E4)),"",'C'!$A4&amp;"init")</f>
@@ -5894,17 +5888,17 @@
         <f>IF('C'!$A5="","",'C'!$A5&amp;"init")</f>
         <v xml:space="preserve"> k5init</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="4" t="str">
         <f>'C'!$B5</f>
-        <v>1E-4</v>
+        <v xml:space="preserve"> k5init</v>
       </c>
       <c r="D5" t="str">
         <f>IF(NOT(AND(F5,E5)),"",'C'!$A5&amp;"init")</f>
-        <v xml:space="preserve"> k5init</v>
-      </c>
-      <c r="E5">
+        <v/>
+      </c>
+      <c r="E5" t="b">
         <f>IFERROR(VALUE('C'!$B5),FALSE())</f>
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="12" t="b">
         <f>NOT('C'!$A5="")</f>
@@ -5916,17 +5910,17 @@
         <f>IF('C'!$A6="","",'C'!$A6&amp;"init")</f>
         <v xml:space="preserve"> k6init</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="4" t="str">
         <f>'C'!$B6</f>
-        <v>2</v>
+        <v xml:space="preserve"> k6init</v>
       </c>
       <c r="D6" t="str">
         <f>IF(NOT(AND(F6,E6)),"",'C'!$A6&amp;"init")</f>
-        <v xml:space="preserve"> k6init</v>
-      </c>
-      <c r="E6">
+        <v/>
+      </c>
+      <c r="E6" t="b">
         <f>IFERROR(VALUE('C'!$B6),FALSE())</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="12" t="b">
         <f>NOT('C'!$A6="")</f>
@@ -5940,7 +5934,7 @@
       </c>
       <c r="B7" s="4" t="str">
         <f>'C'!$B7</f>
-        <v>K4*k8</v>
+        <v xml:space="preserve"> k7init</v>
       </c>
       <c r="D7" t="str">
         <f>IF(NOT(AND(F7,E7)),"",'C'!$A7&amp;"init")</f>
@@ -5960,17 +5954,17 @@
         <f>IF('C'!$A8="","",'C'!$A8&amp;"init")</f>
         <v xml:space="preserve"> k8init</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="4" t="str">
         <f>'C'!$B8</f>
-        <v>1</v>
+        <v xml:space="preserve"> k8init</v>
       </c>
       <c r="D8" t="str">
         <f>IF(NOT(AND(F8,E8)),"",'C'!$A8&amp;"init")</f>
-        <v xml:space="preserve"> k8init</v>
-      </c>
-      <c r="E8">
+        <v/>
+      </c>
+      <c r="E8" t="b">
         <f>IFERROR(VALUE('C'!$B8),FALSE())</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="12" t="b">
         <f>NOT('C'!$A8="")</f>
@@ -5982,17 +5976,17 @@
         <f>IF('C'!$A9="","",'C'!$A9&amp;"init")</f>
         <v xml:space="preserve"> k9init</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="4" t="str">
         <f>'C'!$B9</f>
-        <v>1</v>
+        <v xml:space="preserve"> k9init</v>
       </c>
       <c r="D9" t="str">
         <f>IF(NOT(AND(F9,E9)),"",'C'!$A9&amp;"init")</f>
-        <v xml:space="preserve"> k9init</v>
-      </c>
-      <c r="E9">
+        <v/>
+      </c>
+      <c r="E9" t="b">
         <f>IFERROR(VALUE('C'!$B9),FALSE())</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12" t="b">
         <f>NOT('C'!$A9="")</f>
@@ -6004,17 +5998,17 @@
         <f>IF('C'!$A10="","",'C'!$A10&amp;"init")</f>
         <v xml:space="preserve"> k10init</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="4" t="str">
         <f>'C'!$B10</f>
-        <v>10</v>
+        <v xml:space="preserve"> k10init</v>
       </c>
       <c r="D10" t="str">
         <f>IF(NOT(AND(F10,E10)),"",'C'!$A10&amp;"init")</f>
-        <v xml:space="preserve"> k10init</v>
-      </c>
-      <c r="E10">
+        <v/>
+      </c>
+      <c r="E10" t="b">
         <f>IFERROR(VALUE('C'!$B10),FALSE())</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F10" s="12" t="b">
         <f>NOT('C'!$A10="")</f>
@@ -6026,17 +6020,17 @@
         <f>IF('C'!$A11="","",'C'!$A11&amp;"init")</f>
         <v xml:space="preserve"> k11init</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="4" t="str">
         <f>'C'!$B11</f>
-        <v>1</v>
+        <v xml:space="preserve"> k11init</v>
       </c>
       <c r="D11" t="str">
         <f>IF(NOT(AND(F11,E11)),"",'C'!$A11&amp;"init")</f>
-        <v xml:space="preserve"> k11init</v>
-      </c>
-      <c r="E11">
+        <v/>
+      </c>
+      <c r="E11" t="b">
         <f>IFERROR(VALUE('C'!$B11),FALSE())</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="12" t="b">
         <f>NOT('C'!$A11="")</f>
@@ -6048,17 +6042,17 @@
         <f>IF('C'!$A12="","",'C'!$A12&amp;"init")</f>
         <v>K2init</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="4" t="str">
         <f>'C'!$B12</f>
-        <v>100000</v>
+        <v>K2init</v>
       </c>
       <c r="D12" t="str">
         <f>IF(NOT(AND(F12,E12)),"",'C'!$A12&amp;"init")</f>
-        <v>K2init</v>
-      </c>
-      <c r="E12">
+        <v/>
+      </c>
+      <c r="E12" t="b">
         <f>IFERROR(VALUE('C'!$B12),FALSE())</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12" t="b">
         <f>NOT('C'!$A12="")</f>
@@ -6070,17 +6064,17 @@
         <f>IF('C'!$A13="","",'C'!$A13&amp;"init")</f>
         <v>K4init</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="4" t="str">
         <f>'C'!$B13</f>
-        <v>0.05</v>
+        <v>K4init</v>
       </c>
       <c r="D13" t="str">
         <f>IF(NOT(AND(F13,E13)),"",'C'!$A13&amp;"init")</f>
-        <v>K4init</v>
-      </c>
-      <c r="E13">
+        <v/>
+      </c>
+      <c r="E13" t="b">
         <f>IFERROR(VALUE('C'!$B13),FALSE())</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12" t="b">
         <f>NOT('C'!$A13="")</f>

--- a/Comsol/Task/Table for SOR.xlsx
+++ b/Comsol/Task/Table for SOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\PolimerSolve\Comsol\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E344FF47-A705-4D21-B5AE-DA78B9C3313B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA3F83D-4E58-4693-876F-1D5FEA0EF95F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +677,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="11">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="11">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -698,8 +698,8 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3">
-        <v>100</v>
+      <c r="C3" s="11">
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B1" s="4">
         <f>IF(R_input!$C1=0,"",R_input!$C1)</f>
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B2" s="4">
         <f>IF(R_input!$C2=0,"",R_input!$C2)</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B3" s="4">
         <f>IF(R_input!$C3=0,"",R_input!$C3)</f>
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B11" s="4">
         <f>IF(R_input!$C11=0,"",R_input!$C11)</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">

--- a/Comsol/Task/Table for SOR.xlsx
+++ b/Comsol/Task/Table for SOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\PolimerSolve\Comsol\Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\PolimerSolve\Comsol\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA3F83D-4E58-4693-876F-1D5FEA0EF95F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA37FAE-9818-4FD8-945E-27FA997C28D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
   </bookViews>
   <sheets>
     <sheet name="R_input" sheetId="11" r:id="rId1"/>
@@ -29,6 +29,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -327,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -341,6 +347,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -660,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,8 +684,8 @@
       <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="11">
-        <v>10</v>
+      <c r="C1" s="13">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -688,7 +696,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="11">
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -699,7 +707,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="11">
-        <v>10000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -721,7 +729,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="11">
-        <v>1E-4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,8 +772,8 @@
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" s="11">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -775,8 +783,8 @@
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C10">
-        <v>10</v>
+      <c r="C10" s="11">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,8 +794,8 @@
       <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11">
-        <v>0.1</v>
+      <c r="C11" s="11">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -802,7 +810,7 @@
       <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>0.05</v>
       </c>
     </row>
@@ -1135,7 +1143,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2053,7 +2061,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3451,20 +3459,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C28030F-4A04-41DD-98F7-FEB81E926FE7}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="str">
         <f>IF('C'!$A1="","",'C'!$A1&amp;"init")</f>
         <v xml:space="preserve"> k1init</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="14">
         <f>IF(R_input!$C1=0,"",R_input!$C1)</f>
-        <v>10</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3472,9 +3483,9 @@
         <f>IF('C'!$A2="","",'C'!$A2&amp;"init")</f>
         <v xml:space="preserve"> k2init</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="14">
         <f>IF(R_input!$C2=0,"",R_input!$C2)</f>
-        <v>100000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3482,9 +3493,9 @@
         <f>IF('C'!$A3="","",'C'!$A3&amp;"init")</f>
         <v xml:space="preserve"> k3init</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="14">
         <f>IF(R_input!$C3=0,"",R_input!$C3)</f>
-        <v>10000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3492,7 +3503,7 @@
         <f>IF('C'!$A4="","",'C'!$A4&amp;"init")</f>
         <v xml:space="preserve"> k4init</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="14" t="str">
         <f>IF(R_input!$C4=0,"",R_input!$C4)</f>
         <v>K2*k5</v>
       </c>
@@ -3502,9 +3513,9 @@
         <f>IF('C'!$A5="","",'C'!$A5&amp;"init")</f>
         <v xml:space="preserve"> k5init</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="14">
         <f>IF(R_input!$C5=0,"",R_input!$C5)</f>
-        <v>1E-4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3512,7 +3523,7 @@
         <f>IF('C'!$A6="","",'C'!$A6&amp;"init")</f>
         <v xml:space="preserve"> k6init</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="14">
         <f>IF(R_input!$C6=0,"",R_input!$C6)</f>
         <v>2</v>
       </c>
@@ -3522,7 +3533,7 @@
         <f>IF('C'!$A7="","",'C'!$A7&amp;"init")</f>
         <v xml:space="preserve"> k7init</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="14" t="str">
         <f>IF(R_input!$C7=0,"",R_input!$C7)</f>
         <v>K4*k8</v>
       </c>
@@ -3532,7 +3543,7 @@
         <f>IF('C'!$A8="","",'C'!$A8&amp;"init")</f>
         <v xml:space="preserve"> k8init</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="14">
         <f>IF(R_input!$C8=0,"",R_input!$C8)</f>
         <v>1</v>
       </c>
@@ -3542,9 +3553,9 @@
         <f>IF('C'!$A9="","",'C'!$A9&amp;"init")</f>
         <v xml:space="preserve"> k9init</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="14">
         <f>IF(R_input!$C9=0,"",R_input!$C9)</f>
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3552,9 +3563,9 @@
         <f>IF('C'!$A10="","",'C'!$A10&amp;"init")</f>
         <v xml:space="preserve"> k10init</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="14">
         <f>IF(R_input!$C10=0,"",R_input!$C10)</f>
-        <v>10</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3562,9 +3573,9 @@
         <f>IF('C'!$A11="","",'C'!$A11&amp;"init")</f>
         <v xml:space="preserve"> k11init</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="14">
         <f>IF(R_input!$C11=0,"",R_input!$C11)</f>
-        <v>0.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3572,7 +3583,7 @@
         <f>IF('C'!$A12="","",'C'!$A12&amp;"init")</f>
         <v>K2init</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="14">
         <f>IF(R_input!$C12=0,"",R_input!$C12)</f>
         <v>100000</v>
       </c>
@@ -3582,7 +3593,7 @@
         <f>IF('C'!$A13="","",'C'!$A13&amp;"init")</f>
         <v>K4init</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="14">
         <f>IF(R_input!$C13=0,"",R_input!$C13)</f>
         <v>0.05</v>
       </c>
@@ -3592,7 +3603,7 @@
         <f>IF('C'!$A14="","",'C'!$A14&amp;"init")</f>
         <v/>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="14" t="str">
         <f>IF(R_input!$C14=0,"",R_input!$C14)</f>
         <v/>
       </c>
@@ -3602,7 +3613,7 @@
         <f>IF('C'!$A15="","",'C'!$A15&amp;"init")</f>
         <v/>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="14" t="str">
         <f>IF(R_input!$C15=0,"",R_input!$C15)</f>
         <v/>
       </c>
@@ -3612,7 +3623,7 @@
         <f>IF('C'!$A16="","",'C'!$A16&amp;"init")</f>
         <v/>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="14" t="str">
         <f>IF(R_input!$C16=0,"",R_input!$C16)</f>
         <v/>
       </c>
@@ -3622,7 +3633,7 @@
         <f>IF('C'!$A17="","",'C'!$A17&amp;"init")</f>
         <v/>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="14" t="str">
         <f>IF(R_input!$C17=0,"",R_input!$C17)</f>
         <v/>
       </c>
@@ -3632,7 +3643,7 @@
         <f>IF('C'!$A18="","",'C'!$A18&amp;"init")</f>
         <v/>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="14" t="str">
         <f>IF(R_input!$C18=0,"",R_input!$C18)</f>
         <v/>
       </c>
@@ -3642,7 +3653,7 @@
         <f>IF('C'!$A19="","",'C'!$A19&amp;"init")</f>
         <v/>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="14" t="str">
         <f>IF(R_input!$C19=0,"",R_input!$C19)</f>
         <v/>
       </c>
@@ -3652,7 +3663,7 @@
         <f>IF('C'!$A20="","",'C'!$A20&amp;"init")</f>
         <v/>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="14" t="str">
         <f>IF(R_input!$C20=0,"",R_input!$C20)</f>
         <v/>
       </c>
@@ -3662,7 +3673,7 @@
         <f>IF('C'!$A21="","",'C'!$A21&amp;"init")</f>
         <v/>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="14" t="str">
         <f>IF(R_input!$C21=0,"",R_input!$C21)</f>
         <v/>
       </c>
@@ -3672,7 +3683,7 @@
         <f>IF('C'!$A22="","",'C'!$A22&amp;"init")</f>
         <v/>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="14" t="str">
         <f>IF(R_input!$C22=0,"",R_input!$C22)</f>
         <v/>
       </c>
@@ -3682,7 +3693,7 @@
         <f>IF('C'!$A23="","",'C'!$A23&amp;"init")</f>
         <v/>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="14" t="str">
         <f>IF(R_input!$C23=0,"",R_input!$C23)</f>
         <v/>
       </c>
@@ -3692,7 +3703,7 @@
         <f>IF('C'!$A24="","",'C'!$A24&amp;"init")</f>
         <v/>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="14" t="str">
         <f>IF(R_input!$C24=0,"",R_input!$C24)</f>
         <v/>
       </c>
@@ -3702,7 +3713,7 @@
         <f>IF('C'!$A25="","",'C'!$A25&amp;"init")</f>
         <v/>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="14" t="str">
         <f>IF(R_input!$C25=0,"",R_input!$C25)</f>
         <v/>
       </c>
@@ -3712,7 +3723,7 @@
         <f>IF('C'!$A26="","",'C'!$A26&amp;"init")</f>
         <v/>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="14" t="str">
         <f>IF(R_input!$C26=0,"",R_input!$C26)</f>
         <v/>
       </c>
@@ -3722,7 +3733,7 @@
         <f>IF('C'!$A27="","",'C'!$A27&amp;"init")</f>
         <v/>
       </c>
-      <c r="B27" s="4" t="str">
+      <c r="B27" s="14" t="str">
         <f>IF(R_input!$C27=0,"",R_input!$C27)</f>
         <v/>
       </c>
@@ -3732,7 +3743,7 @@
         <f>IF('C'!$A28="","",'C'!$A28&amp;"init")</f>
         <v/>
       </c>
-      <c r="B28" s="4" t="str">
+      <c r="B28" s="14" t="str">
         <f>IF(R_input!$C28=0,"",R_input!$C28)</f>
         <v/>
       </c>
@@ -3742,7 +3753,7 @@
         <f>IF('C'!$A29="","",'C'!$A29&amp;"init")</f>
         <v/>
       </c>
-      <c r="B29" s="4" t="str">
+      <c r="B29" s="14" t="str">
         <f>IF(R_input!$C29=0,"",R_input!$C29)</f>
         <v/>
       </c>
@@ -3752,7 +3763,7 @@
         <f>IF('C'!$A30="","",'C'!$A30&amp;"init")</f>
         <v/>
       </c>
-      <c r="B30" s="4" t="str">
+      <c r="B30" s="14" t="str">
         <f>IF(R_input!$C30=0,"",R_input!$C30)</f>
         <v/>
       </c>
@@ -3762,7 +3773,7 @@
         <f>IF('C'!$A31="","",'C'!$A31&amp;"init")</f>
         <v/>
       </c>
-      <c r="B31" s="4" t="str">
+      <c r="B31" s="14" t="str">
         <f>IF(R_input!$C31=0,"",R_input!$C31)</f>
         <v/>
       </c>
@@ -3772,7 +3783,7 @@
         <f>IF('C'!$A32="","",'C'!$A32&amp;"init")</f>
         <v/>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B32" s="14" t="str">
         <f>IF(R_input!$C32=0,"",R_input!$C32)</f>
         <v/>
       </c>
@@ -3782,7 +3793,7 @@
         <f>IF('C'!$A33="","",'C'!$A33&amp;"init")</f>
         <v/>
       </c>
-      <c r="B33" s="4" t="str">
+      <c r="B33" s="14" t="str">
         <f>IF(R_input!$C33=0,"",R_input!$C33)</f>
         <v/>
       </c>
@@ -3792,7 +3803,7 @@
         <f>IF('C'!$A34="","",'C'!$A34&amp;"init")</f>
         <v/>
       </c>
-      <c r="B34" s="4" t="str">
+      <c r="B34" s="14" t="str">
         <f>IF(R_input!$C34=0,"",R_input!$C34)</f>
         <v/>
       </c>
@@ -3802,7 +3813,7 @@
         <f>IF('C'!$A35="","",'C'!$A35&amp;"init")</f>
         <v/>
       </c>
-      <c r="B35" s="4" t="str">
+      <c r="B35" s="14" t="str">
         <f>IF(R_input!$C35=0,"",R_input!$C35)</f>
         <v/>
       </c>
@@ -3812,7 +3823,7 @@
         <f>IF('C'!$A36="","",'C'!$A36&amp;"init")</f>
         <v/>
       </c>
-      <c r="B36" s="4" t="str">
+      <c r="B36" s="14" t="str">
         <f>IF(R_input!$C36=0,"",R_input!$C36)</f>
         <v/>
       </c>
@@ -3822,7 +3833,7 @@
         <f>IF('C'!$A37="","",'C'!$A37&amp;"init")</f>
         <v/>
       </c>
-      <c r="B37" s="4" t="str">
+      <c r="B37" s="14" t="str">
         <f>IF(R_input!$C37=0,"",R_input!$C37)</f>
         <v/>
       </c>
@@ -3832,7 +3843,7 @@
         <f>IF('C'!$A38="","",'C'!$A38&amp;"init")</f>
         <v/>
       </c>
-      <c r="B38" s="4" t="str">
+      <c r="B38" s="14" t="str">
         <f>IF(R_input!$C38=0,"",R_input!$C38)</f>
         <v/>
       </c>
@@ -3842,7 +3853,7 @@
         <f>IF('C'!$A39="","",'C'!$A39&amp;"init")</f>
         <v/>
       </c>
-      <c r="B39" s="4" t="str">
+      <c r="B39" s="14" t="str">
         <f>IF(R_input!$C39=0,"",R_input!$C39)</f>
         <v/>
       </c>
@@ -3852,7 +3863,7 @@
         <f>IF('C'!$A40="","",'C'!$A40&amp;"init")</f>
         <v/>
       </c>
-      <c r="B40" s="4" t="str">
+      <c r="B40" s="14" t="str">
         <f>IF(R_input!$C40=0,"",R_input!$C40)</f>
         <v/>
       </c>
@@ -3862,7 +3873,7 @@
         <f>IF('C'!$A41="","",'C'!$A41&amp;"init")</f>
         <v/>
       </c>
-      <c r="B41" s="4" t="str">
+      <c r="B41" s="14" t="str">
         <f>IF(R_input!$C41=0,"",R_input!$C41)</f>
         <v/>
       </c>
@@ -3872,7 +3883,7 @@
         <f>IF('C'!$A42="","",'C'!$A42&amp;"init")</f>
         <v/>
       </c>
-      <c r="B42" s="4" t="str">
+      <c r="B42" s="14" t="str">
         <f>IF(R_input!$C42=0,"",R_input!$C42)</f>
         <v/>
       </c>
@@ -3882,7 +3893,7 @@
         <f>IF('C'!$A43="","",'C'!$A43&amp;"init")</f>
         <v/>
       </c>
-      <c r="B43" s="4" t="str">
+      <c r="B43" s="14" t="str">
         <f>IF(R_input!$C43=0,"",R_input!$C43)</f>
         <v/>
       </c>
@@ -3892,7 +3903,7 @@
         <f>IF('C'!$A44="","",'C'!$A44&amp;"init")</f>
         <v/>
       </c>
-      <c r="B44" s="4" t="str">
+      <c r="B44" s="14" t="str">
         <f>IF(R_input!$C44=0,"",R_input!$C44)</f>
         <v/>
       </c>
@@ -3902,7 +3913,7 @@
         <f>IF('C'!$A45="","",'C'!$A45&amp;"init")</f>
         <v/>
       </c>
-      <c r="B45" s="4" t="str">
+      <c r="B45" s="14" t="str">
         <f>IF(R_input!$C45=0,"",R_input!$C45)</f>
         <v/>
       </c>
@@ -3912,7 +3923,7 @@
         <f>IF('C'!$A46="","",'C'!$A46&amp;"init")</f>
         <v/>
       </c>
-      <c r="B46" s="4" t="str">
+      <c r="B46" s="14" t="str">
         <f>IF(R_input!$C46=0,"",R_input!$C46)</f>
         <v/>
       </c>
@@ -3922,7 +3933,7 @@
         <f>IF('C'!$A47="","",'C'!$A47&amp;"init")</f>
         <v/>
       </c>
-      <c r="B47" s="4" t="str">
+      <c r="B47" s="14" t="str">
         <f>IF(R_input!$C47=0,"",R_input!$C47)</f>
         <v/>
       </c>
@@ -3932,7 +3943,7 @@
         <f>IF('C'!$A48="","",'C'!$A48&amp;"init")</f>
         <v/>
       </c>
-      <c r="B48" s="4" t="str">
+      <c r="B48" s="14" t="str">
         <f>IF(R_input!$C48=0,"",R_input!$C48)</f>
         <v/>
       </c>
@@ -3942,7 +3953,7 @@
         <f>IF('C'!$A49="","",'C'!$A49&amp;"init")</f>
         <v/>
       </c>
-      <c r="B49" s="4" t="str">
+      <c r="B49" s="14" t="str">
         <f>IF(R_input!$C49=0,"",R_input!$C49)</f>
         <v/>
       </c>
@@ -3952,7 +3963,7 @@
         <f>IF('C'!$A50="","",'C'!$A50&amp;"init")</f>
         <v/>
       </c>
-      <c r="B50" s="4" t="str">
+      <c r="B50" s="14" t="str">
         <f>IF(R_input!$C50=0,"",R_input!$C50)</f>
         <v/>
       </c>
@@ -3962,7 +3973,7 @@
         <f>IF('C'!$A51="","",'C'!$A51&amp;"init")</f>
         <v/>
       </c>
-      <c r="B51" s="4" t="str">
+      <c r="B51" s="14" t="str">
         <f>IF(R_input!$C51=0,"",R_input!$C51)</f>
         <v/>
       </c>
@@ -3972,7 +3983,7 @@
         <f>IF('C'!$A52="","",'C'!$A52&amp;"init")</f>
         <v/>
       </c>
-      <c r="B52" s="4" t="str">
+      <c r="B52" s="14" t="str">
         <f>IF(R_input!$C52=0,"",R_input!$C52)</f>
         <v/>
       </c>
@@ -3982,7 +3993,7 @@
         <f>IF('C'!$A53="","",'C'!$A53&amp;"init")</f>
         <v/>
       </c>
-      <c r="B53" s="4" t="str">
+      <c r="B53" s="14" t="str">
         <f>IF(R_input!$C53=0,"",R_input!$C53)</f>
         <v/>
       </c>
@@ -3992,7 +4003,7 @@
         <f>IF('C'!$A54="","",'C'!$A54&amp;"init")</f>
         <v/>
       </c>
-      <c r="B54" s="4" t="str">
+      <c r="B54" s="14" t="str">
         <f>IF(R_input!$C54=0,"",R_input!$C54)</f>
         <v/>
       </c>
@@ -4002,7 +4013,7 @@
         <f>IF('C'!$A55="","",'C'!$A55&amp;"init")</f>
         <v/>
       </c>
-      <c r="B55" s="4" t="str">
+      <c r="B55" s="14" t="str">
         <f>IF(R_input!$C55=0,"",R_input!$C55)</f>
         <v/>
       </c>
@@ -4012,7 +4023,7 @@
         <f>IF('C'!$A56="","",'C'!$A56&amp;"init")</f>
         <v/>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B56" s="14" t="str">
         <f>IF(R_input!$C56=0,"",R_input!$C56)</f>
         <v/>
       </c>
@@ -4022,7 +4033,7 @@
         <f>IF('C'!$A57="","",'C'!$A57&amp;"init")</f>
         <v/>
       </c>
-      <c r="B57" s="4" t="str">
+      <c r="B57" s="14" t="str">
         <f>IF(R_input!$C57=0,"",R_input!$C57)</f>
         <v/>
       </c>
@@ -4032,7 +4043,7 @@
         <f>IF('C'!$A58="","",'C'!$A58&amp;"init")</f>
         <v/>
       </c>
-      <c r="B58" s="4" t="str">
+      <c r="B58" s="14" t="str">
         <f>IF(R_input!$C58=0,"",R_input!$C58)</f>
         <v/>
       </c>
@@ -4042,7 +4053,7 @@
         <f>IF('C'!$A59="","",'C'!$A59&amp;"init")</f>
         <v/>
       </c>
-      <c r="B59" s="4" t="str">
+      <c r="B59" s="14" t="str">
         <f>IF(R_input!$C59=0,"",R_input!$C59)</f>
         <v/>
       </c>
@@ -4052,7 +4063,7 @@
         <f>IF('C'!$A60="","",'C'!$A60&amp;"init")</f>
         <v/>
       </c>
-      <c r="B60" s="4" t="str">
+      <c r="B60" s="14" t="str">
         <f>IF(R_input!$C60=0,"",R_input!$C60)</f>
         <v/>
       </c>

--- a/Comsol/Task/Table for SOR.xlsx
+++ b/Comsol/Task/Table for SOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\PolimerSolve\Comsol\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA37FAE-9818-4FD8-945E-27FA997C28D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329873A3-E30A-4EB4-8CFA-6C23A4870B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
   </bookViews>
   <sheets>
     <sheet name="R_input" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>Hin</t>
   </si>
@@ -127,57 +127,30 @@
     <t xml:space="preserve">R1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> k1*[Hin]*[DH]</t>
-  </si>
-  <si>
     <t xml:space="preserve">R2 </t>
   </si>
   <si>
-    <t xml:space="preserve"> k2*[Hin_m]*[DH_p]</t>
-  </si>
-  <si>
     <t xml:space="preserve">R3 </t>
   </si>
   <si>
-    <t xml:space="preserve"> k3*[HinH]*[D]</t>
-  </si>
-  <si>
     <t xml:space="preserve">R4 </t>
   </si>
   <si>
-    <t xml:space="preserve"> k4*[HinH]*[HinH]</t>
-  </si>
-  <si>
     <t xml:space="preserve">R5 </t>
   </si>
   <si>
-    <t xml:space="preserve"> k5*[Hin]*[Pyr]</t>
-  </si>
-  <si>
     <t xml:space="preserve">R6 </t>
   </si>
   <si>
-    <t xml:space="preserve"> k6*[Hin]*[HinHD]</t>
-  </si>
-  <si>
     <t xml:space="preserve">R7 </t>
   </si>
   <si>
-    <t xml:space="preserve"> k7*[HinD]</t>
-  </si>
-  <si>
     <t xml:space="preserve">R8 </t>
   </si>
   <si>
-    <t xml:space="preserve"> k8*[Hin]*[D]</t>
-  </si>
-  <si>
     <t xml:space="preserve">R9 </t>
   </si>
   <si>
-    <t xml:space="preserve"> k9*[HinHD]</t>
-  </si>
-  <si>
     <t xml:space="preserve">R10 </t>
   </si>
   <si>
@@ -187,12 +160,6 @@
     <t xml:space="preserve">R11 </t>
   </si>
   <si>
-    <t xml:space="preserve"> k11*[Hin]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d[Hin]/dt </t>
-  </si>
-  <si>
     <t xml:space="preserve"> -R1 + R4 - R5 - R6 + R7 - R8 - R11</t>
   </si>
   <si>
@@ -202,18 +169,12 @@
     <t xml:space="preserve"> -R1</t>
   </si>
   <si>
-    <t xml:space="preserve">d[Hin_m]/dt </t>
-  </si>
-  <si>
     <t xml:space="preserve"> R1 - R2</t>
   </si>
   <si>
     <t xml:space="preserve">d[DH_p]/dt </t>
   </si>
   <si>
-    <t xml:space="preserve">d[HinH]/dt </t>
-  </si>
-  <si>
     <t xml:space="preserve"> R2 - R3 - 2*R4 + 2*R5 + R6</t>
   </si>
   <si>
@@ -223,36 +184,21 @@
     <t xml:space="preserve"> R2 - R3 + R7 - R8 - 2*R10</t>
   </si>
   <si>
-    <t xml:space="preserve">d[HinHD]/dt </t>
-  </si>
-  <si>
     <t xml:space="preserve"> R3 - R6 - R9</t>
   </si>
   <si>
-    <t xml:space="preserve">d[Pyr]/dt </t>
-  </si>
-  <si>
     <t xml:space="preserve"> R4 - R5 + R9</t>
   </si>
   <si>
-    <t xml:space="preserve">d[HinD]/dt </t>
-  </si>
-  <si>
     <t xml:space="preserve"> R6 - R7 + R8</t>
   </si>
   <si>
-    <t xml:space="preserve">d[WTF]/dt </t>
-  </si>
-  <si>
     <t xml:space="preserve"> R9 + R10 + R11</t>
   </si>
   <si>
     <t>-Hint - light*k11*Hin*DH- + k12*HinH^2 - k22*Hin*Pyr - k33*Hin*HinHD - k24*Hin*D + k14*HinD</t>
   </si>
   <si>
-    <t>K2*k5</t>
-  </si>
-  <si>
     <t>K4*k8</t>
   </si>
   <si>
@@ -260,6 +206,66 @@
   </si>
   <si>
     <t>K4*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k1*[Q]*[DH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k2*[Q_m]*[DH_p]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k3*[QH]*[D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k4*[QH]*[QH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k5*[Q]*[QHH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k6*[Q]*[QHD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k7*[QD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k8*[Q]*[D]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k9*[QHD]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k11*[Q]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[Q]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[Q_m]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[QH]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[QHD]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[QHH]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[QD]/dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[prod]/dt </t>
+  </si>
+  <si>
+    <t>K2*k4</t>
+  </si>
+  <si>
+    <t>1E+9*light</t>
+  </si>
+  <si>
+    <t>light*</t>
   </si>
 </sst>
 </file>
@@ -347,8 +353,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -666,10 +672,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,18 +688,18 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="13">
-        <v>1E-3</v>
+        <v>55</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C2" s="11">
         <v>1000000000</v>
@@ -701,10 +707,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11">
         <v>1000000000</v>
@@ -712,32 +718,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="11">
-        <v>100</v>
+        <v>59</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -745,21 +751,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -767,10 +773,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C9" s="11">
         <v>1E-3</v>
@@ -778,10 +784,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C10" s="11">
         <v>1000000000</v>
@@ -789,10 +795,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C11" s="11">
         <v>1.0000000000000001E-5</v>
@@ -800,18 +806,26 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C12" s="11">
-        <v>100000</v>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="11">
+        <v>54</v>
+      </c>
+      <c r="C13" s="14">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1143,7 +1157,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1154,82 +1168,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1442,7 +1456,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,7 +1472,7 @@
       </c>
       <c r="B1" s="8" t="str">
         <f>IFERROR(R_convert!$B1,"")</f>
-        <v xml:space="preserve"> k1*Hin*DH</v>
+        <v xml:space="preserve"> k1*Q*DH</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1468,7 +1482,7 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>IFERROR(R_convert!$B2,"")</f>
-        <v xml:space="preserve"> k2*Hin_m*DH_p</v>
+        <v xml:space="preserve"> k2*Q_m*DH_p</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1478,7 +1492,7 @@
       </c>
       <c r="B3" s="8" t="str">
         <f>IFERROR(R_convert!$B3,"")</f>
-        <v xml:space="preserve"> k3*HinH*D</v>
+        <v xml:space="preserve"> k3*QH*D</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1488,7 +1502,7 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>IFERROR(R_convert!$B4,"")</f>
-        <v xml:space="preserve"> k4*HinH*HinH</v>
+        <v xml:space="preserve"> k4*QH*QH</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1498,7 +1512,7 @@
       </c>
       <c r="B5" s="8" t="str">
         <f>IFERROR(R_convert!$B5,"")</f>
-        <v xml:space="preserve"> k5*Hin*Pyr</v>
+        <v xml:space="preserve"> k5*Q*QHH</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1508,7 +1522,7 @@
       </c>
       <c r="B6" s="8" t="str">
         <f>IFERROR(R_convert!$B6,"")</f>
-        <v xml:space="preserve"> k6*Hin*HinHD</v>
+        <v xml:space="preserve"> k6*Q*QHD</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,7 +1532,7 @@
       </c>
       <c r="B7" s="8" t="str">
         <f>IFERROR(R_convert!$B7,"")</f>
-        <v xml:space="preserve"> k7*HinD</v>
+        <v xml:space="preserve"> k7*QD</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1528,7 +1542,7 @@
       </c>
       <c r="B8" s="8" t="str">
         <f>IFERROR(R_convert!$B8,"")</f>
-        <v xml:space="preserve"> k8*Hin*D</v>
+        <v xml:space="preserve"> k8*Q*D</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1538,7 +1552,7 @@
       </c>
       <c r="B9" s="8" t="str">
         <f>IFERROR(R_convert!$B9,"")</f>
-        <v xml:space="preserve"> k9*HinHD</v>
+        <v xml:space="preserve"> k9*QHD</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,7 +1572,7 @@
       </c>
       <c r="B11" s="8" t="str">
         <f>IFERROR(R_convert!$B11,"")</f>
-        <v xml:space="preserve"> k11*Hin</v>
+        <v xml:space="preserve"> k11*Q</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2073,11 +2087,11 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="str">
         <f>IFERROR(M_convert!$B1,"")</f>
-        <v>Hin</v>
+        <v>Q</v>
       </c>
       <c r="B1" s="8" t="str">
         <f>IFERROR(M_convert!$D1,"")</f>
-        <v>-Hint + -R1 + R4 - R5 - R6 + R7 - R8 - R11</v>
+        <v>-Qt + -R1 + R4 - R5 - R6 + R7 - R8 - R11</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -2105,11 +2119,11 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>IFERROR(M_convert!$B3,"")</f>
-        <v>Hin_m</v>
+        <v>Q_m</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>IFERROR(M_convert!$D3,"")</f>
-        <v>-Hin_mt + R1 - R2</v>
+        <v>-Q_mt + R1 - R2</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -2137,11 +2151,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>IFERROR(M_convert!$B5,"")</f>
-        <v>HinH</v>
+        <v>QH</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>IFERROR(M_convert!$D5,"")</f>
-        <v>-HinHt + R2 - R3 - 2*R4 + 2*R5 + R6</v>
+        <v>-QHt + R2 - R3 - 2*R4 + 2*R5 + R6</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -2169,11 +2183,11 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IFERROR(M_convert!$B7,"")</f>
-        <v>HinHD</v>
+        <v>QHD</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>IFERROR(M_convert!$D7,"")</f>
-        <v>-HinHDt + R3 - R6 - R9</v>
+        <v>-QHDt + R3 - R6 - R9</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -2185,11 +2199,11 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IFERROR(M_convert!$B8,"")</f>
-        <v>Pyr</v>
+        <v>QHH</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>IFERROR(M_convert!$D8,"")</f>
-        <v>-Pyrt + R4 - R5 + R9</v>
+        <v>-QHHt + R4 - R5 + R9</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -2201,11 +2215,11 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IFERROR(M_convert!$B9,"")</f>
-        <v>HinD</v>
+        <v>QD</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>IFERROR(M_convert!$D9,"")</f>
-        <v>-HinDt + R6 - R7 + R8</v>
+        <v>-QDt + R6 - R7 + R8</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -2217,11 +2231,11 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IFERROR(M_convert!$B10,"")</f>
-        <v>WTF</v>
+        <v>prod</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>IFERROR(M_convert!$D10,"")</f>
-        <v>-WTFt + R9 + R10 + R11</v>
+        <v>-prodt + R9 + R10 + R11</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -2841,7 +2855,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2983,11 +2997,11 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IFERROR(LEFT(R_input!$B14,FIND("*",R_input!$B14)-1),"")</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>IF('C'!$A14="","",'C'!$A14&amp;"init")</f>
-        <v/>
+        <v>lightinit</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3459,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C28030F-4A04-41DD-98F7-FEB81E926FE7}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3473,9 +3487,9 @@
         <f>IF('C'!$A1="","",'C'!$A1&amp;"init")</f>
         <v xml:space="preserve"> k1init</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="13" t="str">
         <f>IF(R_input!$C1=0,"",R_input!$C1)</f>
-        <v>1E-3</v>
+        <v>1E+9*light</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3483,7 +3497,7 @@
         <f>IF('C'!$A2="","",'C'!$A2&amp;"init")</f>
         <v xml:space="preserve"> k2init</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <f>IF(R_input!$C2=0,"",R_input!$C2)</f>
         <v>1000000000</v>
       </c>
@@ -3493,7 +3507,7 @@
         <f>IF('C'!$A3="","",'C'!$A3&amp;"init")</f>
         <v xml:space="preserve"> k3init</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <f>IF(R_input!$C3=0,"",R_input!$C3)</f>
         <v>1000000000</v>
       </c>
@@ -3503,9 +3517,9 @@
         <f>IF('C'!$A4="","",'C'!$A4&amp;"init")</f>
         <v xml:space="preserve"> k4init</v>
       </c>
-      <c r="B4" s="14" t="str">
+      <c r="B4" s="13">
         <f>IF(R_input!$C4=0,"",R_input!$C4)</f>
-        <v>K2*k5</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3513,9 +3527,9 @@
         <f>IF('C'!$A5="","",'C'!$A5&amp;"init")</f>
         <v xml:space="preserve"> k5init</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13" t="str">
         <f>IF(R_input!$C5=0,"",R_input!$C5)</f>
-        <v>100</v>
+        <v>K2*k4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3523,7 +3537,7 @@
         <f>IF('C'!$A6="","",'C'!$A6&amp;"init")</f>
         <v xml:space="preserve"> k6init</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f>IF(R_input!$C6=0,"",R_input!$C6)</f>
         <v>2</v>
       </c>
@@ -3533,7 +3547,7 @@
         <f>IF('C'!$A7="","",'C'!$A7&amp;"init")</f>
         <v xml:space="preserve"> k7init</v>
       </c>
-      <c r="B7" s="14" t="str">
+      <c r="B7" s="13" t="str">
         <f>IF(R_input!$C7=0,"",R_input!$C7)</f>
         <v>K4*k8</v>
       </c>
@@ -3543,7 +3557,7 @@
         <f>IF('C'!$A8="","",'C'!$A8&amp;"init")</f>
         <v xml:space="preserve"> k8init</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f>IF(R_input!$C8=0,"",R_input!$C8)</f>
         <v>1</v>
       </c>
@@ -3553,7 +3567,7 @@
         <f>IF('C'!$A9="","",'C'!$A9&amp;"init")</f>
         <v xml:space="preserve"> k9init</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <f>IF(R_input!$C9=0,"",R_input!$C9)</f>
         <v>1E-3</v>
       </c>
@@ -3563,7 +3577,7 @@
         <f>IF('C'!$A10="","",'C'!$A10&amp;"init")</f>
         <v xml:space="preserve"> k10init</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f>IF(R_input!$C10=0,"",R_input!$C10)</f>
         <v>1000000000</v>
       </c>
@@ -3573,7 +3587,7 @@
         <f>IF('C'!$A11="","",'C'!$A11&amp;"init")</f>
         <v xml:space="preserve"> k11init</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f>IF(R_input!$C11=0,"",R_input!$C11)</f>
         <v>1.0000000000000001E-5</v>
       </c>
@@ -3583,9 +3597,9 @@
         <f>IF('C'!$A12="","",'C'!$A12&amp;"init")</f>
         <v>K2init</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f>IF(R_input!$C12=0,"",R_input!$C12)</f>
-        <v>100000</v>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3593,7 +3607,7 @@
         <f>IF('C'!$A13="","",'C'!$A13&amp;"init")</f>
         <v>K4init</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f>IF(R_input!$C13=0,"",R_input!$C13)</f>
         <v>0.05</v>
       </c>
@@ -3601,11 +3615,11 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f>IF('C'!$A14="","",'C'!$A14&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B14" s="14" t="str">
+        <v>lightinit</v>
+      </c>
+      <c r="B14" s="13">
         <f>IF(R_input!$C14=0,"",R_input!$C14)</f>
-        <v/>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3613,7 +3627,7 @@
         <f>IF('C'!$A15="","",'C'!$A15&amp;"init")</f>
         <v/>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="13" t="str">
         <f>IF(R_input!$C15=0,"",R_input!$C15)</f>
         <v/>
       </c>
@@ -3623,7 +3637,7 @@
         <f>IF('C'!$A16="","",'C'!$A16&amp;"init")</f>
         <v/>
       </c>
-      <c r="B16" s="14" t="str">
+      <c r="B16" s="13" t="str">
         <f>IF(R_input!$C16=0,"",R_input!$C16)</f>
         <v/>
       </c>
@@ -3633,7 +3647,7 @@
         <f>IF('C'!$A17="","",'C'!$A17&amp;"init")</f>
         <v/>
       </c>
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="13" t="str">
         <f>IF(R_input!$C17=0,"",R_input!$C17)</f>
         <v/>
       </c>
@@ -3643,7 +3657,7 @@
         <f>IF('C'!$A18="","",'C'!$A18&amp;"init")</f>
         <v/>
       </c>
-      <c r="B18" s="14" t="str">
+      <c r="B18" s="13" t="str">
         <f>IF(R_input!$C18=0,"",R_input!$C18)</f>
         <v/>
       </c>
@@ -3653,7 +3667,7 @@
         <f>IF('C'!$A19="","",'C'!$A19&amp;"init")</f>
         <v/>
       </c>
-      <c r="B19" s="14" t="str">
+      <c r="B19" s="13" t="str">
         <f>IF(R_input!$C19=0,"",R_input!$C19)</f>
         <v/>
       </c>
@@ -3663,7 +3677,7 @@
         <f>IF('C'!$A20="","",'C'!$A20&amp;"init")</f>
         <v/>
       </c>
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="13" t="str">
         <f>IF(R_input!$C20=0,"",R_input!$C20)</f>
         <v/>
       </c>
@@ -3673,7 +3687,7 @@
         <f>IF('C'!$A21="","",'C'!$A21&amp;"init")</f>
         <v/>
       </c>
-      <c r="B21" s="14" t="str">
+      <c r="B21" s="13" t="str">
         <f>IF(R_input!$C21=0,"",R_input!$C21)</f>
         <v/>
       </c>
@@ -3683,7 +3697,7 @@
         <f>IF('C'!$A22="","",'C'!$A22&amp;"init")</f>
         <v/>
       </c>
-      <c r="B22" s="14" t="str">
+      <c r="B22" s="13" t="str">
         <f>IF(R_input!$C22=0,"",R_input!$C22)</f>
         <v/>
       </c>
@@ -3693,7 +3707,7 @@
         <f>IF('C'!$A23="","",'C'!$A23&amp;"init")</f>
         <v/>
       </c>
-      <c r="B23" s="14" t="str">
+      <c r="B23" s="13" t="str">
         <f>IF(R_input!$C23=0,"",R_input!$C23)</f>
         <v/>
       </c>
@@ -3703,7 +3717,7 @@
         <f>IF('C'!$A24="","",'C'!$A24&amp;"init")</f>
         <v/>
       </c>
-      <c r="B24" s="14" t="str">
+      <c r="B24" s="13" t="str">
         <f>IF(R_input!$C24=0,"",R_input!$C24)</f>
         <v/>
       </c>
@@ -3713,7 +3727,7 @@
         <f>IF('C'!$A25="","",'C'!$A25&amp;"init")</f>
         <v/>
       </c>
-      <c r="B25" s="14" t="str">
+      <c r="B25" s="13" t="str">
         <f>IF(R_input!$C25=0,"",R_input!$C25)</f>
         <v/>
       </c>
@@ -3723,7 +3737,7 @@
         <f>IF('C'!$A26="","",'C'!$A26&amp;"init")</f>
         <v/>
       </c>
-      <c r="B26" s="14" t="str">
+      <c r="B26" s="13" t="str">
         <f>IF(R_input!$C26=0,"",R_input!$C26)</f>
         <v/>
       </c>
@@ -3733,7 +3747,7 @@
         <f>IF('C'!$A27="","",'C'!$A27&amp;"init")</f>
         <v/>
       </c>
-      <c r="B27" s="14" t="str">
+      <c r="B27" s="13" t="str">
         <f>IF(R_input!$C27=0,"",R_input!$C27)</f>
         <v/>
       </c>
@@ -3743,7 +3757,7 @@
         <f>IF('C'!$A28="","",'C'!$A28&amp;"init")</f>
         <v/>
       </c>
-      <c r="B28" s="14" t="str">
+      <c r="B28" s="13" t="str">
         <f>IF(R_input!$C28=0,"",R_input!$C28)</f>
         <v/>
       </c>
@@ -3753,7 +3767,7 @@
         <f>IF('C'!$A29="","",'C'!$A29&amp;"init")</f>
         <v/>
       </c>
-      <c r="B29" s="14" t="str">
+      <c r="B29" s="13" t="str">
         <f>IF(R_input!$C29=0,"",R_input!$C29)</f>
         <v/>
       </c>
@@ -3763,7 +3777,7 @@
         <f>IF('C'!$A30="","",'C'!$A30&amp;"init")</f>
         <v/>
       </c>
-      <c r="B30" s="14" t="str">
+      <c r="B30" s="13" t="str">
         <f>IF(R_input!$C30=0,"",R_input!$C30)</f>
         <v/>
       </c>
@@ -3773,7 +3787,7 @@
         <f>IF('C'!$A31="","",'C'!$A31&amp;"init")</f>
         <v/>
       </c>
-      <c r="B31" s="14" t="str">
+      <c r="B31" s="13" t="str">
         <f>IF(R_input!$C31=0,"",R_input!$C31)</f>
         <v/>
       </c>
@@ -3783,7 +3797,7 @@
         <f>IF('C'!$A32="","",'C'!$A32&amp;"init")</f>
         <v/>
       </c>
-      <c r="B32" s="14" t="str">
+      <c r="B32" s="13" t="str">
         <f>IF(R_input!$C32=0,"",R_input!$C32)</f>
         <v/>
       </c>
@@ -3793,7 +3807,7 @@
         <f>IF('C'!$A33="","",'C'!$A33&amp;"init")</f>
         <v/>
       </c>
-      <c r="B33" s="14" t="str">
+      <c r="B33" s="13" t="str">
         <f>IF(R_input!$C33=0,"",R_input!$C33)</f>
         <v/>
       </c>
@@ -3803,7 +3817,7 @@
         <f>IF('C'!$A34="","",'C'!$A34&amp;"init")</f>
         <v/>
       </c>
-      <c r="B34" s="14" t="str">
+      <c r="B34" s="13" t="str">
         <f>IF(R_input!$C34=0,"",R_input!$C34)</f>
         <v/>
       </c>
@@ -3813,7 +3827,7 @@
         <f>IF('C'!$A35="","",'C'!$A35&amp;"init")</f>
         <v/>
       </c>
-      <c r="B35" s="14" t="str">
+      <c r="B35" s="13" t="str">
         <f>IF(R_input!$C35=0,"",R_input!$C35)</f>
         <v/>
       </c>
@@ -3823,7 +3837,7 @@
         <f>IF('C'!$A36="","",'C'!$A36&amp;"init")</f>
         <v/>
       </c>
-      <c r="B36" s="14" t="str">
+      <c r="B36" s="13" t="str">
         <f>IF(R_input!$C36=0,"",R_input!$C36)</f>
         <v/>
       </c>
@@ -3833,7 +3847,7 @@
         <f>IF('C'!$A37="","",'C'!$A37&amp;"init")</f>
         <v/>
       </c>
-      <c r="B37" s="14" t="str">
+      <c r="B37" s="13" t="str">
         <f>IF(R_input!$C37=0,"",R_input!$C37)</f>
         <v/>
       </c>
@@ -3843,7 +3857,7 @@
         <f>IF('C'!$A38="","",'C'!$A38&amp;"init")</f>
         <v/>
       </c>
-      <c r="B38" s="14" t="str">
+      <c r="B38" s="13" t="str">
         <f>IF(R_input!$C38=0,"",R_input!$C38)</f>
         <v/>
       </c>
@@ -3853,7 +3867,7 @@
         <f>IF('C'!$A39="","",'C'!$A39&amp;"init")</f>
         <v/>
       </c>
-      <c r="B39" s="14" t="str">
+      <c r="B39" s="13" t="str">
         <f>IF(R_input!$C39=0,"",R_input!$C39)</f>
         <v/>
       </c>
@@ -3863,7 +3877,7 @@
         <f>IF('C'!$A40="","",'C'!$A40&amp;"init")</f>
         <v/>
       </c>
-      <c r="B40" s="14" t="str">
+      <c r="B40" s="13" t="str">
         <f>IF(R_input!$C40=0,"",R_input!$C40)</f>
         <v/>
       </c>
@@ -3873,7 +3887,7 @@
         <f>IF('C'!$A41="","",'C'!$A41&amp;"init")</f>
         <v/>
       </c>
-      <c r="B41" s="14" t="str">
+      <c r="B41" s="13" t="str">
         <f>IF(R_input!$C41=0,"",R_input!$C41)</f>
         <v/>
       </c>
@@ -3883,7 +3897,7 @@
         <f>IF('C'!$A42="","",'C'!$A42&amp;"init")</f>
         <v/>
       </c>
-      <c r="B42" s="14" t="str">
+      <c r="B42" s="13" t="str">
         <f>IF(R_input!$C42=0,"",R_input!$C42)</f>
         <v/>
       </c>
@@ -3893,7 +3907,7 @@
         <f>IF('C'!$A43="","",'C'!$A43&amp;"init")</f>
         <v/>
       </c>
-      <c r="B43" s="14" t="str">
+      <c r="B43" s="13" t="str">
         <f>IF(R_input!$C43=0,"",R_input!$C43)</f>
         <v/>
       </c>
@@ -3903,7 +3917,7 @@
         <f>IF('C'!$A44="","",'C'!$A44&amp;"init")</f>
         <v/>
       </c>
-      <c r="B44" s="14" t="str">
+      <c r="B44" s="13" t="str">
         <f>IF(R_input!$C44=0,"",R_input!$C44)</f>
         <v/>
       </c>
@@ -3913,7 +3927,7 @@
         <f>IF('C'!$A45="","",'C'!$A45&amp;"init")</f>
         <v/>
       </c>
-      <c r="B45" s="14" t="str">
+      <c r="B45" s="13" t="str">
         <f>IF(R_input!$C45=0,"",R_input!$C45)</f>
         <v/>
       </c>
@@ -3923,7 +3937,7 @@
         <f>IF('C'!$A46="","",'C'!$A46&amp;"init")</f>
         <v/>
       </c>
-      <c r="B46" s="14" t="str">
+      <c r="B46" s="13" t="str">
         <f>IF(R_input!$C46=0,"",R_input!$C46)</f>
         <v/>
       </c>
@@ -3933,7 +3947,7 @@
         <f>IF('C'!$A47="","",'C'!$A47&amp;"init")</f>
         <v/>
       </c>
-      <c r="B47" s="14" t="str">
+      <c r="B47" s="13" t="str">
         <f>IF(R_input!$C47=0,"",R_input!$C47)</f>
         <v/>
       </c>
@@ -3943,7 +3957,7 @@
         <f>IF('C'!$A48="","",'C'!$A48&amp;"init")</f>
         <v/>
       </c>
-      <c r="B48" s="14" t="str">
+      <c r="B48" s="13" t="str">
         <f>IF(R_input!$C48=0,"",R_input!$C48)</f>
         <v/>
       </c>
@@ -3953,7 +3967,7 @@
         <f>IF('C'!$A49="","",'C'!$A49&amp;"init")</f>
         <v/>
       </c>
-      <c r="B49" s="14" t="str">
+      <c r="B49" s="13" t="str">
         <f>IF(R_input!$C49=0,"",R_input!$C49)</f>
         <v/>
       </c>
@@ -3963,7 +3977,7 @@
         <f>IF('C'!$A50="","",'C'!$A50&amp;"init")</f>
         <v/>
       </c>
-      <c r="B50" s="14" t="str">
+      <c r="B50" s="13" t="str">
         <f>IF(R_input!$C50=0,"",R_input!$C50)</f>
         <v/>
       </c>
@@ -3973,7 +3987,7 @@
         <f>IF('C'!$A51="","",'C'!$A51&amp;"init")</f>
         <v/>
       </c>
-      <c r="B51" s="14" t="str">
+      <c r="B51" s="13" t="str">
         <f>IF(R_input!$C51=0,"",R_input!$C51)</f>
         <v/>
       </c>
@@ -3983,7 +3997,7 @@
         <f>IF('C'!$A52="","",'C'!$A52&amp;"init")</f>
         <v/>
       </c>
-      <c r="B52" s="14" t="str">
+      <c r="B52" s="13" t="str">
         <f>IF(R_input!$C52=0,"",R_input!$C52)</f>
         <v/>
       </c>
@@ -3993,7 +4007,7 @@
         <f>IF('C'!$A53="","",'C'!$A53&amp;"init")</f>
         <v/>
       </c>
-      <c r="B53" s="14" t="str">
+      <c r="B53" s="13" t="str">
         <f>IF(R_input!$C53=0,"",R_input!$C53)</f>
         <v/>
       </c>
@@ -4003,7 +4017,7 @@
         <f>IF('C'!$A54="","",'C'!$A54&amp;"init")</f>
         <v/>
       </c>
-      <c r="B54" s="14" t="str">
+      <c r="B54" s="13" t="str">
         <f>IF(R_input!$C54=0,"",R_input!$C54)</f>
         <v/>
       </c>
@@ -4013,7 +4027,7 @@
         <f>IF('C'!$A55="","",'C'!$A55&amp;"init")</f>
         <v/>
       </c>
-      <c r="B55" s="14" t="str">
+      <c r="B55" s="13" t="str">
         <f>IF(R_input!$C55=0,"",R_input!$C55)</f>
         <v/>
       </c>
@@ -4023,7 +4037,7 @@
         <f>IF('C'!$A56="","",'C'!$A56&amp;"init")</f>
         <v/>
       </c>
-      <c r="B56" s="14" t="str">
+      <c r="B56" s="13" t="str">
         <f>IF(R_input!$C56=0,"",R_input!$C56)</f>
         <v/>
       </c>
@@ -4033,7 +4047,7 @@
         <f>IF('C'!$A57="","",'C'!$A57&amp;"init")</f>
         <v/>
       </c>
-      <c r="B57" s="14" t="str">
+      <c r="B57" s="13" t="str">
         <f>IF(R_input!$C57=0,"",R_input!$C57)</f>
         <v/>
       </c>
@@ -4043,7 +4057,7 @@
         <f>IF('C'!$A58="","",'C'!$A58&amp;"init")</f>
         <v/>
       </c>
-      <c r="B58" s="14" t="str">
+      <c r="B58" s="13" t="str">
         <f>IF(R_input!$C58=0,"",R_input!$C58)</f>
         <v/>
       </c>
@@ -4053,7 +4067,7 @@
         <f>IF('C'!$A59="","",'C'!$A59&amp;"init")</f>
         <v/>
       </c>
-      <c r="B59" s="14" t="str">
+      <c r="B59" s="13" t="str">
         <f>IF(R_input!$C59=0,"",R_input!$C59)</f>
         <v/>
       </c>
@@ -4063,7 +4077,7 @@
         <f>IF('C'!$A60="","",'C'!$A60&amp;"init")</f>
         <v/>
       </c>
-      <c r="B60" s="14" t="str">
+      <c r="B60" s="13" t="str">
         <f>IF(R_input!$C60=0,"",R_input!$C60)</f>
         <v/>
       </c>
@@ -4090,91 +4104,91 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="str">
         <f>IF(R_input!$A1="","",SUBSTITUTE(R_input!$B1,"[",""))</f>
-        <v xml:space="preserve"> k1*Hin]*DH]</v>
+        <v xml:space="preserve"> k1*Q]*DH]</v>
       </c>
       <c r="B1" s="4" t="str">
         <f>SUBSTITUTE($A1,"]","")</f>
-        <v xml:space="preserve"> k1*Hin*DH</v>
+        <v xml:space="preserve"> k1*Q*DH</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>IF(R_input!$A2="","",SUBSTITUTE(R_input!$B2,"[",""))</f>
-        <v xml:space="preserve"> k2*Hin_m]*DH_p]</v>
+        <v xml:space="preserve"> k2*Q_m]*DH_p]</v>
       </c>
       <c r="B2" s="4" t="str">
         <f t="shared" ref="B2:B60" si="0">SUBSTITUTE($A2,"]","")</f>
-        <v xml:space="preserve"> k2*Hin_m*DH_p</v>
+        <v xml:space="preserve"> k2*Q_m*DH_p</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>IF(R_input!$A3="","",SUBSTITUTE(R_input!$B3,"[",""))</f>
-        <v xml:space="preserve"> k3*HinH]*D]</v>
+        <v xml:space="preserve"> k3*QH]*D]</v>
       </c>
       <c r="B3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> k3*HinH*D</v>
+        <v xml:space="preserve"> k3*QH*D</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f>IF(R_input!$A4="","",SUBSTITUTE(R_input!$B4,"[",""))</f>
-        <v xml:space="preserve"> k4*HinH]*HinH]</v>
+        <v xml:space="preserve"> k4*QH]*QH]</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> k4*HinH*HinH</v>
+        <v xml:space="preserve"> k4*QH*QH</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f>IF(R_input!$A5="","",SUBSTITUTE(R_input!$B5,"[",""))</f>
-        <v xml:space="preserve"> k5*Hin]*Pyr]</v>
+        <v xml:space="preserve"> k5*Q]*QHH]</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> k5*Hin*Pyr</v>
+        <v xml:space="preserve"> k5*Q*QHH</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f>IF(R_input!$A6="","",SUBSTITUTE(R_input!$B6,"[",""))</f>
-        <v xml:space="preserve"> k6*Hin]*HinHD]</v>
+        <v xml:space="preserve"> k6*Q]*QHD]</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> k6*Hin*HinHD</v>
+        <v xml:space="preserve"> k6*Q*QHD</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f>IF(R_input!$A7="","",SUBSTITUTE(R_input!$B7,"[",""))</f>
-        <v xml:space="preserve"> k7*HinD]</v>
+        <v xml:space="preserve"> k7*QD]</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> k7*HinD</v>
+        <v xml:space="preserve"> k7*QD</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f>IF(R_input!$A8="","",SUBSTITUTE(R_input!$B8,"[",""))</f>
-        <v xml:space="preserve"> k8*Hin]*D]</v>
+        <v xml:space="preserve"> k8*Q]*D]</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> k8*Hin*D</v>
+        <v xml:space="preserve"> k8*Q*D</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f>IF(R_input!$A9="","",SUBSTITUTE(R_input!$B9,"[",""))</f>
-        <v xml:space="preserve"> k9*HinHD]</v>
+        <v xml:space="preserve"> k9*QHD]</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> k9*HinHD</v>
+        <v xml:space="preserve"> k9*QHD</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4190,11 +4204,11 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f>IF(R_input!$A11="","",SUBSTITUTE(R_input!$B11,"[",""))</f>
-        <v xml:space="preserve"> k11*Hin]</v>
+        <v xml:space="preserve"> k11*Q]</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> k11*Hin</v>
+        <v xml:space="preserve"> k11*Q</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4710,19 +4724,19 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>REPLACE(M_input!$A1,FIND("d[",M_input!$A1),2,"")</f>
-        <v xml:space="preserve">Hin]/dt </v>
+        <v xml:space="preserve">Q]/dt </v>
       </c>
       <c r="B1" t="str">
         <f>TRIM(REPLACE($A1,FIND("]/dt",$A1),4,""))</f>
-        <v>Hin</v>
+        <v>Q</v>
       </c>
       <c r="C1" t="str">
         <f>"-"&amp;REPLACE($A1,FIND("]/dt",$A1),4,"t")&amp;"+"</f>
-        <v>-Hint +</v>
+        <v>-Qt +</v>
       </c>
       <c r="D1" t="str">
         <f>$C1&amp;M_input!$B1</f>
-        <v>-Hint + -R1 + R4 - R5 - R6 + R7 - R8 - R11</v>
+        <v>-Qt + -R1 + R4 - R5 - R6 + R7 - R8 - R11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4746,19 +4760,19 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>REPLACE(M_input!$A3,FIND("d[",M_input!$A3),2,"")</f>
-        <v xml:space="preserve">Hin_m]/dt </v>
+        <v xml:space="preserve">Q_m]/dt </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>Hin_m</v>
+        <v>Q_m</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="1"/>
-        <v>-Hin_mt +</v>
+        <v>-Q_mt +</v>
       </c>
       <c r="D3" t="str">
         <f>$C3&amp;M_input!$B3</f>
-        <v>-Hin_mt + R1 - R2</v>
+        <v>-Q_mt + R1 - R2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4782,19 +4796,19 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>REPLACE(M_input!$A5,FIND("d[",M_input!$A5),2,"")</f>
-        <v xml:space="preserve">HinH]/dt </v>
+        <v xml:space="preserve">QH]/dt </v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>HinH</v>
+        <v>QH</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>-HinHt +</v>
+        <v>-QHt +</v>
       </c>
       <c r="D5" t="str">
         <f>$C5&amp;M_input!$B5</f>
-        <v>-HinHt + R2 - R3 - 2*R4 + 2*R5 + R6</v>
+        <v>-QHt + R2 - R3 - 2*R4 + 2*R5 + R6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4818,73 +4832,73 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>REPLACE(M_input!$A7,FIND("d[",M_input!$A7),2,"")</f>
-        <v xml:space="preserve">HinHD]/dt </v>
+        <v xml:space="preserve">QHD]/dt </v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>HinHD</v>
+        <v>QHD</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>-HinHDt +</v>
+        <v>-QHDt +</v>
       </c>
       <c r="D7" t="str">
         <f>$C7&amp;M_input!$B7</f>
-        <v>-HinHDt + R3 - R6 - R9</v>
+        <v>-QHDt + R3 - R6 - R9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>REPLACE(M_input!$A8,FIND("d[",M_input!$A8),2,"")</f>
-        <v xml:space="preserve">Pyr]/dt </v>
+        <v xml:space="preserve">QHH]/dt </v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Pyr</v>
+        <v>QHH</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>-Pyrt +</v>
+        <v>-QHHt +</v>
       </c>
       <c r="D8" t="str">
         <f>$C8&amp;M_input!$B8</f>
-        <v>-Pyrt + R4 - R5 + R9</v>
+        <v>-QHHt + R4 - R5 + R9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>REPLACE(M_input!$A9,FIND("d[",M_input!$A9),2,"")</f>
-        <v xml:space="preserve">HinD]/dt </v>
+        <v xml:space="preserve">QD]/dt </v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>HinD</v>
+        <v>QD</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>-HinDt +</v>
+        <v>-QDt +</v>
       </c>
       <c r="D9" t="str">
         <f>$C9&amp;M_input!$B9</f>
-        <v>-HinDt + R6 - R7 + R8</v>
+        <v>-QDt + R6 - R7 + R8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>REPLACE(M_input!$A10,FIND("d[",M_input!$A10),2,"")</f>
-        <v xml:space="preserve">WTF]/dt </v>
+        <v xml:space="preserve">prod]/dt </v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>WTF</v>
+        <v>prod</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>-WTFt +</v>
+        <v>-prodt +</v>
       </c>
       <c r="D10" t="str">
         <f>$C10&amp;M_input!$B10</f>
-        <v>-WTFt + R9 + R10 + R11</v>
+        <v>-prodt + R9 + R10 + R11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -6095,11 +6109,11 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f>IF('C'!$A14="","",'C'!$A14&amp;"init")</f>
-        <v/>
+        <v>lightinit</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>'C'!$B14</f>
-        <v/>
+        <v>lightinit</v>
       </c>
       <c r="D14" t="str">
         <f>IF(NOT(AND(F14,E14)),"",'C'!$A14&amp;"init")</f>
@@ -6111,7 +6125,7 @@
       </c>
       <c r="F14" s="12" t="b">
         <f>NOT('C'!$A14="")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">

--- a/Comsol/Task/Table for SOR.xlsx
+++ b/Comsol/Task/Table for SOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\PolimerSolve\Comsol\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329873A3-E30A-4EB4-8CFA-6C23A4870B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48FB08-D637-460E-826C-BE3BE531F2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{60FE5ACB-4118-41CB-AB65-5BEC2C35F150}"/>
   </bookViews>
   <sheets>
     <sheet name="R_input" sheetId="11" r:id="rId1"/>
@@ -19,11 +19,9 @@
     <sheet name="M" sheetId="10" r:id="rId4"/>
     <sheet name="C" sheetId="14" r:id="rId5"/>
     <sheet name="C0" sheetId="15" r:id="rId6"/>
-    <sheet name="R_convert" sheetId="12" r:id="rId7"/>
-    <sheet name="M_convert" sheetId="8" r:id="rId8"/>
-    <sheet name="C0 (test)" sheetId="17" r:id="rId9"/>
-    <sheet name="1" sheetId="2" r:id="rId10"/>
-    <sheet name="2" sheetId="6" r:id="rId11"/>
+    <sheet name="I" sheetId="18" r:id="rId7"/>
+    <sheet name="R_convert" sheetId="12" r:id="rId8"/>
+    <sheet name="M_convert" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,88 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
-  <si>
-    <t>Hin</t>
-  </si>
-  <si>
-    <t>Hin0</t>
-  </si>
-  <si>
-    <t>DH</t>
-  </si>
-  <si>
-    <t>DH0</t>
-  </si>
-  <si>
-    <t>Hin_m</t>
-  </si>
-  <si>
-    <t>DH_p</t>
-  </si>
-  <si>
-    <t>HinH</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>HinHD</t>
-  </si>
-  <si>
-    <t>Pyr</t>
-  </si>
-  <si>
-    <t>Pyr0</t>
-  </si>
-  <si>
-    <t>HinD</t>
-  </si>
-  <si>
-    <t>WTF</t>
-  </si>
-  <si>
-    <t>-Hint - light*k11*Hin*DH + k12*HinH^2 - k22*Hin*Pyr - k33*Hin*HinHD - k24*Hin*D + k14*HinD</t>
-  </si>
-  <si>
-    <t>-DHt - light*k11*Hin*DH</t>
-  </si>
-  <si>
-    <t>-DH_pt + light*k11*Hin*DH - k21*Hin_m*DH_p</t>
-  </si>
-  <si>
-    <t>-Dt + k21*Hin_m*DH_p - k31*HinH*D + k14*HinD - k24*Hin*D</t>
-  </si>
-  <si>
-    <t>-Pyrt + k12*HinH^2 - k22*Hin*Pyr + k15*HinHD</t>
-  </si>
-  <si>
-    <t>-HinDt + k33*Hin*HinHD - k14*HinD + k24*Hin*D</t>
-  </si>
-  <si>
-    <t>-Hin_mt + light*k11*Hin*DH - k21*Hin_m*DH_p</t>
-  </si>
-  <si>
-    <t>-HinHt + k21*Hin_m*DH_p - k31*HinH*D - 2*k12*HinH^2 - 2*k22*Hin*Pyr + k33*Hin*HinHD</t>
-  </si>
-  <si>
-    <t>-HinHDt + k31*HinH*D - k33*Hin*HinHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Pyrt + k12*HinH^2 - k22*Hin*Pyr </t>
-  </si>
-  <si>
-    <t>-HinHt + k21*Hin_m*DH_p - k31*HinH*D - 2*k12*HinH^2 + 2*k22*Hin*Pyr + k33*Hin*HinHD</t>
-  </si>
-  <si>
-    <t>-HinHDt + k31*HinH*D - k33*Hin*HinHD - k15*HinHD</t>
-  </si>
-  <si>
-    <t>-WTFt + k15*HinHD+k16*D^2</t>
-  </si>
-  <si>
-    <t>-Dt + k21*Hin_m*DH_p - k31*HinH*D + k14*HinD - k24*Hin*D-2*k16*D^2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t xml:space="preserve">R1 </t>
   </si>
@@ -194,9 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve"> R9 + R10 + R11</t>
-  </si>
-  <si>
-    <t>-Hint - light*k11*Hin*DH- + k12*HinH^2 - k22*Hin*Pyr - k33*Hin*HinHD - k24*Hin*D + k14*HinD</t>
   </si>
   <si>
     <t>K4*k8</t>
@@ -272,7 +186,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +205,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -295,12 +219,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -326,6 +244,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -339,22 +263,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -674,474 +600,160 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>73</v>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>1000000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1000000000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>1000000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>72</v>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="12">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="10">
         <v>1E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DDBF04-27AC-48A0-A024-B243676F2928}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="87.21875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EE7D9B-D33F-4112-A003-64986E8D4D52}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="87.21875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1154,297 +766,254 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1456,7 +1025,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,601 +1035,601 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="8" t="str">
         <f>TRIM(IF(R_input!$A1="","",R_input!$A1))</f>
         <v>R1</v>
       </c>
-      <c r="B1" s="8" t="str">
+      <c r="B1" s="7" t="str">
         <f>IFERROR(R_convert!$B1,"")</f>
         <v xml:space="preserve"> k1*Q*DH</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="str">
+      <c r="A2" s="8" t="str">
         <f>TRIM(IF(R_input!$A2="","",R_input!$A2))</f>
         <v>R2</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="7" t="str">
         <f>IFERROR(R_convert!$B2,"")</f>
         <v xml:space="preserve"> k2*Q_m*DH_p</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="str">
+      <c r="A3" s="8" t="str">
         <f>TRIM(IF(R_input!$A3="","",R_input!$A3))</f>
         <v>R3</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="7" t="str">
         <f>IFERROR(R_convert!$B3,"")</f>
         <v xml:space="preserve"> k3*QH*D</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="str">
+      <c r="A4" s="8" t="str">
         <f>TRIM(IF(R_input!$A4="","",R_input!$A4))</f>
         <v>R4</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="7" t="str">
         <f>IFERROR(R_convert!$B4,"")</f>
         <v xml:space="preserve"> k4*QH*QH</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="str">
+      <c r="A5" s="8" t="str">
         <f>TRIM(IF(R_input!$A5="","",R_input!$A5))</f>
         <v>R5</v>
       </c>
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="7" t="str">
         <f>IFERROR(R_convert!$B5,"")</f>
         <v xml:space="preserve"> k5*Q*QHH</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="8" t="str">
         <f>TRIM(IF(R_input!$A6="","",R_input!$A6))</f>
         <v>R6</v>
       </c>
-      <c r="B6" s="8" t="str">
+      <c r="B6" s="7" t="str">
         <f>IFERROR(R_convert!$B6,"")</f>
         <v xml:space="preserve"> k6*Q*QHD</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="str">
+      <c r="A7" s="8" t="str">
         <f>TRIM(IF(R_input!$A7="","",R_input!$A7))</f>
         <v>R7</v>
       </c>
-      <c r="B7" s="8" t="str">
+      <c r="B7" s="7" t="str">
         <f>IFERROR(R_convert!$B7,"")</f>
         <v xml:space="preserve"> k7*QD</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="str">
+      <c r="A8" s="8" t="str">
         <f>TRIM(IF(R_input!$A8="","",R_input!$A8))</f>
         <v>R8</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="7" t="str">
         <f>IFERROR(R_convert!$B8,"")</f>
         <v xml:space="preserve"> k8*Q*D</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="8" t="str">
         <f>TRIM(IF(R_input!$A9="","",R_input!$A9))</f>
         <v>R9</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="7" t="str">
         <f>IFERROR(R_convert!$B9,"")</f>
         <v xml:space="preserve"> k9*QHD</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="str">
+      <c r="A10" s="8" t="str">
         <f>TRIM(IF(R_input!$A10="","",R_input!$A10))</f>
         <v>R10</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="7" t="str">
         <f>IFERROR(R_convert!$B10,"")</f>
         <v xml:space="preserve"> k10*D*D</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="str">
+      <c r="A11" s="8" t="str">
         <f>TRIM(IF(R_input!$A11="","",R_input!$A11))</f>
         <v>R11</v>
       </c>
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="7" t="str">
         <f>IFERROR(R_convert!$B11,"")</f>
         <v xml:space="preserve"> k11*Q</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="str">
+      <c r="A12" s="8" t="str">
         <f>TRIM(IF(R_input!$A12="","",R_input!$A12))</f>
         <v/>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="7" t="str">
         <f>IFERROR(R_convert!$B12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="str">
+      <c r="A13" s="8" t="str">
         <f>TRIM(IF(R_input!$A13="","",R_input!$A13))</f>
         <v/>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="7" t="str">
         <f>IFERROR(R_convert!$B13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="str">
+      <c r="A14" s="8" t="str">
         <f>TRIM(IF(R_input!$A14="","",R_input!$A14))</f>
         <v/>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="7" t="str">
         <f>IFERROR(R_convert!$B14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="str">
+      <c r="A15" s="8" t="str">
         <f>TRIM(IF(R_input!$A15="","",R_input!$A15))</f>
         <v/>
       </c>
-      <c r="B15" s="8" t="str">
+      <c r="B15" s="7" t="str">
         <f>IFERROR(R_convert!$B15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="str">
+      <c r="A16" s="8" t="str">
         <f>TRIM(IF(R_input!$A16="","",R_input!$A16))</f>
         <v/>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="7" t="str">
         <f>IFERROR(R_convert!$B16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="str">
+      <c r="A17" s="8" t="str">
         <f>TRIM(IF(R_input!$A17="","",R_input!$A17))</f>
         <v/>
       </c>
-      <c r="B17" s="8" t="str">
+      <c r="B17" s="7" t="str">
         <f>IFERROR(R_convert!$B17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="str">
+      <c r="A18" s="8" t="str">
         <f>TRIM(IF(R_input!$A18="","",R_input!$A18))</f>
         <v/>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="7" t="str">
         <f>IFERROR(R_convert!$B18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="str">
+      <c r="A19" s="8" t="str">
         <f>TRIM(IF(R_input!$A19="","",R_input!$A19))</f>
         <v/>
       </c>
-      <c r="B19" s="8" t="str">
+      <c r="B19" s="7" t="str">
         <f>IFERROR(R_convert!$B19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="str">
+      <c r="A20" s="8" t="str">
         <f>TRIM(IF(R_input!$A20="","",R_input!$A20))</f>
         <v/>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B20" s="7" t="str">
         <f>IFERROR(R_convert!$B20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="str">
+      <c r="A21" s="8" t="str">
         <f>TRIM(IF(R_input!$A21="","",R_input!$A21))</f>
         <v/>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B21" s="7" t="str">
         <f>IFERROR(R_convert!$B21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="str">
+      <c r="A22" s="8" t="str">
         <f>TRIM(IF(R_input!$A22="","",R_input!$A22))</f>
         <v/>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B22" s="7" t="str">
         <f>IFERROR(R_convert!$B22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="str">
+      <c r="A23" s="8" t="str">
         <f>TRIM(IF(R_input!$A23="","",R_input!$A23))</f>
         <v/>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B23" s="7" t="str">
         <f>IFERROR(R_convert!$B23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="str">
+      <c r="A24" s="8" t="str">
         <f>TRIM(IF(R_input!$A24="","",R_input!$A24))</f>
         <v/>
       </c>
-      <c r="B24" s="8" t="str">
+      <c r="B24" s="7" t="str">
         <f>IFERROR(R_convert!$B24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="str">
+      <c r="A25" s="8" t="str">
         <f>TRIM(IF(R_input!$A25="","",R_input!$A25))</f>
         <v/>
       </c>
-      <c r="B25" s="8" t="str">
+      <c r="B25" s="7" t="str">
         <f>IFERROR(R_convert!$B25,"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="str">
+      <c r="A26" s="8" t="str">
         <f>TRIM(IF(R_input!$A26="","",R_input!$A26))</f>
         <v/>
       </c>
-      <c r="B26" s="8" t="str">
+      <c r="B26" s="7" t="str">
         <f>IFERROR(R_convert!$B26,"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="str">
+      <c r="A27" s="8" t="str">
         <f>TRIM(IF(R_input!$A27="","",R_input!$A27))</f>
         <v/>
       </c>
-      <c r="B27" s="8" t="str">
+      <c r="B27" s="7" t="str">
         <f>IFERROR(R_convert!$B27,"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="str">
+      <c r="A28" s="8" t="str">
         <f>TRIM(IF(R_input!$A28="","",R_input!$A28))</f>
         <v/>
       </c>
-      <c r="B28" s="8" t="str">
+      <c r="B28" s="7" t="str">
         <f>IFERROR(R_convert!$B28,"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="str">
+      <c r="A29" s="8" t="str">
         <f>TRIM(IF(R_input!$A29="","",R_input!$A29))</f>
         <v/>
       </c>
-      <c r="B29" s="8" t="str">
+      <c r="B29" s="7" t="str">
         <f>IFERROR(R_convert!$B29,"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="str">
+      <c r="A30" s="8" t="str">
         <f>TRIM(IF(R_input!$A30="","",R_input!$A30))</f>
         <v/>
       </c>
-      <c r="B30" s="8" t="str">
+      <c r="B30" s="7" t="str">
         <f>IFERROR(R_convert!$B30,"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="str">
+      <c r="A31" s="8" t="str">
         <f>TRIM(IF(R_input!$A31="","",R_input!$A31))</f>
         <v/>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B31" s="7" t="str">
         <f>IFERROR(R_convert!$B31,"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="str">
+      <c r="A32" s="8" t="str">
         <f>TRIM(IF(R_input!$A32="","",R_input!$A32))</f>
         <v/>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B32" s="7" t="str">
         <f>IFERROR(R_convert!$B32,"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="str">
+      <c r="A33" s="8" t="str">
         <f>TRIM(IF(R_input!$A33="","",R_input!$A33))</f>
         <v/>
       </c>
-      <c r="B33" s="8" t="str">
+      <c r="B33" s="7" t="str">
         <f>IFERROR(R_convert!$B33,"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="str">
+      <c r="A34" s="8" t="str">
         <f>TRIM(IF(R_input!$A34="","",R_input!$A34))</f>
         <v/>
       </c>
-      <c r="B34" s="8" t="str">
+      <c r="B34" s="7" t="str">
         <f>IFERROR(R_convert!$B34,"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="str">
+      <c r="A35" s="8" t="str">
         <f>TRIM(IF(R_input!$A35="","",R_input!$A35))</f>
         <v/>
       </c>
-      <c r="B35" s="8" t="str">
+      <c r="B35" s="7" t="str">
         <f>IFERROR(R_convert!$B35,"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="str">
+      <c r="A36" s="8" t="str">
         <f>TRIM(IF(R_input!$A36="","",R_input!$A36))</f>
         <v/>
       </c>
-      <c r="B36" s="8" t="str">
+      <c r="B36" s="7" t="str">
         <f>IFERROR(R_convert!$B36,"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="str">
+      <c r="A37" s="8" t="str">
         <f>TRIM(IF(R_input!$A37="","",R_input!$A37))</f>
         <v/>
       </c>
-      <c r="B37" s="8" t="str">
+      <c r="B37" s="7" t="str">
         <f>IFERROR(R_convert!$B37,"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="str">
+      <c r="A38" s="8" t="str">
         <f>TRIM(IF(R_input!$A38="","",R_input!$A38))</f>
         <v/>
       </c>
-      <c r="B38" s="8" t="str">
+      <c r="B38" s="7" t="str">
         <f>IFERROR(R_convert!$B38,"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="str">
+      <c r="A39" s="8" t="str">
         <f>TRIM(IF(R_input!$A39="","",R_input!$A39))</f>
         <v/>
       </c>
-      <c r="B39" s="8" t="str">
+      <c r="B39" s="7" t="str">
         <f>IFERROR(R_convert!$B39,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="str">
+      <c r="A40" s="8" t="str">
         <f>TRIM(IF(R_input!$A40="","",R_input!$A40))</f>
         <v/>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B40" s="7" t="str">
         <f>IFERROR(R_convert!$B40,"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="str">
+      <c r="A41" s="8" t="str">
         <f>TRIM(IF(R_input!$A41="","",R_input!$A41))</f>
         <v/>
       </c>
-      <c r="B41" s="8" t="str">
+      <c r="B41" s="7" t="str">
         <f>IFERROR(R_convert!$B41,"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="str">
+      <c r="A42" s="8" t="str">
         <f>TRIM(IF(R_input!$A42="","",R_input!$A42))</f>
         <v/>
       </c>
-      <c r="B42" s="8" t="str">
+      <c r="B42" s="7" t="str">
         <f>IFERROR(R_convert!$B42,"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="str">
+      <c r="A43" s="8" t="str">
         <f>TRIM(IF(R_input!$A43="","",R_input!$A43))</f>
         <v/>
       </c>
-      <c r="B43" s="8" t="str">
+      <c r="B43" s="7" t="str">
         <f>IFERROR(R_convert!$B43,"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="str">
+      <c r="A44" s="8" t="str">
         <f>TRIM(IF(R_input!$A44="","",R_input!$A44))</f>
         <v/>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B44" s="7" t="str">
         <f>IFERROR(R_convert!$B44,"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="str">
+      <c r="A45" s="8" t="str">
         <f>TRIM(IF(R_input!$A45="","",R_input!$A45))</f>
         <v/>
       </c>
-      <c r="B45" s="8" t="str">
+      <c r="B45" s="7" t="str">
         <f>IFERROR(R_convert!$B45,"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="str">
+      <c r="A46" s="8" t="str">
         <f>TRIM(IF(R_input!$A46="","",R_input!$A46))</f>
         <v/>
       </c>
-      <c r="B46" s="8" t="str">
+      <c r="B46" s="7" t="str">
         <f>IFERROR(R_convert!$B46,"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="str">
+      <c r="A47" s="8" t="str">
         <f>TRIM(IF(R_input!$A47="","",R_input!$A47))</f>
         <v/>
       </c>
-      <c r="B47" s="8" t="str">
+      <c r="B47" s="7" t="str">
         <f>IFERROR(R_convert!$B47,"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="str">
+      <c r="A48" s="8" t="str">
         <f>TRIM(IF(R_input!$A48="","",R_input!$A48))</f>
         <v/>
       </c>
-      <c r="B48" s="8" t="str">
+      <c r="B48" s="7" t="str">
         <f>IFERROR(R_convert!$B48,"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="str">
+      <c r="A49" s="8" t="str">
         <f>TRIM(IF(R_input!$A49="","",R_input!$A49))</f>
         <v/>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B49" s="7" t="str">
         <f>IFERROR(R_convert!$B49,"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="str">
+      <c r="A50" s="8" t="str">
         <f>TRIM(IF(R_input!$A50="","",R_input!$A50))</f>
         <v/>
       </c>
-      <c r="B50" s="8" t="str">
+      <c r="B50" s="7" t="str">
         <f>IFERROR(R_convert!$B50,"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="str">
+      <c r="A51" s="8" t="str">
         <f>TRIM(IF(R_input!$A51="","",R_input!$A51))</f>
         <v/>
       </c>
-      <c r="B51" s="8" t="str">
+      <c r="B51" s="7" t="str">
         <f>IFERROR(R_convert!$B51,"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="str">
+      <c r="A52" s="8" t="str">
         <f>TRIM(IF(R_input!$A52="","",R_input!$A52))</f>
         <v/>
       </c>
-      <c r="B52" s="8" t="str">
+      <c r="B52" s="7" t="str">
         <f>IFERROR(R_convert!$B52,"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="str">
+      <c r="A53" s="8" t="str">
         <f>TRIM(IF(R_input!$A53="","",R_input!$A53))</f>
         <v/>
       </c>
-      <c r="B53" s="8" t="str">
+      <c r="B53" s="7" t="str">
         <f>IFERROR(R_convert!$B53,"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="str">
+      <c r="A54" s="8" t="str">
         <f>TRIM(IF(R_input!$A54="","",R_input!$A54))</f>
         <v/>
       </c>
-      <c r="B54" s="8" t="str">
+      <c r="B54" s="7" t="str">
         <f>IFERROR(R_convert!$B54,"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="str">
+      <c r="A55" s="8" t="str">
         <f>TRIM(IF(R_input!$A55="","",R_input!$A55))</f>
         <v/>
       </c>
-      <c r="B55" s="8" t="str">
+      <c r="B55" s="7" t="str">
         <f>IFERROR(R_convert!$B55,"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="str">
+      <c r="A56" s="8" t="str">
         <f>TRIM(IF(R_input!$A56="","",R_input!$A56))</f>
         <v/>
       </c>
-      <c r="B56" s="8" t="str">
+      <c r="B56" s="7" t="str">
         <f>IFERROR(R_convert!$B56,"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="str">
+      <c r="A57" s="8" t="str">
         <f>TRIM(IF(R_input!$A57="","",R_input!$A57))</f>
         <v/>
       </c>
-      <c r="B57" s="8" t="str">
+      <c r="B57" s="7" t="str">
         <f>IFERROR(R_convert!$B57,"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="str">
+      <c r="A58" s="8" t="str">
         <f>TRIM(IF(R_input!$A58="","",R_input!$A58))</f>
         <v/>
       </c>
-      <c r="B58" s="8" t="str">
+      <c r="B58" s="7" t="str">
         <f>IFERROR(R_convert!$B58,"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="str">
+      <c r="A59" s="8" t="str">
         <f>TRIM(IF(R_input!$A59="","",R_input!$A59))</f>
         <v/>
       </c>
-      <c r="B59" s="8" t="str">
+      <c r="B59" s="7" t="str">
         <f>IFERROR(R_convert!$B59,"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="str">
+      <c r="A60" s="8" t="str">
         <f>TRIM(IF(R_input!$A60="","",R_input!$A60))</f>
         <v/>
       </c>
-      <c r="B60" s="8" t="str">
+      <c r="B60" s="7" t="str">
         <f>IFERROR(R_convert!$B60,"")</f>
         <v/>
       </c>
@@ -2074,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5012839-9705-49AC-A3CF-9134995D8542}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2085,764 +1654,924 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="6" t="str">
         <f>IFERROR(M_convert!$B1,"")</f>
         <v>Q</v>
       </c>
-      <c r="B1" s="8" t="str">
+      <c r="B1" s="7" t="str">
         <f>IFERROR(M_convert!$D1,"")</f>
         <v>-Qt + -R1 + R4 - R5 - R6 + R7 - R8 - R11</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6">
+      <c r="C1" s="4" t="str">
+        <f>IF(I!B1="",IF(I!A1="","",0),I!A1)</f>
+        <v>Q_init</v>
+      </c>
+      <c r="D1" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="str">
+      <c r="A2" s="6" t="str">
         <f>IFERROR(M_convert!$B2,"")</f>
         <v>DH</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="7" t="str">
         <f>IFERROR(M_convert!$D2,"")</f>
         <v>-DHt + -R1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="4" t="str">
+        <f>IF(I!B2="",IF(I!A2="","",0),I!A2)</f>
+        <v>DH_init</v>
+      </c>
+      <c r="D2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="str">
+      <c r="A3" s="6" t="str">
         <f>IFERROR(M_convert!$B3,"")</f>
         <v>Q_m</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="7" t="str">
         <f>IFERROR(M_convert!$D3,"")</f>
         <v>-Q_mt + R1 - R2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
+        <f>IF(I!B3="",IF(I!A3="","",0),I!A3)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="str">
+      <c r="A4" s="6" t="str">
         <f>IFERROR(M_convert!$B4,"")</f>
         <v>DH_p</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="7" t="str">
         <f>IFERROR(M_convert!$D4,"")</f>
         <v>-DH_pt + R1 - R2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
+        <f>IF(I!B4="",IF(I!A4="","",0),I!A4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="str">
+      <c r="A5" s="6" t="str">
         <f>IFERROR(M_convert!$B5,"")</f>
         <v>QH</v>
       </c>
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="7" t="str">
         <f>IFERROR(M_convert!$D5,"")</f>
         <v>-QHt + R2 - R3 - 2*R4 + 2*R5 + R6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
+        <f>IF(I!B5="",IF(I!A5="","",0),I!A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>IFERROR(M_convert!$B6,"")</f>
         <v>D</v>
       </c>
-      <c r="B6" s="8" t="str">
+      <c r="B6" s="7" t="str">
         <f>IFERROR(M_convert!$D6,"")</f>
         <v>-Dt + R2 - R3 + R7 - R8 - 2*R10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
+        <f>IF(I!B6="",IF(I!A6="","",0),I!A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="6" t="str">
         <f>IFERROR(M_convert!$B7,"")</f>
         <v>QHD</v>
       </c>
-      <c r="B7" s="8" t="str">
+      <c r="B7" s="7" t="str">
         <f>IFERROR(M_convert!$D7,"")</f>
         <v>-QHDt + R3 - R6 - R9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
+        <f>IF(I!B7="",IF(I!A7="","",0),I!A7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <f>IFERROR(M_convert!$B8,"")</f>
         <v>QHH</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="7" t="str">
         <f>IFERROR(M_convert!$D8,"")</f>
         <v>-QHHt + R4 - R5 + R9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="4">
+        <f>IF(I!B8="",IF(I!A8="","",0),I!A8)</f>
         <v>0</v>
       </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="6" t="str">
         <f>IFERROR(M_convert!$B9,"")</f>
         <v>QD</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="7" t="str">
         <f>IFERROR(M_convert!$D9,"")</f>
         <v>-QDt + R6 - R7 + R8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
+        <f>IF(I!B9="",IF(I!A9="","",0),I!A9)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <f>IFERROR(M_convert!$B10,"")</f>
         <v>prod</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="7" t="str">
         <f>IFERROR(M_convert!$D10,"")</f>
         <v>-prodt + R9 + R10 + R11</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
+        <f>IF(I!B10="",IF(I!A10="","",0),I!A10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="6" t="str">
         <f>IFERROR(M_convert!$B11,"")</f>
         <v/>
       </c>
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="7" t="str">
         <f>IFERROR(M_convert!$D11,"")</f>
         <v/>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="4" t="str">
+        <f>IF(I!B11="",IF(I!A11="","",0),I!A11)</f>
+        <v/>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IFERROR(M_convert!$B12,"")</f>
         <v/>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="7" t="str">
         <f>IFERROR(M_convert!$D12,"")</f>
         <v/>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="4" t="str">
+        <f>IF(I!B12="",IF(I!A12="","",0),I!A12)</f>
+        <v/>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IFERROR(M_convert!$B13,"")</f>
         <v/>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="7" t="str">
         <f>IFERROR(M_convert!$D13,"")</f>
         <v/>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="4" t="str">
+        <f>IF(I!B13="",IF(I!A13="","",0),I!A13)</f>
+        <v/>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IFERROR(M_convert!$B14,"")</f>
         <v/>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="7" t="str">
         <f>IFERROR(M_convert!$D14,"")</f>
         <v/>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="4" t="str">
+        <f>IF(I!B14="",IF(I!A14="","",0),I!A14)</f>
+        <v/>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IFERROR(M_convert!$B15,"")</f>
         <v/>
       </c>
-      <c r="B15" s="8" t="str">
+      <c r="B15" s="7" t="str">
         <f>IFERROR(M_convert!$D15,"")</f>
         <v/>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="4" t="str">
+        <f>IF(I!B15="",IF(I!A15="","",0),I!A15)</f>
+        <v/>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IFERROR(M_convert!$B16,"")</f>
         <v/>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="7" t="str">
         <f>IFERROR(M_convert!$D16,"")</f>
         <v/>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="4" t="str">
+        <f>IF(I!B16="",IF(I!A16="","",0),I!A16)</f>
+        <v/>
+      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IFERROR(M_convert!$B17,"")</f>
         <v/>
       </c>
-      <c r="B17" s="8" t="str">
+      <c r="B17" s="7" t="str">
         <f>IFERROR(M_convert!$D17,"")</f>
         <v/>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="4" t="str">
+        <f>IF(I!B17="",IF(I!A17="","",0),I!A17)</f>
+        <v/>
+      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IFERROR(M_convert!$B18,"")</f>
         <v/>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="7" t="str">
         <f>IFERROR(M_convert!$D18,"")</f>
         <v/>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="4" t="str">
+        <f>IF(I!B18="",IF(I!A18="","",0),I!A18)</f>
+        <v/>
+      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IFERROR(M_convert!$B19,"")</f>
         <v/>
       </c>
-      <c r="B19" s="8" t="str">
+      <c r="B19" s="7" t="str">
         <f>IFERROR(M_convert!$D19,"")</f>
         <v/>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="4" t="str">
+        <f>IF(I!B19="",IF(I!A19="","",0),I!A19)</f>
+        <v/>
+      </c>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IFERROR(M_convert!$B20,"")</f>
         <v/>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B20" s="7" t="str">
         <f>IFERROR(M_convert!$D20,"")</f>
         <v/>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="4" t="str">
+        <f>IF(I!B20="",IF(I!A20="","",0),I!A20)</f>
+        <v/>
+      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IFERROR(M_convert!$B21,"")</f>
         <v/>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B21" s="7" t="str">
         <f>IFERROR(M_convert!$D21,"")</f>
         <v/>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="4" t="str">
+        <f>IF(I!B21="",IF(I!A21="","",0),I!A21)</f>
+        <v/>
+      </c>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IFERROR(M_convert!$B22,"")</f>
         <v/>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B22" s="7" t="str">
         <f>IFERROR(M_convert!$D22,"")</f>
         <v/>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="4" t="str">
+        <f>IF(I!B22="",IF(I!A22="","",0),I!A22)</f>
+        <v/>
+      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IFERROR(M_convert!$B23,"")</f>
         <v/>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B23" s="7" t="str">
         <f>IFERROR(M_convert!$D23,"")</f>
         <v/>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="4" t="str">
+        <f>IF(I!B23="",IF(I!A23="","",0),I!A23)</f>
+        <v/>
+      </c>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IFERROR(M_convert!$B24,"")</f>
         <v/>
       </c>
-      <c r="B24" s="8" t="str">
+      <c r="B24" s="7" t="str">
         <f>IFERROR(M_convert!$D24,"")</f>
         <v/>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="4" t="str">
+        <f>IF(I!B24="",IF(I!A24="","",0),I!A24)</f>
+        <v/>
+      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IFERROR(M_convert!$B25,"")</f>
         <v/>
       </c>
-      <c r="B25" s="8" t="str">
+      <c r="B25" s="7" t="str">
         <f>IFERROR(M_convert!$D25,"")</f>
         <v/>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="4" t="str">
+        <f>IF(I!B25="",IF(I!A25="","",0),I!A25)</f>
+        <v/>
+      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="str">
+      <c r="A26" s="6" t="str">
         <f>IFERROR(M_convert!$B26,"")</f>
         <v/>
       </c>
-      <c r="B26" s="8" t="str">
+      <c r="B26" s="7" t="str">
         <f>IFERROR(M_convert!$D26,"")</f>
         <v/>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="4" t="str">
+        <f>IF(I!B26="",IF(I!A26="","",0),I!A26)</f>
+        <v/>
+      </c>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="str">
+      <c r="A27" s="6" t="str">
         <f>IFERROR(M_convert!$B27,"")</f>
         <v/>
       </c>
-      <c r="B27" s="8" t="str">
+      <c r="B27" s="7" t="str">
         <f>IFERROR(M_convert!$D27,"")</f>
         <v/>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="4" t="str">
+        <f>IF(I!B27="",IF(I!A27="","",0),I!A27)</f>
+        <v/>
+      </c>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="str">
+      <c r="A28" s="6" t="str">
         <f>IFERROR(M_convert!$B28,"")</f>
         <v/>
       </c>
-      <c r="B28" s="8" t="str">
+      <c r="B28" s="7" t="str">
         <f>IFERROR(M_convert!$D28,"")</f>
         <v/>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="4" t="str">
+        <f>IF(I!B28="",IF(I!A28="","",0),I!A28)</f>
+        <v/>
+      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="str">
+      <c r="A29" s="6" t="str">
         <f>IFERROR(M_convert!$B29,"")</f>
         <v/>
       </c>
-      <c r="B29" s="8" t="str">
+      <c r="B29" s="7" t="str">
         <f>IFERROR(M_convert!$D29,"")</f>
         <v/>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="4" t="str">
+        <f>IF(I!B29="",IF(I!A29="","",0),I!A29)</f>
+        <v/>
+      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="str">
+      <c r="A30" s="6" t="str">
         <f>IFERROR(M_convert!$B30,"")</f>
         <v/>
       </c>
-      <c r="B30" s="8" t="str">
+      <c r="B30" s="7" t="str">
         <f>IFERROR(M_convert!$D30,"")</f>
         <v/>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="4" t="str">
+        <f>IF(I!B30="",IF(I!A30="","",0),I!A30)</f>
+        <v/>
+      </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="str">
+      <c r="A31" s="6" t="str">
         <f>IFERROR(M_convert!$B31,"")</f>
         <v/>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B31" s="7" t="str">
         <f>IFERROR(M_convert!$D31,"")</f>
         <v/>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="4" t="str">
+        <f>IF(I!B31="",IF(I!A31="","",0),I!A31)</f>
+        <v/>
+      </c>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="str">
+      <c r="A32" s="6" t="str">
         <f>IFERROR(M_convert!$B32,"")</f>
         <v/>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B32" s="7" t="str">
         <f>IFERROR(M_convert!$D32,"")</f>
         <v/>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="4" t="str">
+        <f>IF(I!B32="",IF(I!A32="","",0),I!A32)</f>
+        <v/>
+      </c>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="str">
+      <c r="A33" s="6" t="str">
         <f>IFERROR(M_convert!$B33,"")</f>
         <v/>
       </c>
-      <c r="B33" s="8" t="str">
+      <c r="B33" s="7" t="str">
         <f>IFERROR(M_convert!$D33,"")</f>
         <v/>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="4" t="str">
+        <f>IF(I!B33="",IF(I!A33="","",0),I!A33)</f>
+        <v/>
+      </c>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="str">
+      <c r="A34" s="6" t="str">
         <f>IFERROR(M_convert!$B34,"")</f>
         <v/>
       </c>
-      <c r="B34" s="8" t="str">
+      <c r="B34" s="7" t="str">
         <f>IFERROR(M_convert!$D34,"")</f>
         <v/>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="4" t="str">
+        <f>IF(I!B34="",IF(I!A34="","",0),I!A34)</f>
+        <v/>
+      </c>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="str">
+      <c r="A35" s="6" t="str">
         <f>IFERROR(M_convert!$B35,"")</f>
         <v/>
       </c>
-      <c r="B35" s="8" t="str">
+      <c r="B35" s="7" t="str">
         <f>IFERROR(M_convert!$D35,"")</f>
         <v/>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="4" t="str">
+        <f>IF(I!B35="",IF(I!A35="","",0),I!A35)</f>
+        <v/>
+      </c>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="str">
+      <c r="A36" s="6" t="str">
         <f>IFERROR(M_convert!$B36,"")</f>
         <v/>
       </c>
-      <c r="B36" s="8" t="str">
+      <c r="B36" s="7" t="str">
         <f>IFERROR(M_convert!$D36,"")</f>
         <v/>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="4" t="str">
+        <f>IF(I!B36="",IF(I!A36="","",0),I!A36)</f>
+        <v/>
+      </c>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="str">
+      <c r="A37" s="6" t="str">
         <f>IFERROR(M_convert!$B37,"")</f>
         <v/>
       </c>
-      <c r="B37" s="8" t="str">
+      <c r="B37" s="7" t="str">
         <f>IFERROR(M_convert!$D37,"")</f>
         <v/>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="4" t="str">
+        <f>IF(I!B37="",IF(I!A37="","",0),I!A37)</f>
+        <v/>
+      </c>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="str">
+      <c r="A38" s="6" t="str">
         <f>IFERROR(M_convert!$B38,"")</f>
         <v/>
       </c>
-      <c r="B38" s="8" t="str">
+      <c r="B38" s="7" t="str">
         <f>IFERROR(M_convert!$D38,"")</f>
         <v/>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="4" t="str">
+        <f>IF(I!B38="",IF(I!A38="","",0),I!A38)</f>
+        <v/>
+      </c>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="str">
+      <c r="A39" s="6" t="str">
         <f>IFERROR(M_convert!$B39,"")</f>
         <v/>
       </c>
-      <c r="B39" s="8" t="str">
+      <c r="B39" s="7" t="str">
         <f>IFERROR(M_convert!$D39,"")</f>
         <v/>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="4" t="str">
+        <f>IF(I!B39="",IF(I!A39="","",0),I!A39)</f>
+        <v/>
+      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="str">
+      <c r="A40" s="6" t="str">
         <f>IFERROR(M_convert!$B40,"")</f>
         <v/>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B40" s="7" t="str">
         <f>IFERROR(M_convert!$D40,"")</f>
         <v/>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="4" t="str">
+        <f>IF(I!B40="",IF(I!A40="","",0),I!A40)</f>
+        <v/>
+      </c>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="str">
+      <c r="A41" s="6" t="str">
         <f>IFERROR(M_convert!$B41,"")</f>
         <v/>
       </c>
-      <c r="B41" s="8" t="str">
+      <c r="B41" s="7" t="str">
         <f>IFERROR(M_convert!$D41,"")</f>
         <v/>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="4" t="str">
+        <f>IF(I!B41="",IF(I!A41="","",0),I!A41)</f>
+        <v/>
+      </c>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="str">
+      <c r="A42" s="6" t="str">
         <f>IFERROR(M_convert!$B42,"")</f>
         <v/>
       </c>
-      <c r="B42" s="8" t="str">
+      <c r="B42" s="7" t="str">
         <f>IFERROR(M_convert!$D42,"")</f>
         <v/>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="4" t="str">
+        <f>IF(I!B42="",IF(I!A42="","",0),I!A42)</f>
+        <v/>
+      </c>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="str">
+      <c r="A43" s="6" t="str">
         <f>IFERROR(M_convert!$B43,"")</f>
         <v/>
       </c>
-      <c r="B43" s="8" t="str">
+      <c r="B43" s="7" t="str">
         <f>IFERROR(M_convert!$D43,"")</f>
         <v/>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="4" t="str">
+        <f>IF(I!B43="",IF(I!A43="","",0),I!A43)</f>
+        <v/>
+      </c>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="str">
+      <c r="A44" s="6" t="str">
         <f>IFERROR(M_convert!$B44,"")</f>
         <v/>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B44" s="7" t="str">
         <f>IFERROR(M_convert!$D44,"")</f>
         <v/>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="4" t="str">
+        <f>IF(I!B44="",IF(I!A44="","",0),I!A44)</f>
+        <v/>
+      </c>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="str">
+      <c r="A45" s="6" t="str">
         <f>IFERROR(M_convert!$B45,"")</f>
         <v/>
       </c>
-      <c r="B45" s="8" t="str">
+      <c r="B45" s="7" t="str">
         <f>IFERROR(M_convert!$D45,"")</f>
         <v/>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="C45" s="4" t="str">
+        <f>IF(I!B45="",IF(I!A45="","",0),I!A45)</f>
+        <v/>
+      </c>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="str">
+      <c r="A46" s="6" t="str">
         <f>IFERROR(M_convert!$B46,"")</f>
         <v/>
       </c>
-      <c r="B46" s="8" t="str">
+      <c r="B46" s="7" t="str">
         <f>IFERROR(M_convert!$D46,"")</f>
         <v/>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="C46" s="4" t="str">
+        <f>IF(I!B46="",IF(I!A46="","",0),I!A46)</f>
+        <v/>
+      </c>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="str">
+      <c r="A47" s="6" t="str">
         <f>IFERROR(M_convert!$B47,"")</f>
         <v/>
       </c>
-      <c r="B47" s="8" t="str">
+      <c r="B47" s="7" t="str">
         <f>IFERROR(M_convert!$D47,"")</f>
         <v/>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="C47" s="4" t="str">
+        <f>IF(I!B47="",IF(I!A47="","",0),I!A47)</f>
+        <v/>
+      </c>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="str">
+      <c r="A48" s="6" t="str">
         <f>IFERROR(M_convert!$B48,"")</f>
         <v/>
       </c>
-      <c r="B48" s="8" t="str">
+      <c r="B48" s="7" t="str">
         <f>IFERROR(M_convert!$D48,"")</f>
         <v/>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="C48" s="4" t="str">
+        <f>IF(I!B48="",IF(I!A48="","",0),I!A48)</f>
+        <v/>
+      </c>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="str">
+      <c r="A49" s="6" t="str">
         <f>IFERROR(M_convert!$B49,"")</f>
         <v/>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B49" s="7" t="str">
         <f>IFERROR(M_convert!$D49,"")</f>
         <v/>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="4" t="str">
+        <f>IF(I!B49="",IF(I!A49="","",0),I!A49)</f>
+        <v/>
+      </c>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="str">
+      <c r="A50" s="6" t="str">
         <f>IFERROR(M_convert!$B50,"")</f>
         <v/>
       </c>
-      <c r="B50" s="8" t="str">
+      <c r="B50" s="7" t="str">
         <f>IFERROR(M_convert!$D50,"")</f>
         <v/>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="C50" s="4" t="str">
+        <f>IF(I!B50="",IF(I!A50="","",0),I!A50)</f>
+        <v/>
+      </c>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="str">
+      <c r="A51" s="6" t="str">
         <f>IFERROR(M_convert!$B51,"")</f>
         <v/>
       </c>
-      <c r="B51" s="8" t="str">
+      <c r="B51" s="7" t="str">
         <f>IFERROR(M_convert!$D51,"")</f>
         <v/>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="C51" s="4" t="str">
+        <f>IF(I!B51="",IF(I!A51="","",0),I!A51)</f>
+        <v/>
+      </c>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="str">
+      <c r="A52" s="6" t="str">
         <f>IFERROR(M_convert!$B52,"")</f>
         <v/>
       </c>
-      <c r="B52" s="8" t="str">
+      <c r="B52" s="7" t="str">
         <f>IFERROR(M_convert!$D52,"")</f>
         <v/>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="C52" s="4" t="str">
+        <f>IF(I!B52="",IF(I!A52="","",0),I!A52)</f>
+        <v/>
+      </c>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="str">
+      <c r="A53" s="6" t="str">
         <f>IFERROR(M_convert!$B53,"")</f>
         <v/>
       </c>
-      <c r="B53" s="8" t="str">
+      <c r="B53" s="7" t="str">
         <f>IFERROR(M_convert!$D53,"")</f>
         <v/>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="4" t="str">
+        <f>IF(I!B53="",IF(I!A53="","",0),I!A53)</f>
+        <v/>
+      </c>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="str">
+      <c r="A54" s="6" t="str">
         <f>IFERROR(M_convert!$B54,"")</f>
         <v/>
       </c>
-      <c r="B54" s="8" t="str">
+      <c r="B54" s="7" t="str">
         <f>IFERROR(M_convert!$D54,"")</f>
         <v/>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="4" t="str">
+        <f>IF(I!B54="",IF(I!A54="","",0),I!A54)</f>
+        <v/>
+      </c>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="str">
+      <c r="A55" s="6" t="str">
         <f>IFERROR(M_convert!$B55,"")</f>
         <v/>
       </c>
-      <c r="B55" s="8" t="str">
+      <c r="B55" s="7" t="str">
         <f>IFERROR(M_convert!$D55,"")</f>
         <v/>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="4" t="str">
+        <f>IF(I!B55="",IF(I!A55="","",0),I!A55)</f>
+        <v/>
+      </c>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="str">
+      <c r="A56" s="6" t="str">
         <f>IFERROR(M_convert!$B56,"")</f>
         <v/>
       </c>
-      <c r="B56" s="8" t="str">
+      <c r="B56" s="7" t="str">
         <f>IFERROR(M_convert!$D56,"")</f>
         <v/>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="C56" s="4" t="str">
+        <f>IF(I!B56="",IF(I!A56="","",0),I!A56)</f>
+        <v/>
+      </c>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="str">
+      <c r="A57" s="6" t="str">
         <f>IFERROR(M_convert!$B57,"")</f>
         <v/>
       </c>
-      <c r="B57" s="8" t="str">
+      <c r="B57" s="7" t="str">
         <f>IFERROR(M_convert!$D57,"")</f>
         <v/>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="C57" s="4" t="str">
+        <f>IF(I!B57="",IF(I!A57="","",0),I!A57)</f>
+        <v/>
+      </c>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="str">
+      <c r="A58" s="6" t="str">
         <f>IFERROR(M_convert!$B58,"")</f>
         <v/>
       </c>
-      <c r="B58" s="8" t="str">
+      <c r="B58" s="7" t="str">
         <f>IFERROR(M_convert!$D58,"")</f>
         <v/>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="4" t="str">
+        <f>IF(I!B58="",IF(I!A58="","",0),I!A58)</f>
+        <v/>
+      </c>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="str">
+      <c r="A59" s="6" t="str">
         <f>IFERROR(M_convert!$B59,"")</f>
         <v/>
       </c>
-      <c r="B59" s="8" t="str">
+      <c r="B59" s="7" t="str">
         <f>IFERROR(M_convert!$D59,"")</f>
         <v/>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="C59" s="4" t="str">
+        <f>IF(I!B59="",IF(I!A59="","",0),I!A59)</f>
+        <v/>
+      </c>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="str">
+      <c r="A60" s="6" t="str">
         <f>IFERROR(M_convert!$B60,"")</f>
         <v/>
       </c>
-      <c r="B60" s="8" t="str">
+      <c r="B60" s="7" t="str">
         <f>IFERROR(M_convert!$D60,"")</f>
         <v/>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="4" t="str">
+        <f>IF(I!B60="",IF(I!A60="","",0),I!A60)</f>
+        <v/>
+      </c>
+      <c r="D60" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2854,613 +2583,614 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E076F6-D976-4C65-9E25-20E6AF24FFD6}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="15"/>
+    <col min="2" max="2" width="11.77734375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="str">
+      <c r="A1" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B1,FIND("*",R_input!$B1)-1),"")</f>
         <v xml:space="preserve"> k1</v>
       </c>
-      <c r="B1" s="4" t="str">
-        <f>IF('C'!$A1="","",'C'!$A1&amp;"init")</f>
-        <v xml:space="preserve"> k1init</v>
+      <c r="B1" s="16" t="str">
+        <f>IF(R_input!$C1=0,"",R_input!$C1)</f>
+        <v>1E+9*light</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B2,FIND("*",R_input!$B2)-1),"")</f>
         <v xml:space="preserve"> k2</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f>IF('C'!$A2="","",'C'!$A2&amp;"init")</f>
-        <v xml:space="preserve"> k2init</v>
+      <c r="B2" s="16">
+        <f>IF(R_input!$C2=0,"",R_input!$C2)</f>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B3,FIND("*",R_input!$B3)-1),"")</f>
         <v xml:space="preserve"> k3</v>
       </c>
-      <c r="B3" s="4" t="str">
-        <f>IF('C'!$A3="","",'C'!$A3&amp;"init")</f>
-        <v xml:space="preserve"> k3init</v>
+      <c r="B3" s="16">
+        <f>IF(R_input!$C3=0,"",R_input!$C3)</f>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B4,FIND("*",R_input!$B4)-1),"")</f>
         <v xml:space="preserve"> k4</v>
       </c>
-      <c r="B4" s="4" t="str">
-        <f>IF('C'!$A4="","",'C'!$A4&amp;"init")</f>
-        <v xml:space="preserve"> k4init</v>
+      <c r="B4" s="16">
+        <f>IF(R_input!$C4=0,"",R_input!$C4)</f>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B5,FIND("*",R_input!$B5)-1),"")</f>
         <v xml:space="preserve"> k5</v>
       </c>
-      <c r="B5" s="4" t="str">
-        <f>IF('C'!$A5="","",'C'!$A5&amp;"init")</f>
-        <v xml:space="preserve"> k5init</v>
+      <c r="B5" s="16" t="str">
+        <f>IF(R_input!$C5=0,"",R_input!$C5)</f>
+        <v>K2*k4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B6,FIND("*",R_input!$B6)-1),"")</f>
         <v xml:space="preserve"> k6</v>
       </c>
-      <c r="B6" s="4" t="str">
-        <f>IF('C'!$A6="","",'C'!$A6&amp;"init")</f>
-        <v xml:space="preserve"> k6init</v>
+      <c r="B6" s="16">
+        <f>IF(R_input!$C6=0,"",R_input!$C6)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B7,FIND("*",R_input!$B7)-1),"")</f>
         <v xml:space="preserve"> k7</v>
       </c>
-      <c r="B7" s="4" t="str">
-        <f>IF('C'!$A7="","",'C'!$A7&amp;"init")</f>
-        <v xml:space="preserve"> k7init</v>
+      <c r="B7" s="16" t="str">
+        <f>IF(R_input!$C7=0,"",R_input!$C7)</f>
+        <v>K4*k8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B8,FIND("*",R_input!$B8)-1),"")</f>
         <v xml:space="preserve"> k8</v>
       </c>
-      <c r="B8" s="4" t="str">
-        <f>IF('C'!$A8="","",'C'!$A8&amp;"init")</f>
-        <v xml:space="preserve"> k8init</v>
-      </c>
-      <c r="C8" s="10"/>
+      <c r="B8" s="16">
+        <f>IF(R_input!$C8=0,"",R_input!$C8)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B9,FIND("*",R_input!$B9)-1),"")</f>
         <v xml:space="preserve"> k9</v>
       </c>
-      <c r="B9" s="4" t="str">
-        <f>IF('C'!$A9="","",'C'!$A9&amp;"init")</f>
-        <v xml:space="preserve"> k9init</v>
+      <c r="B9" s="16">
+        <f>IF(R_input!$C9=0,"",R_input!$C9)</f>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B10,FIND("*",R_input!$B10)-1),"")</f>
         <v xml:space="preserve"> k10</v>
       </c>
-      <c r="B10" s="4" t="str">
-        <f>IF('C'!$A10="","",'C'!$A10&amp;"init")</f>
-        <v xml:space="preserve"> k10init</v>
+      <c r="B10" s="16">
+        <f>IF(R_input!$C10=0,"",R_input!$C10)</f>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B11,FIND("*",R_input!$B11)-1),"")</f>
         <v xml:space="preserve"> k11</v>
       </c>
-      <c r="B11" s="4" t="str">
-        <f>IF('C'!$A11="","",'C'!$A11&amp;"init")</f>
-        <v xml:space="preserve"> k11init</v>
+      <c r="B11" s="16">
+        <f>IF(R_input!$C11=0,"",R_input!$C11)</f>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B12,FIND("*",R_input!$B12)-1),"")</f>
         <v>K2</v>
       </c>
-      <c r="B12" s="4" t="str">
-        <f>IF('C'!$A12="","",'C'!$A12&amp;"init")</f>
-        <v>K2init</v>
+      <c r="B12" s="16">
+        <f>IF(R_input!$C12=0,"",R_input!$C12)</f>
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B13,FIND("*",R_input!$B13)-1),"")</f>
         <v>K4</v>
       </c>
-      <c r="B13" s="4" t="str">
-        <f>IF('C'!$A13="","",'C'!$A13&amp;"init")</f>
-        <v>K4init</v>
+      <c r="B13" s="16">
+        <f>IF(R_input!$C13=0,"",R_input!$C13)</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="str">
+      <c r="A14" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B14,FIND("*",R_input!$B14)-1),"")</f>
         <v>light</v>
       </c>
-      <c r="B14" s="4" t="str">
-        <f>IF('C'!$A14="","",'C'!$A14&amp;"init")</f>
-        <v>lightinit</v>
+      <c r="B14" s="16">
+        <f>IF(R_input!$C14=0,"",R_input!$C14)</f>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="str">
+      <c r="A15" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B15,FIND("*",R_input!$B15)-1),"")</f>
         <v/>
       </c>
-      <c r="B15" s="4" t="str">
-        <f>IF('C'!$A15="","",'C'!$A15&amp;"init")</f>
+      <c r="B15" s="16" t="str">
+        <f>IF(R_input!$C15=0,"",R_input!$C15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="str">
+      <c r="A16" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B16,FIND("*",R_input!$B16)-1),"")</f>
         <v/>
       </c>
-      <c r="B16" s="4" t="str">
-        <f>IF('C'!$A16="","",'C'!$A16&amp;"init")</f>
+      <c r="B16" s="16" t="str">
+        <f>IF(R_input!$C16=0,"",R_input!$C16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="str">
+      <c r="A17" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B17,FIND("*",R_input!$B17)-1),"")</f>
         <v/>
       </c>
-      <c r="B17" s="4" t="str">
-        <f>IF('C'!$A17="","",'C'!$A17&amp;"init")</f>
+      <c r="B17" s="16" t="str">
+        <f>IF(R_input!$C17=0,"",R_input!$C17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="str">
+      <c r="A18" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B18,FIND("*",R_input!$B18)-1),"")</f>
         <v/>
       </c>
-      <c r="B18" s="4" t="str">
-        <f>IF('C'!$A18="","",'C'!$A18&amp;"init")</f>
+      <c r="B18" s="16" t="str">
+        <f>IF(R_input!$C18=0,"",R_input!$C18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="str">
+      <c r="A19" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B19,FIND("*",R_input!$B19)-1),"")</f>
         <v/>
       </c>
-      <c r="B19" s="4" t="str">
-        <f>IF('C'!$A19="","",'C'!$A19&amp;"init")</f>
+      <c r="B19" s="16" t="str">
+        <f>IF(R_input!$C19=0,"",R_input!$C19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="str">
+      <c r="A20" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B20,FIND("*",R_input!$B20)-1),"")</f>
         <v/>
       </c>
-      <c r="B20" s="4" t="str">
-        <f>IF('C'!$A20="","",'C'!$A20&amp;"init")</f>
+      <c r="B20" s="16" t="str">
+        <f>IF(R_input!$C20=0,"",R_input!$C20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="str">
+      <c r="A21" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B21,FIND("*",R_input!$B21)-1),"")</f>
         <v/>
       </c>
-      <c r="B21" s="4" t="str">
-        <f>IF('C'!$A21="","",'C'!$A21&amp;"init")</f>
+      <c r="B21" s="16" t="str">
+        <f>IF(R_input!$C21=0,"",R_input!$C21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="str">
+      <c r="A22" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B22,FIND("*",R_input!$B22)-1),"")</f>
         <v/>
       </c>
-      <c r="B22" s="4" t="str">
-        <f>IF('C'!$A22="","",'C'!$A22&amp;"init")</f>
+      <c r="B22" s="16" t="str">
+        <f>IF(R_input!$C22=0,"",R_input!$C22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="str">
+      <c r="A23" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B23,FIND("*",R_input!$B23)-1),"")</f>
         <v/>
       </c>
-      <c r="B23" s="4" t="str">
-        <f>IF('C'!$A23="","",'C'!$A23&amp;"init")</f>
+      <c r="B23" s="16" t="str">
+        <f>IF(R_input!$C23=0,"",R_input!$C23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="str">
+      <c r="A24" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B24,FIND("*",R_input!$B24)-1),"")</f>
         <v/>
       </c>
-      <c r="B24" s="4" t="str">
-        <f>IF('C'!$A24="","",'C'!$A24&amp;"init")</f>
+      <c r="B24" s="16" t="str">
+        <f>IF(R_input!$C24=0,"",R_input!$C24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="str">
+      <c r="A25" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B25,FIND("*",R_input!$B25)-1),"")</f>
         <v/>
       </c>
-      <c r="B25" s="4" t="str">
-        <f>IF('C'!$A25="","",'C'!$A25&amp;"init")</f>
+      <c r="B25" s="16" t="str">
+        <f>IF(R_input!$C25=0,"",R_input!$C25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="str">
+      <c r="A26" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B26,FIND("*",R_input!$B26)-1),"")</f>
         <v/>
       </c>
-      <c r="B26" s="4" t="str">
-        <f>IF('C'!$A26="","",'C'!$A26&amp;"init")</f>
+      <c r="B26" s="16" t="str">
+        <f>IF(R_input!$C26=0,"",R_input!$C26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="str">
+      <c r="A27" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B27,FIND("*",R_input!$B27)-1),"")</f>
         <v/>
       </c>
-      <c r="B27" s="4" t="str">
-        <f>IF('C'!$A27="","",'C'!$A27&amp;"init")</f>
+      <c r="B27" s="16" t="str">
+        <f>IF(R_input!$C27=0,"",R_input!$C27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="str">
+      <c r="A28" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B28,FIND("*",R_input!$B28)-1),"")</f>
         <v/>
       </c>
-      <c r="B28" s="4" t="str">
-        <f>IF('C'!$A28="","",'C'!$A28&amp;"init")</f>
+      <c r="B28" s="16" t="str">
+        <f>IF(R_input!$C28=0,"",R_input!$C28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="str">
+      <c r="A29" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B29,FIND("*",R_input!$B29)-1),"")</f>
         <v/>
       </c>
-      <c r="B29" s="4" t="str">
-        <f>IF('C'!$A29="","",'C'!$A29&amp;"init")</f>
+      <c r="B29" s="16" t="str">
+        <f>IF(R_input!$C29=0,"",R_input!$C29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="str">
+      <c r="A30" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B30,FIND("*",R_input!$B30)-1),"")</f>
         <v/>
       </c>
-      <c r="B30" s="4" t="str">
-        <f>IF('C'!$A30="","",'C'!$A30&amp;"init")</f>
+      <c r="B30" s="16" t="str">
+        <f>IF(R_input!$C30=0,"",R_input!$C30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="str">
+      <c r="A31" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B31,FIND("*",R_input!$B31)-1),"")</f>
         <v/>
       </c>
-      <c r="B31" s="4" t="str">
-        <f>IF('C'!$A31="","",'C'!$A31&amp;"init")</f>
+      <c r="B31" s="16" t="str">
+        <f>IF(R_input!$C31=0,"",R_input!$C31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="str">
+      <c r="A32" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B32,FIND("*",R_input!$B32)-1),"")</f>
         <v/>
       </c>
-      <c r="B32" s="4" t="str">
-        <f>IF('C'!$A32="","",'C'!$A32&amp;"init")</f>
+      <c r="B32" s="16" t="str">
+        <f>IF(R_input!$C32=0,"",R_input!$C32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="str">
+      <c r="A33" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B33,FIND("*",R_input!$B33)-1),"")</f>
         <v/>
       </c>
-      <c r="B33" s="4" t="str">
-        <f>IF('C'!$A33="","",'C'!$A33&amp;"init")</f>
+      <c r="B33" s="16" t="str">
+        <f>IF(R_input!$C33=0,"",R_input!$C33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="str">
+      <c r="A34" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B34,FIND("*",R_input!$B34)-1),"")</f>
         <v/>
       </c>
-      <c r="B34" s="4" t="str">
-        <f>IF('C'!$A34="","",'C'!$A34&amp;"init")</f>
+      <c r="B34" s="16" t="str">
+        <f>IF(R_input!$C34=0,"",R_input!$C34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="str">
+      <c r="A35" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B35,FIND("*",R_input!$B35)-1),"")</f>
         <v/>
       </c>
-      <c r="B35" s="4" t="str">
-        <f>IF('C'!$A35="","",'C'!$A35&amp;"init")</f>
+      <c r="B35" s="16" t="str">
+        <f>IF(R_input!$C35=0,"",R_input!$C35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="str">
+      <c r="A36" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B36,FIND("*",R_input!$B36)-1),"")</f>
         <v/>
       </c>
-      <c r="B36" s="4" t="str">
-        <f>IF('C'!$A36="","",'C'!$A36&amp;"init")</f>
+      <c r="B36" s="16" t="str">
+        <f>IF(R_input!$C36=0,"",R_input!$C36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="str">
+      <c r="A37" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B37,FIND("*",R_input!$B37)-1),"")</f>
         <v/>
       </c>
-      <c r="B37" s="4" t="str">
-        <f>IF('C'!$A37="","",'C'!$A37&amp;"init")</f>
+      <c r="B37" s="16" t="str">
+        <f>IF(R_input!$C37=0,"",R_input!$C37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="str">
+      <c r="A38" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B38,FIND("*",R_input!$B38)-1),"")</f>
         <v/>
       </c>
-      <c r="B38" s="4" t="str">
-        <f>IF('C'!$A38="","",'C'!$A38&amp;"init")</f>
+      <c r="B38" s="16" t="str">
+        <f>IF(R_input!$C38=0,"",R_input!$C38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="str">
+      <c r="A39" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B39,FIND("*",R_input!$B39)-1),"")</f>
         <v/>
       </c>
-      <c r="B39" s="4" t="str">
-        <f>IF('C'!$A39="","",'C'!$A39&amp;"init")</f>
+      <c r="B39" s="16" t="str">
+        <f>IF(R_input!$C39=0,"",R_input!$C39)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="str">
+      <c r="A40" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B40,FIND("*",R_input!$B40)-1),"")</f>
         <v/>
       </c>
-      <c r="B40" s="4" t="str">
-        <f>IF('C'!$A40="","",'C'!$A40&amp;"init")</f>
+      <c r="B40" s="16" t="str">
+        <f>IF(R_input!$C40=0,"",R_input!$C40)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="str">
+      <c r="A41" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B41,FIND("*",R_input!$B41)-1),"")</f>
         <v/>
       </c>
-      <c r="B41" s="4" t="str">
-        <f>IF('C'!$A41="","",'C'!$A41&amp;"init")</f>
+      <c r="B41" s="16" t="str">
+        <f>IF(R_input!$C41=0,"",R_input!$C41)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="str">
+      <c r="A42" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B42,FIND("*",R_input!$B42)-1),"")</f>
         <v/>
       </c>
-      <c r="B42" s="4" t="str">
-        <f>IF('C'!$A42="","",'C'!$A42&amp;"init")</f>
+      <c r="B42" s="16" t="str">
+        <f>IF(R_input!$C42=0,"",R_input!$C42)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="str">
+      <c r="A43" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B43,FIND("*",R_input!$B43)-1),"")</f>
         <v/>
       </c>
-      <c r="B43" s="4" t="str">
-        <f>IF('C'!$A43="","",'C'!$A43&amp;"init")</f>
+      <c r="B43" s="16" t="str">
+        <f>IF(R_input!$C43=0,"",R_input!$C43)</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="str">
+      <c r="A44" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B44,FIND("*",R_input!$B44)-1),"")</f>
         <v/>
       </c>
-      <c r="B44" s="4" t="str">
-        <f>IF('C'!$A44="","",'C'!$A44&amp;"init")</f>
+      <c r="B44" s="16" t="str">
+        <f>IF(R_input!$C44=0,"",R_input!$C44)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="str">
+      <c r="A45" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B45,FIND("*",R_input!$B45)-1),"")</f>
         <v/>
       </c>
-      <c r="B45" s="4" t="str">
-        <f>IF('C'!$A45="","",'C'!$A45&amp;"init")</f>
+      <c r="B45" s="16" t="str">
+        <f>IF(R_input!$C45=0,"",R_input!$C45)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="str">
+      <c r="A46" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B46,FIND("*",R_input!$B46)-1),"")</f>
         <v/>
       </c>
-      <c r="B46" s="4" t="str">
-        <f>IF('C'!$A46="","",'C'!$A46&amp;"init")</f>
+      <c r="B46" s="16" t="str">
+        <f>IF(R_input!$C46=0,"",R_input!$C46)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="str">
+      <c r="A47" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B47,FIND("*",R_input!$B47)-1),"")</f>
         <v/>
       </c>
-      <c r="B47" s="4" t="str">
-        <f>IF('C'!$A47="","",'C'!$A47&amp;"init")</f>
+      <c r="B47" s="16" t="str">
+        <f>IF(R_input!$C47=0,"",R_input!$C47)</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="str">
+      <c r="A48" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B48,FIND("*",R_input!$B48)-1),"")</f>
         <v/>
       </c>
-      <c r="B48" s="4" t="str">
-        <f>IF('C'!$A48="","",'C'!$A48&amp;"init")</f>
+      <c r="B48" s="16" t="str">
+        <f>IF(R_input!$C48=0,"",R_input!$C48)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="str">
+      <c r="A49" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B49,FIND("*",R_input!$B49)-1),"")</f>
         <v/>
       </c>
-      <c r="B49" s="4" t="str">
-        <f>IF('C'!$A49="","",'C'!$A49&amp;"init")</f>
+      <c r="B49" s="16" t="str">
+        <f>IF(R_input!$C49=0,"",R_input!$C49)</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="str">
+      <c r="A50" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B50,FIND("*",R_input!$B50)-1),"")</f>
         <v/>
       </c>
-      <c r="B50" s="4" t="str">
-        <f>IF('C'!$A50="","",'C'!$A50&amp;"init")</f>
+      <c r="B50" s="16" t="str">
+        <f>IF(R_input!$C50=0,"",R_input!$C50)</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="str">
+      <c r="A51" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B51,FIND("*",R_input!$B51)-1),"")</f>
         <v/>
       </c>
-      <c r="B51" s="4" t="str">
-        <f>IF('C'!$A51="","",'C'!$A51&amp;"init")</f>
+      <c r="B51" s="16" t="str">
+        <f>IF(R_input!$C51=0,"",R_input!$C51)</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="str">
+      <c r="A52" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B52,FIND("*",R_input!$B52)-1),"")</f>
         <v/>
       </c>
-      <c r="B52" s="4" t="str">
-        <f>IF('C'!$A52="","",'C'!$A52&amp;"init")</f>
+      <c r="B52" s="16" t="str">
+        <f>IF(R_input!$C52=0,"",R_input!$C52)</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="str">
+      <c r="A53" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B53,FIND("*",R_input!$B53)-1),"")</f>
         <v/>
       </c>
-      <c r="B53" s="4" t="str">
-        <f>IF('C'!$A53="","",'C'!$A53&amp;"init")</f>
+      <c r="B53" s="16" t="str">
+        <f>IF(R_input!$C53=0,"",R_input!$C53)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="str">
+      <c r="A54" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B54,FIND("*",R_input!$B54)-1),"")</f>
         <v/>
       </c>
-      <c r="B54" s="4" t="str">
-        <f>IF('C'!$A54="","",'C'!$A54&amp;"init")</f>
+      <c r="B54" s="16" t="str">
+        <f>IF(R_input!$C54=0,"",R_input!$C54)</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="str">
+      <c r="A55" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B55,FIND("*",R_input!$B55)-1),"")</f>
         <v/>
       </c>
-      <c r="B55" s="4" t="str">
-        <f>IF('C'!$A55="","",'C'!$A55&amp;"init")</f>
+      <c r="B55" s="16" t="str">
+        <f>IF(R_input!$C55=0,"",R_input!$C55)</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="str">
+      <c r="A56" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B56,FIND("*",R_input!$B56)-1),"")</f>
         <v/>
       </c>
-      <c r="B56" s="4" t="str">
-        <f>IF('C'!$A56="","",'C'!$A56&amp;"init")</f>
+      <c r="B56" s="16" t="str">
+        <f>IF(R_input!$C56=0,"",R_input!$C56)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="str">
+      <c r="A57" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B57,FIND("*",R_input!$B57)-1),"")</f>
         <v/>
       </c>
-      <c r="B57" s="4" t="str">
-        <f>IF('C'!$A57="","",'C'!$A57&amp;"init")</f>
+      <c r="B57" s="16" t="str">
+        <f>IF(R_input!$C57=0,"",R_input!$C57)</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="str">
+      <c r="A58" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B58,FIND("*",R_input!$B58)-1),"")</f>
         <v/>
       </c>
-      <c r="B58" s="4" t="str">
-        <f>IF('C'!$A58="","",'C'!$A58&amp;"init")</f>
+      <c r="B58" s="16" t="str">
+        <f>IF(R_input!$C58=0,"",R_input!$C58)</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="str">
+      <c r="A59" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B59,FIND("*",R_input!$B59)-1),"")</f>
         <v/>
       </c>
-      <c r="B59" s="4" t="str">
-        <f>IF('C'!$A59="","",'C'!$A59&amp;"init")</f>
+      <c r="B59" s="16" t="str">
+        <f>IF(R_input!$C59=0,"",R_input!$C59)</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="str">
+      <c r="A60" s="15" t="str">
         <f>IFERROR(LEFT(R_input!$B60,FIND("*",R_input!$B60)-1),"")</f>
         <v/>
       </c>
-      <c r="B60" s="4" t="str">
-        <f>IF('C'!$A60="","",'C'!$A60&amp;"init")</f>
+      <c r="B60" s="16" t="str">
+        <f>IF(R_input!$C60=0,"",R_input!$C60)</f>
         <v/>
       </c>
     </row>
@@ -3473,19 +3203,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C28030F-4A04-41DD-98F7-FEB81E926FE7}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="str">
-        <f>IF('C'!$A1="","",'C'!$A1&amp;"init")</f>
-        <v xml:space="preserve"> k1init</v>
+      <c r="A1" s="2" t="str">
+        <f>IF('C'!$A1="","",'C'!$A1&amp;"_init")</f>
+        <v xml:space="preserve"> k1_init</v>
       </c>
       <c r="B1" s="13" t="str">
         <f>IF(R_input!$C1=0,"",R_input!$C1)</f>
@@ -3493,9 +3223,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="str">
-        <f>IF('C'!$A2="","",'C'!$A2&amp;"init")</f>
-        <v xml:space="preserve"> k2init</v>
+      <c r="A2" s="2" t="str">
+        <f>IF('C'!$A2="","",'C'!$A2&amp;"_init")</f>
+        <v xml:space="preserve"> k2_init</v>
       </c>
       <c r="B2" s="13">
         <f>IF(R_input!$C2=0,"",R_input!$C2)</f>
@@ -3503,9 +3233,9 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f>IF('C'!$A3="","",'C'!$A3&amp;"init")</f>
-        <v xml:space="preserve"> k3init</v>
+      <c r="A3" s="2" t="str">
+        <f>IF('C'!$A3="","",'C'!$A3&amp;"_init")</f>
+        <v xml:space="preserve"> k3_init</v>
       </c>
       <c r="B3" s="13">
         <f>IF(R_input!$C3=0,"",R_input!$C3)</f>
@@ -3513,9 +3243,9 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <f>IF('C'!$A4="","",'C'!$A4&amp;"init")</f>
-        <v xml:space="preserve"> k4init</v>
+      <c r="A4" s="2" t="str">
+        <f>IF('C'!$A4="","",'C'!$A4&amp;"_init")</f>
+        <v xml:space="preserve"> k4_init</v>
       </c>
       <c r="B4" s="13">
         <f>IF(R_input!$C4=0,"",R_input!$C4)</f>
@@ -3523,9 +3253,9 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <f>IF('C'!$A5="","",'C'!$A5&amp;"init")</f>
-        <v xml:space="preserve"> k5init</v>
+      <c r="A5" s="2" t="str">
+        <f>IF('C'!$A5="","",'C'!$A5&amp;"_init")</f>
+        <v xml:space="preserve"> k5_init</v>
       </c>
       <c r="B5" s="13" t="str">
         <f>IF(R_input!$C5=0,"",R_input!$C5)</f>
@@ -3533,9 +3263,9 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
-        <f>IF('C'!$A6="","",'C'!$A6&amp;"init")</f>
-        <v xml:space="preserve"> k6init</v>
+      <c r="A6" s="2" t="str">
+        <f>IF('C'!$A6="","",'C'!$A6&amp;"_init")</f>
+        <v xml:space="preserve"> k6_init</v>
       </c>
       <c r="B6" s="13">
         <f>IF(R_input!$C6=0,"",R_input!$C6)</f>
@@ -3543,9 +3273,9 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <f>IF('C'!$A7="","",'C'!$A7&amp;"init")</f>
-        <v xml:space="preserve"> k7init</v>
+      <c r="A7" s="2" t="str">
+        <f>IF('C'!$A7="","",'C'!$A7&amp;"_init")</f>
+        <v xml:space="preserve"> k7_init</v>
       </c>
       <c r="B7" s="13" t="str">
         <f>IF(R_input!$C7=0,"",R_input!$C7)</f>
@@ -3553,9 +3283,9 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="str">
-        <f>IF('C'!$A8="","",'C'!$A8&amp;"init")</f>
-        <v xml:space="preserve"> k8init</v>
+      <c r="A8" s="2" t="str">
+        <f>IF('C'!$A8="","",'C'!$A8&amp;"_init")</f>
+        <v xml:space="preserve"> k8_init</v>
       </c>
       <c r="B8" s="13">
         <f>IF(R_input!$C8=0,"",R_input!$C8)</f>
@@ -3563,9 +3293,9 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
-        <f>IF('C'!$A9="","",'C'!$A9&amp;"init")</f>
-        <v xml:space="preserve"> k9init</v>
+      <c r="A9" s="2" t="str">
+        <f>IF('C'!$A9="","",'C'!$A9&amp;"_init")</f>
+        <v xml:space="preserve"> k9_init</v>
       </c>
       <c r="B9" s="13">
         <f>IF(R_input!$C9=0,"",R_input!$C9)</f>
@@ -3573,9 +3303,9 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="str">
-        <f>IF('C'!$A10="","",'C'!$A10&amp;"init")</f>
-        <v xml:space="preserve"> k10init</v>
+      <c r="A10" s="2" t="str">
+        <f>IF('C'!$A10="","",'C'!$A10&amp;"_init")</f>
+        <v xml:space="preserve"> k10_init</v>
       </c>
       <c r="B10" s="13">
         <f>IF(R_input!$C10=0,"",R_input!$C10)</f>
@@ -3583,9 +3313,9 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
-        <f>IF('C'!$A11="","",'C'!$A11&amp;"init")</f>
-        <v xml:space="preserve"> k11init</v>
+      <c r="A11" s="2" t="str">
+        <f>IF('C'!$A11="","",'C'!$A11&amp;"_init")</f>
+        <v xml:space="preserve"> k11_init</v>
       </c>
       <c r="B11" s="13">
         <f>IF(R_input!$C11=0,"",R_input!$C11)</f>
@@ -3593,9 +3323,9 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="str">
-        <f>IF('C'!$A12="","",'C'!$A12&amp;"init")</f>
-        <v>K2init</v>
+      <c r="A12" s="2" t="str">
+        <f>IF('C'!$A12="","",'C'!$A12&amp;"_init")</f>
+        <v>K2_init</v>
       </c>
       <c r="B12" s="13">
         <f>IF(R_input!$C12=0,"",R_input!$C12)</f>
@@ -3603,9 +3333,9 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="str">
-        <f>IF('C'!$A13="","",'C'!$A13&amp;"init")</f>
-        <v>K4init</v>
+      <c r="A13" s="2" t="str">
+        <f>IF('C'!$A13="","",'C'!$A13&amp;"_init")</f>
+        <v>K4_init</v>
       </c>
       <c r="B13" s="13">
         <f>IF(R_input!$C13=0,"",R_input!$C13)</f>
@@ -3613,9 +3343,9 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="str">
-        <f>IF('C'!$A14="","",'C'!$A14&amp;"init")</f>
-        <v>lightinit</v>
+      <c r="A14" s="2" t="str">
+        <f>IF('C'!$A14="","",'C'!$A14&amp;"_init")</f>
+        <v>light_init</v>
       </c>
       <c r="B14" s="13">
         <f>IF(R_input!$C14=0,"",R_input!$C14)</f>
@@ -3623,8 +3353,8 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="str">
-        <f>IF('C'!$A15="","",'C'!$A15&amp;"init")</f>
+      <c r="A15" s="2" t="str">
+        <f>IF('C'!$A15="","",'C'!$A15&amp;"_init")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="str">
@@ -3633,8 +3363,8 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="str">
-        <f>IF('C'!$A16="","",'C'!$A16&amp;"init")</f>
+      <c r="A16" s="2" t="str">
+        <f>IF('C'!$A16="","",'C'!$A16&amp;"_init")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="str">
@@ -3643,8 +3373,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="str">
-        <f>IF('C'!$A17="","",'C'!$A17&amp;"init")</f>
+      <c r="A17" s="2" t="str">
+        <f>IF('C'!$A17="","",'C'!$A17&amp;"_init")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="str">
@@ -3653,8 +3383,8 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="str">
-        <f>IF('C'!$A18="","",'C'!$A18&amp;"init")</f>
+      <c r="A18" s="2" t="str">
+        <f>IF('C'!$A18="","",'C'!$A18&amp;"_init")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="str">
@@ -3663,8 +3393,8 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="str">
-        <f>IF('C'!$A19="","",'C'!$A19&amp;"init")</f>
+      <c r="A19" s="2" t="str">
+        <f>IF('C'!$A19="","",'C'!$A19&amp;"_init")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="str">
@@ -3673,8 +3403,8 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="str">
-        <f>IF('C'!$A20="","",'C'!$A20&amp;"init")</f>
+      <c r="A20" s="2" t="str">
+        <f>IF('C'!$A20="","",'C'!$A20&amp;"_init")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="str">
@@ -3683,8 +3413,8 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="str">
-        <f>IF('C'!$A21="","",'C'!$A21&amp;"init")</f>
+      <c r="A21" s="2" t="str">
+        <f>IF('C'!$A21="","",'C'!$A21&amp;"_init")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="str">
@@ -3693,8 +3423,8 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="str">
-        <f>IF('C'!$A22="","",'C'!$A22&amp;"init")</f>
+      <c r="A22" s="2" t="str">
+        <f>IF('C'!$A22="","",'C'!$A22&amp;"_init")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="str">
@@ -3703,8 +3433,8 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="str">
-        <f>IF('C'!$A23="","",'C'!$A23&amp;"init")</f>
+      <c r="A23" s="2" t="str">
+        <f>IF('C'!$A23="","",'C'!$A23&amp;"_init")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="str">
@@ -3713,8 +3443,8 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="str">
-        <f>IF('C'!$A24="","",'C'!$A24&amp;"init")</f>
+      <c r="A24" s="2" t="str">
+        <f>IF('C'!$A24="","",'C'!$A24&amp;"_init")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="str">
@@ -3723,8 +3453,8 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="str">
-        <f>IF('C'!$A25="","",'C'!$A25&amp;"init")</f>
+      <c r="A25" s="2" t="str">
+        <f>IF('C'!$A25="","",'C'!$A25&amp;"_init")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="str">
@@ -3733,8 +3463,8 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="str">
-        <f>IF('C'!$A26="","",'C'!$A26&amp;"init")</f>
+      <c r="A26" s="2" t="str">
+        <f>IF('C'!$A26="","",'C'!$A26&amp;"_init")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="str">
@@ -3743,8 +3473,8 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="str">
-        <f>IF('C'!$A27="","",'C'!$A27&amp;"init")</f>
+      <c r="A27" s="2" t="str">
+        <f>IF('C'!$A27="","",'C'!$A27&amp;"_init")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="str">
@@ -3753,8 +3483,8 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="str">
-        <f>IF('C'!$A28="","",'C'!$A28&amp;"init")</f>
+      <c r="A28" s="2" t="str">
+        <f>IF('C'!$A28="","",'C'!$A28&amp;"_init")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="str">
@@ -3763,8 +3493,8 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="str">
-        <f>IF('C'!$A29="","",'C'!$A29&amp;"init")</f>
+      <c r="A29" s="2" t="str">
+        <f>IF('C'!$A29="","",'C'!$A29&amp;"_init")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="str">
@@ -3773,8 +3503,8 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="str">
-        <f>IF('C'!$A30="","",'C'!$A30&amp;"init")</f>
+      <c r="A30" s="2" t="str">
+        <f>IF('C'!$A30="","",'C'!$A30&amp;"_init")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="str">
@@ -3783,8 +3513,8 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="str">
-        <f>IF('C'!$A31="","",'C'!$A31&amp;"init")</f>
+      <c r="A31" s="2" t="str">
+        <f>IF('C'!$A31="","",'C'!$A31&amp;"_init")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="str">
@@ -3793,8 +3523,8 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="str">
-        <f>IF('C'!$A32="","",'C'!$A32&amp;"init")</f>
+      <c r="A32" s="2" t="str">
+        <f>IF('C'!$A32="","",'C'!$A32&amp;"_init")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="str">
@@ -3803,8 +3533,8 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="str">
-        <f>IF('C'!$A33="","",'C'!$A33&amp;"init")</f>
+      <c r="A33" s="2" t="str">
+        <f>IF('C'!$A33="","",'C'!$A33&amp;"_init")</f>
         <v/>
       </c>
       <c r="B33" s="13" t="str">
@@ -3813,8 +3543,8 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="str">
-        <f>IF('C'!$A34="","",'C'!$A34&amp;"init")</f>
+      <c r="A34" s="2" t="str">
+        <f>IF('C'!$A34="","",'C'!$A34&amp;"_init")</f>
         <v/>
       </c>
       <c r="B34" s="13" t="str">
@@ -3823,8 +3553,8 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="str">
-        <f>IF('C'!$A35="","",'C'!$A35&amp;"init")</f>
+      <c r="A35" s="2" t="str">
+        <f>IF('C'!$A35="","",'C'!$A35&amp;"_init")</f>
         <v/>
       </c>
       <c r="B35" s="13" t="str">
@@ -3833,8 +3563,8 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="str">
-        <f>IF('C'!$A36="","",'C'!$A36&amp;"init")</f>
+      <c r="A36" s="2" t="str">
+        <f>IF('C'!$A36="","",'C'!$A36&amp;"_init")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="str">
@@ -3843,8 +3573,8 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="str">
-        <f>IF('C'!$A37="","",'C'!$A37&amp;"init")</f>
+      <c r="A37" s="2" t="str">
+        <f>IF('C'!$A37="","",'C'!$A37&amp;"_init")</f>
         <v/>
       </c>
       <c r="B37" s="13" t="str">
@@ -3853,8 +3583,8 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="str">
-        <f>IF('C'!$A38="","",'C'!$A38&amp;"init")</f>
+      <c r="A38" s="2" t="str">
+        <f>IF('C'!$A38="","",'C'!$A38&amp;"_init")</f>
         <v/>
       </c>
       <c r="B38" s="13" t="str">
@@ -3863,8 +3593,8 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="str">
-        <f>IF('C'!$A39="","",'C'!$A39&amp;"init")</f>
+      <c r="A39" s="2" t="str">
+        <f>IF('C'!$A39="","",'C'!$A39&amp;"_init")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="str">
@@ -3873,8 +3603,8 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="str">
-        <f>IF('C'!$A40="","",'C'!$A40&amp;"init")</f>
+      <c r="A40" s="2" t="str">
+        <f>IF('C'!$A40="","",'C'!$A40&amp;"_init")</f>
         <v/>
       </c>
       <c r="B40" s="13" t="str">
@@ -3883,8 +3613,8 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="str">
-        <f>IF('C'!$A41="","",'C'!$A41&amp;"init")</f>
+      <c r="A41" s="2" t="str">
+        <f>IF('C'!$A41="","",'C'!$A41&amp;"_init")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="str">
@@ -3893,8 +3623,8 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="str">
-        <f>IF('C'!$A42="","",'C'!$A42&amp;"init")</f>
+      <c r="A42" s="2" t="str">
+        <f>IF('C'!$A42="","",'C'!$A42&amp;"_init")</f>
         <v/>
       </c>
       <c r="B42" s="13" t="str">
@@ -3903,8 +3633,8 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="str">
-        <f>IF('C'!$A43="","",'C'!$A43&amp;"init")</f>
+      <c r="A43" s="2" t="str">
+        <f>IF('C'!$A43="","",'C'!$A43&amp;"_init")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="str">
@@ -3913,8 +3643,8 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="str">
-        <f>IF('C'!$A44="","",'C'!$A44&amp;"init")</f>
+      <c r="A44" s="2" t="str">
+        <f>IF('C'!$A44="","",'C'!$A44&amp;"_init")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="str">
@@ -3923,8 +3653,8 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="str">
-        <f>IF('C'!$A45="","",'C'!$A45&amp;"init")</f>
+      <c r="A45" s="2" t="str">
+        <f>IF('C'!$A45="","",'C'!$A45&amp;"_init")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="str">
@@ -3933,8 +3663,8 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="str">
-        <f>IF('C'!$A46="","",'C'!$A46&amp;"init")</f>
+      <c r="A46" s="2" t="str">
+        <f>IF('C'!$A46="","",'C'!$A46&amp;"_init")</f>
         <v/>
       </c>
       <c r="B46" s="13" t="str">
@@ -3943,8 +3673,8 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="str">
-        <f>IF('C'!$A47="","",'C'!$A47&amp;"init")</f>
+      <c r="A47" s="2" t="str">
+        <f>IF('C'!$A47="","",'C'!$A47&amp;"_init")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="str">
@@ -3953,8 +3683,8 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="str">
-        <f>IF('C'!$A48="","",'C'!$A48&amp;"init")</f>
+      <c r="A48" s="2" t="str">
+        <f>IF('C'!$A48="","",'C'!$A48&amp;"_init")</f>
         <v/>
       </c>
       <c r="B48" s="13" t="str">
@@ -3963,8 +3693,8 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="str">
-        <f>IF('C'!$A49="","",'C'!$A49&amp;"init")</f>
+      <c r="A49" s="2" t="str">
+        <f>IF('C'!$A49="","",'C'!$A49&amp;"_init")</f>
         <v/>
       </c>
       <c r="B49" s="13" t="str">
@@ -3973,8 +3703,8 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="str">
-        <f>IF('C'!$A50="","",'C'!$A50&amp;"init")</f>
+      <c r="A50" s="2" t="str">
+        <f>IF('C'!$A50="","",'C'!$A50&amp;"_init")</f>
         <v/>
       </c>
       <c r="B50" s="13" t="str">
@@ -3983,8 +3713,8 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="str">
-        <f>IF('C'!$A51="","",'C'!$A51&amp;"init")</f>
+      <c r="A51" s="2" t="str">
+        <f>IF('C'!$A51="","",'C'!$A51&amp;"_init")</f>
         <v/>
       </c>
       <c r="B51" s="13" t="str">
@@ -3993,8 +3723,8 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="str">
-        <f>IF('C'!$A52="","",'C'!$A52&amp;"init")</f>
+      <c r="A52" s="2" t="str">
+        <f>IF('C'!$A52="","",'C'!$A52&amp;"_init")</f>
         <v/>
       </c>
       <c r="B52" s="13" t="str">
@@ -4003,8 +3733,8 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="str">
-        <f>IF('C'!$A53="","",'C'!$A53&amp;"init")</f>
+      <c r="A53" s="2" t="str">
+        <f>IF('C'!$A53="","",'C'!$A53&amp;"_init")</f>
         <v/>
       </c>
       <c r="B53" s="13" t="str">
@@ -4013,8 +3743,8 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="str">
-        <f>IF('C'!$A54="","",'C'!$A54&amp;"init")</f>
+      <c r="A54" s="2" t="str">
+        <f>IF('C'!$A54="","",'C'!$A54&amp;"_init")</f>
         <v/>
       </c>
       <c r="B54" s="13" t="str">
@@ -4023,8 +3753,8 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="str">
-        <f>IF('C'!$A55="","",'C'!$A55&amp;"init")</f>
+      <c r="A55" s="2" t="str">
+        <f>IF('C'!$A55="","",'C'!$A55&amp;"_init")</f>
         <v/>
       </c>
       <c r="B55" s="13" t="str">
@@ -4033,8 +3763,8 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="str">
-        <f>IF('C'!$A56="","",'C'!$A56&amp;"init")</f>
+      <c r="A56" s="2" t="str">
+        <f>IF('C'!$A56="","",'C'!$A56&amp;"_init")</f>
         <v/>
       </c>
       <c r="B56" s="13" t="str">
@@ -4043,8 +3773,8 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="str">
-        <f>IF('C'!$A57="","",'C'!$A57&amp;"init")</f>
+      <c r="A57" s="2" t="str">
+        <f>IF('C'!$A57="","",'C'!$A57&amp;"_init")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="str">
@@ -4053,8 +3783,8 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="str">
-        <f>IF('C'!$A58="","",'C'!$A58&amp;"init")</f>
+      <c r="A58" s="2" t="str">
+        <f>IF('C'!$A58="","",'C'!$A58&amp;"_init")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="str">
@@ -4063,8 +3793,8 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="str">
-        <f>IF('C'!$A59="","",'C'!$A59&amp;"init")</f>
+      <c r="A59" s="2" t="str">
+        <f>IF('C'!$A59="","",'C'!$A59&amp;"_init")</f>
         <v/>
       </c>
       <c r="B59" s="13" t="str">
@@ -4073,8 +3803,8 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="str">
-        <f>IF('C'!$A60="","",'C'!$A60&amp;"init")</f>
+      <c r="A60" s="2" t="str">
+        <f>IF('C'!$A60="","",'C'!$A60&amp;"_init")</f>
         <v/>
       </c>
       <c r="B60" s="13" t="str">
@@ -4088,616 +3818,616 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8A9E18-15DC-4C51-BCEA-84BF6897BCE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2783D5-461F-4ACD-B036-8CB8BAA116C1}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="str">
-        <f>IF(R_input!$A1="","",SUBSTITUTE(R_input!$B1,"[",""))</f>
-        <v xml:space="preserve"> k1*Q]*DH]</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <f>SUBSTITUTE($A1,"]","")</f>
-        <v xml:space="preserve"> k1*Q*DH</v>
+      <c r="A1" s="2" t="str">
+        <f>IF(M!A1="","",M!A1&amp;"_init")</f>
+        <v>Q_init</v>
+      </c>
+      <c r="B1" s="3">
+        <f>IF(M_input!C1=0,"",M_input!C1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="str">
-        <f>IF(R_input!$A2="","",SUBSTITUTE(R_input!$B2,"[",""))</f>
-        <v xml:space="preserve"> k2*Q_m]*DH_p]</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <f t="shared" ref="B2:B60" si="0">SUBSTITUTE($A2,"]","")</f>
-        <v xml:space="preserve"> k2*Q_m*DH_p</v>
+      <c r="A2" s="2" t="str">
+        <f>IF(M!A2="","",M!A2&amp;"_init")</f>
+        <v>DH_init</v>
+      </c>
+      <c r="B2" s="3">
+        <f>IF(M_input!C2=0,"",M_input!C2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f>IF(R_input!$A3="","",SUBSTITUTE(R_input!$B3,"[",""))</f>
-        <v xml:space="preserve"> k3*QH]*D]</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> k3*QH*D</v>
+      <c r="A3" s="2" t="str">
+        <f>IF(M!A3="","",M!A3&amp;"_init")</f>
+        <v>Q_m_init</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>IF(M_input!C3=0,"",M_input!C3)</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <f>IF(R_input!$A4="","",SUBSTITUTE(R_input!$B4,"[",""))</f>
-        <v xml:space="preserve"> k4*QH]*QH]</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> k4*QH*QH</v>
+      <c r="A4" s="2" t="str">
+        <f>IF(M!A4="","",M!A4&amp;"_init")</f>
+        <v>DH_p_init</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>IF(M_input!C4=0,"",M_input!C4)</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <f>IF(R_input!$A5="","",SUBSTITUTE(R_input!$B5,"[",""))</f>
-        <v xml:space="preserve"> k5*Q]*QHH]</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> k5*Q*QHH</v>
+      <c r="A5" s="2" t="str">
+        <f>IF(M!A5="","",M!A5&amp;"_init")</f>
+        <v>QH_init</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>IF(M_input!C5=0,"",M_input!C5)</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
-        <f>IF(R_input!$A6="","",SUBSTITUTE(R_input!$B6,"[",""))</f>
-        <v xml:space="preserve"> k6*Q]*QHD]</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> k6*Q*QHD</v>
+      <c r="A6" s="2" t="str">
+        <f>IF(M!A6="","",M!A6&amp;"_init")</f>
+        <v>D_init</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>IF(M_input!C6=0,"",M_input!C6)</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <f>IF(R_input!$A7="","",SUBSTITUTE(R_input!$B7,"[",""))</f>
-        <v xml:space="preserve"> k7*QD]</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> k7*QD</v>
+      <c r="A7" s="2" t="str">
+        <f>IF(M!A7="","",M!A7&amp;"_init")</f>
+        <v>QHD_init</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>IF(M_input!C7=0,"",M_input!C7)</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="str">
-        <f>IF(R_input!$A8="","",SUBSTITUTE(R_input!$B8,"[",""))</f>
-        <v xml:space="preserve"> k8*Q]*D]</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> k8*Q*D</v>
+      <c r="A8" s="2" t="str">
+        <f>IF(M!A8="","",M!A8&amp;"_init")</f>
+        <v>QHH_init</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>IF(M_input!C8=0,"",M_input!C8)</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
-        <f>IF(R_input!$A9="","",SUBSTITUTE(R_input!$B9,"[",""))</f>
-        <v xml:space="preserve"> k9*QHD]</v>
-      </c>
-      <c r="B9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> k9*QHD</v>
+      <c r="A9" s="2" t="str">
+        <f>IF(M!A9="","",M!A9&amp;"_init")</f>
+        <v>QD_init</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>IF(M_input!C9=0,"",M_input!C9)</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="str">
-        <f>IF(R_input!$A10="","",SUBSTITUTE(R_input!$B10,"[",""))</f>
-        <v xml:space="preserve"> k10*D]*D]</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> k10*D*D</v>
+      <c r="A10" s="2" t="str">
+        <f>IF(M!A10="","",M!A10&amp;"_init")</f>
+        <v>prod_init</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>IF(M_input!C10=0,"",M_input!C10)</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
-        <f>IF(R_input!$A11="","",SUBSTITUTE(R_input!$B11,"[",""))</f>
-        <v xml:space="preserve"> k11*Q]</v>
-      </c>
-      <c r="B11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> k11*Q</v>
+      <c r="A11" s="2" t="str">
+        <f>IF(M!A11="","",M!A11&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>IF(M_input!C11=0,"",M_input!C11)</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="str">
-        <f>IF(R_input!$A12="","",SUBSTITUTE(R_input!$B12,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A12" s="2" t="str">
+        <f>IF(M!A12="","",M!A12&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>IF(M_input!C12=0,"",M_input!C12)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="str">
-        <f>IF(R_input!$A13="","",SUBSTITUTE(R_input!$B13,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B13" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A13" s="2" t="str">
+        <f>IF(M!A13="","",M!A13&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>IF(M_input!C13=0,"",M_input!C13)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="str">
-        <f>IF(R_input!$A14="","",SUBSTITUTE(R_input!$B14,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B14" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A14" s="2" t="str">
+        <f>IF(M!A14="","",M!A14&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>IF(M_input!C14=0,"",M_input!C14)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="str">
-        <f>IF(R_input!$A15="","",SUBSTITUTE(R_input!$B15,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A15" s="2" t="str">
+        <f>IF(M!A15="","",M!A15&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>IF(M_input!C15=0,"",M_input!C15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="str">
-        <f>IF(R_input!$A16="","",SUBSTITUTE(R_input!$B16,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A16" s="2" t="str">
+        <f>IF(M!A16="","",M!A16&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>IF(M_input!C16=0,"",M_input!C16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="str">
-        <f>IF(R_input!$A17="","",SUBSTITUTE(R_input!$B17,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A17" s="2" t="str">
+        <f>IF(M!A17="","",M!A17&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>IF(M_input!C17=0,"",M_input!C17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="str">
-        <f>IF(R_input!$A18="","",SUBSTITUTE(R_input!$B18,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B18" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A18" s="2" t="str">
+        <f>IF(M!A18="","",M!A18&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>IF(M_input!C18=0,"",M_input!C18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="str">
-        <f>IF(R_input!$A19="","",SUBSTITUTE(R_input!$B19,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B19" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A19" s="2" t="str">
+        <f>IF(M!A19="","",M!A19&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f>IF(M_input!C19=0,"",M_input!C19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="str">
-        <f>IF(R_input!$A20="","",SUBSTITUTE(R_input!$B20,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B20" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A20" s="2" t="str">
+        <f>IF(M!A20="","",M!A20&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f>IF(M_input!C20=0,"",M_input!C20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="str">
-        <f>IF(R_input!$A21="","",SUBSTITUTE(R_input!$B21,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B21" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A21" s="2" t="str">
+        <f>IF(M!A21="","",M!A21&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>IF(M_input!C21=0,"",M_input!C21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="str">
-        <f>IF(R_input!$A22="","",SUBSTITUTE(R_input!$B22,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B22" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A22" s="2" t="str">
+        <f>IF(M!A22="","",M!A22&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f>IF(M_input!C22=0,"",M_input!C22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="str">
-        <f>IF(R_input!$A23="","",SUBSTITUTE(R_input!$B23,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B23" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A23" s="2" t="str">
+        <f>IF(M!A23="","",M!A23&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f>IF(M_input!C23=0,"",M_input!C23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="str">
-        <f>IF(R_input!$A24="","",SUBSTITUTE(R_input!$B24,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B24" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A24" s="2" t="str">
+        <f>IF(M!A24="","",M!A24&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f>IF(M_input!C24=0,"",M_input!C24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="str">
-        <f>IF(R_input!$A25="","",SUBSTITUTE(R_input!$B25,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B25" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A25" s="2" t="str">
+        <f>IF(M!A25="","",M!A25&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f>IF(M_input!C25=0,"",M_input!C25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="str">
-        <f>IF(R_input!$A26="","",SUBSTITUTE(R_input!$B26,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B26" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A26" s="2" t="str">
+        <f>IF(M!A26="","",M!A26&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f>IF(M_input!C26=0,"",M_input!C26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="str">
-        <f>IF(R_input!$A27="","",SUBSTITUTE(R_input!$B27,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B27" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A27" s="2" t="str">
+        <f>IF(M!A27="","",M!A27&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f>IF(M_input!C27=0,"",M_input!C27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="str">
-        <f>IF(R_input!$A28="","",SUBSTITUTE(R_input!$B28,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B28" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A28" s="2" t="str">
+        <f>IF(M!A28="","",M!A28&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f>IF(M_input!C28=0,"",M_input!C28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="str">
-        <f>IF(R_input!$A29="","",SUBSTITUTE(R_input!$B29,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B29" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A29" s="2" t="str">
+        <f>IF(M!A29="","",M!A29&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f>IF(M_input!C29=0,"",M_input!C29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="str">
-        <f>IF(R_input!$A30="","",SUBSTITUTE(R_input!$B30,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B30" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A30" s="2" t="str">
+        <f>IF(M!A30="","",M!A30&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f>IF(M_input!C30=0,"",M_input!C30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="str">
-        <f>IF(R_input!$A31="","",SUBSTITUTE(R_input!$B31,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B31" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A31" s="2" t="str">
+        <f>IF(M!A31="","",M!A31&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f>IF(M_input!C31=0,"",M_input!C31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="str">
-        <f>IF(R_input!$A32="","",SUBSTITUTE(R_input!$B32,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B32" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A32" s="2" t="str">
+        <f>IF(M!A32="","",M!A32&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f>IF(M_input!C32=0,"",M_input!C32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="str">
-        <f>IF(R_input!$A33="","",SUBSTITUTE(R_input!$B33,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B33" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A33" s="2" t="str">
+        <f>IF(M!A33="","",M!A33&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f>IF(M_input!C33=0,"",M_input!C33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="str">
-        <f>IF(R_input!$A34="","",SUBSTITUTE(R_input!$B34,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B34" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A34" s="2" t="str">
+        <f>IF(M!A34="","",M!A34&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f>IF(M_input!C34=0,"",M_input!C34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="str">
-        <f>IF(R_input!$A35="","",SUBSTITUTE(R_input!$B35,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B35" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A35" s="2" t="str">
+        <f>IF(M!A35="","",M!A35&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f>IF(M_input!C35=0,"",M_input!C35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="str">
-        <f>IF(R_input!$A36="","",SUBSTITUTE(R_input!$B36,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B36" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A36" s="2" t="str">
+        <f>IF(M!A36="","",M!A36&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f>IF(M_input!C36=0,"",M_input!C36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="str">
-        <f>IF(R_input!$A37="","",SUBSTITUTE(R_input!$B37,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B37" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A37" s="2" t="str">
+        <f>IF(M!A37="","",M!A37&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f>IF(M_input!C37=0,"",M_input!C37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="str">
-        <f>IF(R_input!$A38="","",SUBSTITUTE(R_input!$B38,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B38" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A38" s="2" t="str">
+        <f>IF(M!A38="","",M!A38&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f>IF(M_input!C38=0,"",M_input!C38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="str">
-        <f>IF(R_input!$A39="","",SUBSTITUTE(R_input!$B39,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B39" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A39" s="2" t="str">
+        <f>IF(M!A39="","",M!A39&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f>IF(M_input!C39=0,"",M_input!C39)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="str">
-        <f>IF(R_input!$A40="","",SUBSTITUTE(R_input!$B40,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B40" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A40" s="2" t="str">
+        <f>IF(M!A40="","",M!A40&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f>IF(M_input!C40=0,"",M_input!C40)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="str">
-        <f>IF(R_input!$A41="","",SUBSTITUTE(R_input!$B41,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B41" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A41" s="2" t="str">
+        <f>IF(M!A41="","",M!A41&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f>IF(M_input!C41=0,"",M_input!C41)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="str">
-        <f>IF(R_input!$A42="","",SUBSTITUTE(R_input!$B42,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B42" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A42" s="2" t="str">
+        <f>IF(M!A42="","",M!A42&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f>IF(M_input!C42=0,"",M_input!C42)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="str">
-        <f>IF(R_input!$A43="","",SUBSTITUTE(R_input!$B43,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B43" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A43" s="2" t="str">
+        <f>IF(M!A43="","",M!A43&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f>IF(M_input!C43=0,"",M_input!C43)</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="str">
-        <f>IF(R_input!$A44="","",SUBSTITUTE(R_input!$B44,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B44" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A44" s="2" t="str">
+        <f>IF(M!A44="","",M!A44&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f>IF(M_input!C44=0,"",M_input!C44)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="str">
-        <f>IF(R_input!$A45="","",SUBSTITUTE(R_input!$B45,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B45" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A45" s="2" t="str">
+        <f>IF(M!A45="","",M!A45&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B45" s="3" t="str">
+        <f>IF(M_input!C45=0,"",M_input!C45)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="str">
-        <f>IF(R_input!$A46="","",SUBSTITUTE(R_input!$B46,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B46" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A46" s="2" t="str">
+        <f>IF(M!A46="","",M!A46&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B46" s="3" t="str">
+        <f>IF(M_input!C46=0,"",M_input!C46)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="str">
-        <f>IF(R_input!$A47="","",SUBSTITUTE(R_input!$B47,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B47" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A47" s="2" t="str">
+        <f>IF(M!A47="","",M!A47&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B47" s="3" t="str">
+        <f>IF(M_input!C47=0,"",M_input!C47)</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="str">
-        <f>IF(R_input!$A48="","",SUBSTITUTE(R_input!$B48,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B48" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A48" s="2" t="str">
+        <f>IF(M!A48="","",M!A48&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f>IF(M_input!C48=0,"",M_input!C48)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="str">
-        <f>IF(R_input!$A49="","",SUBSTITUTE(R_input!$B49,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B49" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A49" s="2" t="str">
+        <f>IF(M!A49="","",M!A49&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B49" s="3" t="str">
+        <f>IF(M_input!C49=0,"",M_input!C49)</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="str">
-        <f>IF(R_input!$A50="","",SUBSTITUTE(R_input!$B50,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B50" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A50" s="2" t="str">
+        <f>IF(M!A50="","",M!A50&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B50" s="3" t="str">
+        <f>IF(M_input!C50=0,"",M_input!C50)</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="str">
-        <f>IF(R_input!$A51="","",SUBSTITUTE(R_input!$B51,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B51" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A51" s="2" t="str">
+        <f>IF(M!A51="","",M!A51&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B51" s="3" t="str">
+        <f>IF(M_input!C51=0,"",M_input!C51)</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="str">
-        <f>IF(R_input!$A52="","",SUBSTITUTE(R_input!$B52,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B52" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A52" s="2" t="str">
+        <f>IF(M!A52="","",M!A52&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B52" s="3" t="str">
+        <f>IF(M_input!C52=0,"",M_input!C52)</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="str">
-        <f>IF(R_input!$A53="","",SUBSTITUTE(R_input!$B53,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B53" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A53" s="2" t="str">
+        <f>IF(M!A53="","",M!A53&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B53" s="3" t="str">
+        <f>IF(M_input!C53=0,"",M_input!C53)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="str">
-        <f>IF(R_input!$A54="","",SUBSTITUTE(R_input!$B54,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B54" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A54" s="2" t="str">
+        <f>IF(M!A54="","",M!A54&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B54" s="3" t="str">
+        <f>IF(M_input!C54=0,"",M_input!C54)</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="str">
-        <f>IF(R_input!$A55="","",SUBSTITUTE(R_input!$B55,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B55" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A55" s="2" t="str">
+        <f>IF(M!A55="","",M!A55&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B55" s="3" t="str">
+        <f>IF(M_input!C55=0,"",M_input!C55)</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="str">
-        <f>IF(R_input!$A56="","",SUBSTITUTE(R_input!$B56,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B56" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A56" s="2" t="str">
+        <f>IF(M!A56="","",M!A56&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B56" s="3" t="str">
+        <f>IF(M_input!C56=0,"",M_input!C56)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="str">
-        <f>IF(R_input!$A57="","",SUBSTITUTE(R_input!$B57,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B57" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A57" s="2" t="str">
+        <f>IF(M!A57="","",M!A57&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B57" s="3" t="str">
+        <f>IF(M_input!C57=0,"",M_input!C57)</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="str">
-        <f>IF(R_input!$A58="","",SUBSTITUTE(R_input!$B58,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B58" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A58" s="2" t="str">
+        <f>IF(M!A58="","",M!A58&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B58" s="3" t="str">
+        <f>IF(M_input!C58=0,"",M_input!C58)</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="str">
-        <f>IF(R_input!$A59="","",SUBSTITUTE(R_input!$B59,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B59" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A59" s="2" t="str">
+        <f>IF(M!A59="","",M!A59&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B59" s="3" t="str">
+        <f>IF(M_input!C59=0,"",M_input!C59)</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="str">
-        <f>IF(R_input!$A60="","",SUBSTITUTE(R_input!$B60,"[",""))</f>
-        <v/>
-      </c>
-      <c r="B60" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="A60" s="2" t="str">
+        <f>IF(M!A60="","",M!A60&amp;"_init")</f>
+        <v/>
+      </c>
+      <c r="B60" s="3" t="str">
+        <f>IF(M_input!C60=0,"",M_input!C60)</f>
         <v/>
       </c>
     </row>
@@ -4707,11 +4437,631 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8A9E18-15DC-4C51-BCEA-84BF6897BCE2}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="str">
+        <f>IF(R_input!$A1="","",SUBSTITUTE(R_input!$B1,"[",""))</f>
+        <v xml:space="preserve"> k1*Q]*DH]</v>
+      </c>
+      <c r="B1" s="9" t="str">
+        <f>SUBSTITUTE($A1,"]","")</f>
+        <v xml:space="preserve"> k1*Q*DH</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="str">
+        <f>IF(R_input!$A2="","",SUBSTITUTE(R_input!$B2,"[",""))</f>
+        <v xml:space="preserve"> k2*Q_m]*DH_p]</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f t="shared" ref="B2:B60" si="0">SUBSTITUTE($A2,"]","")</f>
+        <v xml:space="preserve"> k2*Q_m*DH_p</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="str">
+        <f>IF(R_input!$A3="","",SUBSTITUTE(R_input!$B3,"[",""))</f>
+        <v xml:space="preserve"> k3*QH]*D]</v>
+      </c>
+      <c r="B3" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k3*QH*D</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="str">
+        <f>IF(R_input!$A4="","",SUBSTITUTE(R_input!$B4,"[",""))</f>
+        <v xml:space="preserve"> k4*QH]*QH]</v>
+      </c>
+      <c r="B4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k4*QH*QH</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="str">
+        <f>IF(R_input!$A5="","",SUBSTITUTE(R_input!$B5,"[",""))</f>
+        <v xml:space="preserve"> k5*Q]*QHH]</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k5*Q*QHH</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="str">
+        <f>IF(R_input!$A6="","",SUBSTITUTE(R_input!$B6,"[",""))</f>
+        <v xml:space="preserve"> k6*Q]*QHD]</v>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k6*Q*QHD</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="str">
+        <f>IF(R_input!$A7="","",SUBSTITUTE(R_input!$B7,"[",""))</f>
+        <v xml:space="preserve"> k7*QD]</v>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k7*QD</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="str">
+        <f>IF(R_input!$A8="","",SUBSTITUTE(R_input!$B8,"[",""))</f>
+        <v xml:space="preserve"> k8*Q]*D]</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k8*Q*D</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="str">
+        <f>IF(R_input!$A9="","",SUBSTITUTE(R_input!$B9,"[",""))</f>
+        <v xml:space="preserve"> k9*QHD]</v>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k9*QHD</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="str">
+        <f>IF(R_input!$A10="","",SUBSTITUTE(R_input!$B10,"[",""))</f>
+        <v xml:space="preserve"> k10*D]*D]</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k10*D*D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="str">
+        <f>IF(R_input!$A11="","",SUBSTITUTE(R_input!$B11,"[",""))</f>
+        <v xml:space="preserve"> k11*Q]</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> k11*Q</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="str">
+        <f>IF(R_input!$A12="","",SUBSTITUTE(R_input!$B12,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="str">
+        <f>IF(R_input!$A13="","",SUBSTITUTE(R_input!$B13,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="str">
+        <f>IF(R_input!$A14="","",SUBSTITUTE(R_input!$B14,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="str">
+        <f>IF(R_input!$A15="","",SUBSTITUTE(R_input!$B15,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="str">
+        <f>IF(R_input!$A16="","",SUBSTITUTE(R_input!$B16,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="str">
+        <f>IF(R_input!$A17="","",SUBSTITUTE(R_input!$B17,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="str">
+        <f>IF(R_input!$A18="","",SUBSTITUTE(R_input!$B18,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="str">
+        <f>IF(R_input!$A19="","",SUBSTITUTE(R_input!$B19,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="str">
+        <f>IF(R_input!$A20="","",SUBSTITUTE(R_input!$B20,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="str">
+        <f>IF(R_input!$A21="","",SUBSTITUTE(R_input!$B21,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="str">
+        <f>IF(R_input!$A22="","",SUBSTITUTE(R_input!$B22,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="str">
+        <f>IF(R_input!$A23="","",SUBSTITUTE(R_input!$B23,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="str">
+        <f>IF(R_input!$A24="","",SUBSTITUTE(R_input!$B24,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="str">
+        <f>IF(R_input!$A25="","",SUBSTITUTE(R_input!$B25,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="str">
+        <f>IF(R_input!$A26="","",SUBSTITUTE(R_input!$B26,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="str">
+        <f>IF(R_input!$A27="","",SUBSTITUTE(R_input!$B27,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="str">
+        <f>IF(R_input!$A28="","",SUBSTITUTE(R_input!$B28,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="str">
+        <f>IF(R_input!$A29="","",SUBSTITUTE(R_input!$B29,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="str">
+        <f>IF(R_input!$A30="","",SUBSTITUTE(R_input!$B30,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="str">
+        <f>IF(R_input!$A31="","",SUBSTITUTE(R_input!$B31,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="str">
+        <f>IF(R_input!$A32="","",SUBSTITUTE(R_input!$B32,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="str">
+        <f>IF(R_input!$A33="","",SUBSTITUTE(R_input!$B33,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="str">
+        <f>IF(R_input!$A34="","",SUBSTITUTE(R_input!$B34,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="str">
+        <f>IF(R_input!$A35="","",SUBSTITUTE(R_input!$B35,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="str">
+        <f>IF(R_input!$A36="","",SUBSTITUTE(R_input!$B36,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="str">
+        <f>IF(R_input!$A37="","",SUBSTITUTE(R_input!$B37,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="str">
+        <f>IF(R_input!$A38="","",SUBSTITUTE(R_input!$B38,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="str">
+        <f>IF(R_input!$A39="","",SUBSTITUTE(R_input!$B39,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="str">
+        <f>IF(R_input!$A40="","",SUBSTITUTE(R_input!$B40,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="str">
+        <f>IF(R_input!$A41="","",SUBSTITUTE(R_input!$B41,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="str">
+        <f>IF(R_input!$A42="","",SUBSTITUTE(R_input!$B42,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="str">
+        <f>IF(R_input!$A43="","",SUBSTITUTE(R_input!$B43,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="str">
+        <f>IF(R_input!$A44="","",SUBSTITUTE(R_input!$B44,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="str">
+        <f>IF(R_input!$A45="","",SUBSTITUTE(R_input!$B45,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="str">
+        <f>IF(R_input!$A46="","",SUBSTITUTE(R_input!$B46,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="str">
+        <f>IF(R_input!$A47="","",SUBSTITUTE(R_input!$B47,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="str">
+        <f>IF(R_input!$A48="","",SUBSTITUTE(R_input!$B48,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="str">
+        <f>IF(R_input!$A49="","",SUBSTITUTE(R_input!$B49,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="str">
+        <f>IF(R_input!$A50="","",SUBSTITUTE(R_input!$B50,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="str">
+        <f>IF(R_input!$A51="","",SUBSTITUTE(R_input!$B51,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="str">
+        <f>IF(R_input!$A52="","",SUBSTITUTE(R_input!$B52,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="str">
+        <f>IF(R_input!$A53="","",SUBSTITUTE(R_input!$B53,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="str">
+        <f>IF(R_input!$A54="","",SUBSTITUTE(R_input!$B54,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="str">
+        <f>IF(R_input!$A55="","",SUBSTITUTE(R_input!$B55,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="str">
+        <f>IF(R_input!$A56="","",SUBSTITUTE(R_input!$B56,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="str">
+        <f>IF(R_input!$A57="","",SUBSTITUTE(R_input!$B57,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="str">
+        <f>IF(R_input!$A58="","",SUBSTITUTE(R_input!$B58,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B58" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="str">
+        <f>IF(R_input!$A59="","",SUBSTITUTE(R_input!$B59,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="str">
+        <f>IF(R_input!$A60="","",SUBSTITUTE(R_input!$B60,"[",""))</f>
+        <v/>
+      </c>
+      <c r="B60" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF9E153-38FC-438C-92F0-9BD726862A0D}">
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5805,814 +6155,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1063FD72-14C4-4459-A3B9-407C9F72C5B3}">
-  <dimension ref="A1:F60"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="str">
-        <f>IF('C'!$A1="","",'C'!$A1&amp;"init")</f>
-        <v xml:space="preserve"> k1init</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <f>'C'!$B1</f>
-        <v xml:space="preserve"> k1init</v>
-      </c>
-      <c r="D1" t="str">
-        <f>IF(NOT(AND(F1,E1)),"",'C'!$A1&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E1" t="b">
-        <f>IFERROR(VALUE('C'!$B1),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="12" t="b">
-        <f>NOT('C'!$A1="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="str">
-        <f>IF('C'!$A2="","",'C'!$A2&amp;"init")</f>
-        <v xml:space="preserve"> k2init</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <f>'C'!$B2</f>
-        <v xml:space="preserve"> k2init</v>
-      </c>
-      <c r="D2" t="str">
-        <f>IF(NOT(AND(F2,E2)),"",'C'!$A2&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E2" t="b">
-        <f>IFERROR(VALUE('C'!$B2),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="12" t="b">
-        <f>NOT('C'!$A2="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f>IF('C'!$A3="","",'C'!$A3&amp;"init")</f>
-        <v xml:space="preserve"> k3init</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <f>'C'!$B3</f>
-        <v xml:space="preserve"> k3init</v>
-      </c>
-      <c r="D3" t="str">
-        <f>IF(NOT(AND(F3,E3)),"",'C'!$A3&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E3" t="b">
-        <f>IFERROR(VALUE('C'!$B3),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="12" t="b">
-        <f>NOT('C'!$A3="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <f>IF('C'!$A4="","",'C'!$A4&amp;"init")</f>
-        <v xml:space="preserve"> k4init</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <f>'C'!$B4</f>
-        <v xml:space="preserve"> k4init</v>
-      </c>
-      <c r="D4" t="str">
-        <f>IF(NOT(AND(F4,E4)),"",'C'!$A4&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E4" t="b">
-        <f>IFERROR(VALUE('C'!$B4),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="12" t="b">
-        <f>NOT('C'!$A4="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <f>IF('C'!$A5="","",'C'!$A5&amp;"init")</f>
-        <v xml:space="preserve"> k5init</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f>'C'!$B5</f>
-        <v xml:space="preserve"> k5init</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IF(NOT(AND(F5,E5)),"",'C'!$A5&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E5" t="b">
-        <f>IFERROR(VALUE('C'!$B5),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="12" t="b">
-        <f>NOT('C'!$A5="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
-        <f>IF('C'!$A6="","",'C'!$A6&amp;"init")</f>
-        <v xml:space="preserve"> k6init</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f>'C'!$B6</f>
-        <v xml:space="preserve"> k6init</v>
-      </c>
-      <c r="D6" t="str">
-        <f>IF(NOT(AND(F6,E6)),"",'C'!$A6&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E6" t="b">
-        <f>IFERROR(VALUE('C'!$B6),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="b">
-        <f>NOT('C'!$A6="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <f>IF('C'!$A7="","",'C'!$A7&amp;"init")</f>
-        <v xml:space="preserve"> k7init</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f>'C'!$B7</f>
-        <v xml:space="preserve"> k7init</v>
-      </c>
-      <c r="D7" t="str">
-        <f>IF(NOT(AND(F7,E7)),"",'C'!$A7&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E7" t="b">
-        <f>IFERROR(VALUE('C'!$B7),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="12" t="b">
-        <f>NOT('C'!$A7="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="str">
-        <f>IF('C'!$A8="","",'C'!$A8&amp;"init")</f>
-        <v xml:space="preserve"> k8init</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f>'C'!$B8</f>
-        <v xml:space="preserve"> k8init</v>
-      </c>
-      <c r="D8" t="str">
-        <f>IF(NOT(AND(F8,E8)),"",'C'!$A8&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E8" t="b">
-        <f>IFERROR(VALUE('C'!$B8),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="12" t="b">
-        <f>NOT('C'!$A8="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
-        <f>IF('C'!$A9="","",'C'!$A9&amp;"init")</f>
-        <v xml:space="preserve"> k9init</v>
-      </c>
-      <c r="B9" s="4" t="str">
-        <f>'C'!$B9</f>
-        <v xml:space="preserve"> k9init</v>
-      </c>
-      <c r="D9" t="str">
-        <f>IF(NOT(AND(F9,E9)),"",'C'!$A9&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E9" t="b">
-        <f>IFERROR(VALUE('C'!$B9),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="b">
-        <f>NOT('C'!$A9="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="str">
-        <f>IF('C'!$A10="","",'C'!$A10&amp;"init")</f>
-        <v xml:space="preserve"> k10init</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f>'C'!$B10</f>
-        <v xml:space="preserve"> k10init</v>
-      </c>
-      <c r="D10" t="str">
-        <f>IF(NOT(AND(F10,E10)),"",'C'!$A10&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E10" t="b">
-        <f>IFERROR(VALUE('C'!$B10),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="12" t="b">
-        <f>NOT('C'!$A10="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
-        <f>IF('C'!$A11="","",'C'!$A11&amp;"init")</f>
-        <v xml:space="preserve"> k11init</v>
-      </c>
-      <c r="B11" s="4" t="str">
-        <f>'C'!$B11</f>
-        <v xml:space="preserve"> k11init</v>
-      </c>
-      <c r="D11" t="str">
-        <f>IF(NOT(AND(F11,E11)),"",'C'!$A11&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E11" t="b">
-        <f>IFERROR(VALUE('C'!$B11),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="12" t="b">
-        <f>NOT('C'!$A11="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="str">
-        <f>IF('C'!$A12="","",'C'!$A12&amp;"init")</f>
-        <v>K2init</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>'C'!$B12</f>
-        <v>K2init</v>
-      </c>
-      <c r="D12" t="str">
-        <f>IF(NOT(AND(F12,E12)),"",'C'!$A12&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E12" t="b">
-        <f>IFERROR(VALUE('C'!$B12),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="12" t="b">
-        <f>NOT('C'!$A12="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="str">
-        <f>IF('C'!$A13="","",'C'!$A13&amp;"init")</f>
-        <v>K4init</v>
-      </c>
-      <c r="B13" s="4" t="str">
-        <f>'C'!$B13</f>
-        <v>K4init</v>
-      </c>
-      <c r="D13" t="str">
-        <f>IF(NOT(AND(F13,E13)),"",'C'!$A13&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E13" t="b">
-        <f>IFERROR(VALUE('C'!$B13),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="12" t="b">
-        <f>NOT('C'!$A13="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="str">
-        <f>IF('C'!$A14="","",'C'!$A14&amp;"init")</f>
-        <v>lightinit</v>
-      </c>
-      <c r="B14" s="4" t="str">
-        <f>'C'!$B14</f>
-        <v>lightinit</v>
-      </c>
-      <c r="D14" t="str">
-        <f>IF(NOT(AND(F14,E14)),"",'C'!$A14&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E14" t="b">
-        <f>IFERROR(VALUE('C'!$B14),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="12" t="b">
-        <f>NOT('C'!$A14="")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="str">
-        <f>IF('C'!$A15="","",'C'!$A15&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f>'C'!$B15</f>
-        <v/>
-      </c>
-      <c r="D15" t="str">
-        <f>IF(NOT(AND(F15,E15)),"",'C'!$A15&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E15" t="b">
-        <f>IFERROR(VALUE('C'!$B15),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="12" t="b">
-        <f>NOT('C'!$A15="")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="str">
-        <f>IF('C'!$A16="","",'C'!$A16&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f>'C'!$B16</f>
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <f>IF(NOT(AND(F16,E16)),"",'C'!$A16&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="E16" t="b">
-        <f>IFERROR(VALUE('C'!$B16),FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="12" t="b">
-        <f>NOT('C'!$A16="")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="str">
-        <f>IF('C'!$A17="","",'C'!$A17&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f>'C'!$B17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="str">
-        <f>IF('C'!$A18="","",'C'!$A18&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B18" s="4" t="str">
-        <f>'C'!$B18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="str">
-        <f>IF('C'!$A19="","",'C'!$A19&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B19" s="4" t="str">
-        <f>'C'!$B19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="str">
-        <f>IF('C'!$A20="","",'C'!$A20&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B20" s="4" t="str">
-        <f>'C'!$B20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="str">
-        <f>IF('C'!$A21="","",'C'!$A21&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B21" s="4" t="str">
-        <f>'C'!$B21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="str">
-        <f>IF('C'!$A22="","",'C'!$A22&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B22" s="4" t="str">
-        <f>'C'!$B22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="str">
-        <f>IF('C'!$A23="","",'C'!$A23&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B23" s="4" t="str">
-        <f>'C'!$B23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="str">
-        <f>IF('C'!$A24="","",'C'!$A24&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B24" s="4" t="str">
-        <f>'C'!$B24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="str">
-        <f>IF('C'!$A25="","",'C'!$A25&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B25" s="4" t="str">
-        <f>'C'!$B25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="str">
-        <f>IF('C'!$A26="","",'C'!$A26&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B26" s="4" t="str">
-        <f>'C'!$B26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="str">
-        <f>IF('C'!$A27="","",'C'!$A27&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B27" s="4" t="str">
-        <f>'C'!$B27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="str">
-        <f>IF('C'!$A28="","",'C'!$A28&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B28" s="4" t="str">
-        <f>'C'!$B28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="str">
-        <f>IF('C'!$A29="","",'C'!$A29&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B29" s="4" t="str">
-        <f>'C'!$B29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="str">
-        <f>IF('C'!$A30="","",'C'!$A30&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B30" s="4" t="str">
-        <f>'C'!$B30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="str">
-        <f>IF('C'!$A31="","",'C'!$A31&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B31" s="4" t="str">
-        <f>'C'!$B31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="str">
-        <f>IF('C'!$A32="","",'C'!$A32&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B32" s="4" t="str">
-        <f>'C'!$B32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="str">
-        <f>IF('C'!$A33="","",'C'!$A33&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B33" s="4" t="str">
-        <f>'C'!$B33</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="str">
-        <f>IF('C'!$A34="","",'C'!$A34&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B34" s="4" t="str">
-        <f>'C'!$B34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="str">
-        <f>IF('C'!$A35="","",'C'!$A35&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B35" s="4" t="str">
-        <f>'C'!$B35</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="str">
-        <f>IF('C'!$A36="","",'C'!$A36&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B36" s="4" t="str">
-        <f>'C'!$B36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="str">
-        <f>IF('C'!$A37="","",'C'!$A37&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B37" s="4" t="str">
-        <f>'C'!$B37</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="str">
-        <f>IF('C'!$A38="","",'C'!$A38&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B38" s="4" t="str">
-        <f>'C'!$B38</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="str">
-        <f>IF('C'!$A39="","",'C'!$A39&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B39" s="4" t="str">
-        <f>'C'!$B39</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="str">
-        <f>IF('C'!$A40="","",'C'!$A40&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B40" s="4" t="str">
-        <f>'C'!$B40</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="str">
-        <f>IF('C'!$A41="","",'C'!$A41&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B41" s="4" t="str">
-        <f>'C'!$B41</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="str">
-        <f>IF('C'!$A42="","",'C'!$A42&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B42" s="4" t="str">
-        <f>'C'!$B42</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="str">
-        <f>IF('C'!$A43="","",'C'!$A43&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B43" s="4" t="str">
-        <f>'C'!$B43</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="str">
-        <f>IF('C'!$A44="","",'C'!$A44&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B44" s="4" t="str">
-        <f>'C'!$B44</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="str">
-        <f>IF('C'!$A45="","",'C'!$A45&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B45" s="4" t="str">
-        <f>'C'!$B45</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="str">
-        <f>IF('C'!$A46="","",'C'!$A46&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B46" s="4" t="str">
-        <f>'C'!$B46</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="str">
-        <f>IF('C'!$A47="","",'C'!$A47&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B47" s="4" t="str">
-        <f>'C'!$B47</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="str">
-        <f>IF('C'!$A48="","",'C'!$A48&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B48" s="4" t="str">
-        <f>'C'!$B48</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="str">
-        <f>IF('C'!$A49="","",'C'!$A49&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B49" s="4" t="str">
-        <f>'C'!$B49</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="str">
-        <f>IF('C'!$A50="","",'C'!$A50&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B50" s="4" t="str">
-        <f>'C'!$B50</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="str">
-        <f>IF('C'!$A51="","",'C'!$A51&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B51" s="4" t="str">
-        <f>'C'!$B51</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="str">
-        <f>IF('C'!$A52="","",'C'!$A52&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B52" s="4" t="str">
-        <f>'C'!$B52</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="str">
-        <f>IF('C'!$A53="","",'C'!$A53&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B53" s="4" t="str">
-        <f>'C'!$B53</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="str">
-        <f>IF('C'!$A54="","",'C'!$A54&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B54" s="4" t="str">
-        <f>'C'!$B54</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="str">
-        <f>IF('C'!$A55="","",'C'!$A55&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B55" s="4" t="str">
-        <f>'C'!$B55</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="str">
-        <f>IF('C'!$A56="","",'C'!$A56&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B56" s="4" t="str">
-        <f>'C'!$B56</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="str">
-        <f>IF('C'!$A57="","",'C'!$A57&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B57" s="4" t="str">
-        <f>'C'!$B57</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="str">
-        <f>IF('C'!$A58="","",'C'!$A58&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B58" s="4" t="str">
-        <f>'C'!$B58</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="str">
-        <f>IF('C'!$A59="","",'C'!$A59&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B59" s="4" t="str">
-        <f>'C'!$B59</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="str">
-        <f>IF('C'!$A60="","",'C'!$A60&amp;"init")</f>
-        <v/>
-      </c>
-      <c r="B60" s="4" t="str">
-        <f>'C'!$B60</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>